--- a/blueprint-jira-better-excel/_Current-Release-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/_Current-Release-Dashboard.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afolomechine\Documents\BLUEPRINT\JIRA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,14 +35,14 @@
   </definedNames>
   <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="49" r:id="rId18"/>
+    <pivotCache cacheId="99" r:id="rId18"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="276">
   <si>
     <t>Status</t>
   </si>
@@ -797,22 +797,10 @@
     <t>1. _ReleaseData sheet:</t>
   </si>
   <si>
-    <t>2. _ReadinessData sheet:</t>
-  </si>
-  <si>
     <t>* Update table B20 as above.</t>
   </si>
   <si>
-    <t>3. _TeamVelocityData sheet:</t>
-  </si>
-  <si>
     <t>* Update table K5 - fill in the previous sprint data with historical data.</t>
-  </si>
-  <si>
-    <t>4. _ActiveSprintData sheet:</t>
-  </si>
-  <si>
-    <t>5. ActiveSprint sheet:</t>
   </si>
   <si>
     <t>Changes required for a new Sprint:</t>
@@ -864,6 +852,24 @@
   </si>
   <si>
     <t>Sum of Epic Decomposed</t>
+  </si>
+  <si>
+    <t>2. _CumulativeFlowData:</t>
+  </si>
+  <si>
+    <t>* Update table A1 as above.</t>
+  </si>
+  <si>
+    <t>3. _ReadinessData sheet:</t>
+  </si>
+  <si>
+    <t>4. _TeamVelocityData sheet:</t>
+  </si>
+  <si>
+    <t>5. _ActiveSprintData sheet:</t>
+  </si>
+  <si>
+    <t>6. ActiveSprint sheet:</t>
   </si>
 </sst>
 </file>
@@ -1397,6 +1403,36 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1559,36 +1595,6 @@
           <color indexed="64"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1754,10 +1760,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.5431034482758621</c:v>
+                  <c:v>0.55172413793103448</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4568965517241379</c:v>
+                  <c:v>0.44827586206896552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2152,6 +2158,9 @@
                   <c:v>0.45860000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.52400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -3697,6 +3706,9 @@
                   <c:v>634</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>526.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -4087,6 +4099,9 @@
                   <c:v>1171</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>1106</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -4205,6 +4220,9 @@
                   <c:v>1113.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>1050.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4325,6 +4343,9 @@
                   <c:v>614</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>709</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -4443,6 +4464,9 @@
                   <c:v>537</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>579.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -5194,10 +5218,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.62376237623762376</c:v>
+                  <c:v>0.63366336633663367</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.37623762376237624</c:v>
+                  <c:v>0.36633663366336633</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5794,6 +5818,9 @@
                   <c:v>0.67889999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.67030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -7346,6 +7373,9 @@
                   <c:v>249.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>259.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -7744,6 +7774,9 @@
                   <c:v>777</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>787</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -7862,6 +7895,9 @@
                   <c:v>755</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7982,6 +8018,9 @@
                   <c:v>704</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>734</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -8100,6 +8139,9 @@
                   <c:v>527.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>527.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -9166,6 +9208,9 @@
                   <c:v>701</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>840</c:v>
                 </c:pt>
               </c:numCache>
@@ -9337,6 +9382,9 @@
                   <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>222.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -17360,7 +17408,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Sprint 8 Progress</c:v>
+              <c:v>Sprint 9 Progress</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -21429,6 +21477,9 @@
                   <c:v>0.55800000000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.59019999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
@@ -23838,6 +23889,9 @@
                   <c:v>1001</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
@@ -24228,6 +24282,9 @@
                   <c:v>2264.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>2220.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1200</c:v>
                 </c:pt>
               </c:numCache>
@@ -24346,6 +24403,9 @@
                   <c:v>2177</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>2144</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -24466,6 +24526,9 @@
                   <c:v>1563.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>1699.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>360</c:v>
                 </c:pt>
               </c:numCache>
@@ -24584,6 +24647,9 @@
                   <c:v>1263.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>1310.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>900</c:v>
                 </c:pt>
               </c:numCache>
@@ -25335,10 +25401,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.5431034482758621</c:v>
+                  <c:v>0.55172413793103448</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4568965517241379</c:v>
+                  <c:v>0.44827586206896552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -43026,7 +43092,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>54%</a:t>
+            <a:t>55%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -43702,7 +43768,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>54%</a:t>
+            <a:t>55%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -44209,7 +44275,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>62%</a:t>
+            <a:t>63%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -44226,7 +44292,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43292.482292824076" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="90">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43299.483586111113" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="90">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -45840,7 +45906,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="17"/>
+    <x v="18"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45886,7 +45952,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="17"/>
+    <x v="18"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45932,7 +45998,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="17"/>
+    <x v="18"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45978,7 +46044,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="17"/>
+    <x v="18"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -46024,7 +46090,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="17"/>
+    <x v="18"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -46070,7 +46136,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="17"/>
+    <x v="18"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -46116,7 +46182,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="17"/>
+    <x v="18"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -48665,8 +48731,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="49" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A24:B29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="99" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G35:G36" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -48689,28 +48755,6 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="5">
         <item x="0"/>
@@ -48722,195 +48766,62 @@
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
   </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
+  <rowItems count="1">
+    <i/>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="2">
+  <pageFields count="3">
     <pageField fld="32" item="2" hier="-1"/>
     <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="1" hier="-1"/>
   </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="44" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="45" baseField="0" baseItem="32"/>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
   </dataFields>
-  <chartFormats count="15">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -48924,7 +48835,98 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="99" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="46">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Not Decomposed Estimate" fld="45" baseField="1" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="99" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B12:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49060,19 +49062,19 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="99" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
+  <location ref="D5:E11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="8">
         <item h="1" x="0"/>
         <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
         <item h="1" x="1"/>
         <item t="default"/>
       </items>
@@ -49088,31 +49090,67 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item h="1" x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item h="1" x="8"/>
+        <item h="1" x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49120,14 +49158,26 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="1"/>
+    <field x="34"/>
   </rowFields>
-  <rowItems count="2">
+  <rowItems count="6">
     <i>
       <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
     </i>
     <i t="grand">
       <x/>
@@ -49136,9 +49186,325 @@
   <colItems count="1">
     <i/>
   </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="37" item="3" hier="-1"/>
+  </pageFields>
   <dataFields count="1">
-    <dataField name="Sum of Epic Not Decomposed Estimate" fld="45" baseField="1" baseItem="2"/>
+    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
   </dataFields>
+  <chartFormats count="27">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="37" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="21" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="66" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="67">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="68">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="69">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="70">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="71">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -49151,8 +49517,223 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="99" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A5:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="46">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item h="1" x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item h="1" x="8"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="37" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="6">
+    <chartFormat chart="10" format="49" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="50">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="51">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="52">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="53">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="54">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="99" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="J5:K11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49663,8 +50244,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="99" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="G5:H11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -50175,678 +50756,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
-  <location ref="D5:E11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="46">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item h="1" x="8"/>
-        <item h="1" x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="10"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="2" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="37" item="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="27">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="37" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="11" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="21" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="66" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="67">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="68">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="69">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="70">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="71">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="A5:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="46">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item h="1" x="8"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="10"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="2" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="37" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="6">
-    <chartFormat chart="10" format="49" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="50">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="51">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="52">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="53">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="54">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="99" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="B4:H20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -51148,7 +51059,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="99" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="D4:E11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -51281,7 +51192,7 @@
   </colItems>
   <pageFields count="2">
     <pageField fld="1" hier="-1"/>
-    <pageField fld="30" item="21" hier="-1"/>
+    <pageField fld="30" item="22" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
@@ -51415,7 +51326,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="99" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="F8:L11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -51728,7 +51639,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="99" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -52130,19 +52041,19 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="49" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A34:A35" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="99" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A49:B54" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
+        <item x="0"/>
+        <item x="6"/>
         <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -52187,31 +52098,117 @@
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowItems count="1">
-    <i/>
+  <rowFields count="1">
+    <field x="35"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
   <pageFields count="2">
+    <pageField fld="1" item="2" hier="-1"/>
     <pageField fld="32" item="2" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
   </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -52225,7 +52222,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="99" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="B29:C44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -52478,111 +52475,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="49" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G35:G36" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="46">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="2" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="49" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="99" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
   <location ref="D24:E29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52903,8 +52796,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="49" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="99" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="G24:H29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -53279,8 +53172,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="49" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="99" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="D35:D36" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -53383,8 +53276,362 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="99" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A24:B29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="46">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" item="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="44" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="45" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="15">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="99" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A34:A35" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="46">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" item="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="99" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="Y4:AA8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -53509,189 +53756,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A49:B54" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="46">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="35"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="1" item="2" hier="-1"/>
-    <pageField fld="32" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="2" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="99" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AD10:AH16" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -53826,26 +53892,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:E4" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:E4" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <autoFilter ref="D2:E4">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="Start Date" dataDxfId="6"/>
-    <tableColumn id="2" name="End Date" dataDxfId="5"/>
+    <tableColumn id="1" name="Start Date" dataDxfId="9"/>
+    <tableColumn id="2" name="End Date" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="W2:W12" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="W2:W12" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="W2:W12">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" name="Stabilization and Holidays" dataDxfId="3"/>
+    <tableColumn id="1" name="Stabilization and Holidays" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -53860,10 +53926,10 @@
   </autoFilter>
   <tableColumns count="3">
     <tableColumn id="1" name="Sprint"/>
-    <tableColumn id="2" name="Epics New" dataDxfId="2">
+    <tableColumn id="2" name="Epics New" dataDxfId="5">
       <calculatedColumnFormula>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Stories Ready" dataDxfId="1">
+    <tableColumn id="3" name="Stories Ready" dataDxfId="4">
       <calculatedColumnFormula>GETPIVOTDATA("Story Points",$B$12)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -53891,7 +53957,7 @@
     <tableColumn id="5" name="SoftTeco" totalsRowFunction="sum"/>
     <tableColumn id="8" name="Titan" totalsRowFunction="sum"/>
     <tableColumn id="6" name="QA" totalsRowFunction="sum"/>
-    <tableColumn id="7" name="Total" totalsRowFunction="sum" dataDxfId="0">
+    <tableColumn id="7" name="Total" totalsRowFunction="sum" dataDxfId="3">
       <calculatedColumnFormula>SUM(L6:Q6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -55180,7 +55246,7 @@
   <dimension ref="A6:B9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -55585,9 +55651,18 @@
       <c r="K13" t="s">
         <v>156</v>
       </c>
+      <c r="L13">
+        <v>4.5</v>
+      </c>
+      <c r="M13">
+        <v>21</v>
+      </c>
+      <c r="N13">
+        <v>23</v>
+      </c>
       <c r="R13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.45">
@@ -55749,15 +55824,15 @@
       </c>
       <c r="L20">
         <f>SUBTOTAL(109,Table1[Alpha])</f>
-        <v>147.5</v>
+        <v>152</v>
       </c>
       <c r="M20">
         <f>SUBTOTAL(109,Table1[ngStars])</f>
-        <v>301.5</v>
+        <v>322.5</v>
       </c>
       <c r="N20">
         <f>SUBTOTAL(109,Table1[NW])</f>
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="O20">
         <f>SUBTOTAL(109,Table1[SoftTeco])</f>
@@ -55773,7 +55848,7 @@
       </c>
       <c r="R20">
         <f>SUBTOTAL(109,Table1[Total])</f>
-        <v>1390.5</v>
+        <v>1439</v>
       </c>
     </row>
   </sheetData>
@@ -55803,7 +55878,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -55819,7 +55896,7 @@
       </c>
       <c r="B1" t="str">
         <f>$E$2</f>
-        <v>Quasar8</v>
+        <v>Quasar9</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>9</v>
@@ -55833,7 +55910,7 @@
         <v>165</v>
       </c>
       <c r="E2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -55915,7 +55992,7 @@
       </c>
       <c r="E15" t="str">
         <f>"Sprint " &amp; SUBSTITUTE($B$1,"Quasar", "") &amp; " Progress"</f>
-        <v>Sprint 8 Progress</v>
+        <v>Sprint 9 Progress</v>
       </c>
     </row>
   </sheetData>
@@ -57249,7 +57326,7 @@
       </c>
       <c r="AE30" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Quasar8</v>
+        <v>Quasar9</v>
       </c>
       <c r="AI30" s="5" t="s">
         <v>193</v>
@@ -57270,7 +57347,7 @@
       </c>
       <c r="AE31" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Quasar8</v>
+        <v>Quasar9</v>
       </c>
       <c r="AI31" s="5" t="s">
         <v>223</v>
@@ -57291,7 +57368,7 @@
       </c>
       <c r="AE32" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Quasar8</v>
+        <v>Quasar9</v>
       </c>
       <c r="AI32" s="5" t="s">
         <v>194</v>
@@ -57312,7 +57389,7 @@
       </c>
       <c r="AE33" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Quasar8</v>
+        <v>Quasar9</v>
       </c>
       <c r="AI33" s="5" t="s">
         <v>195</v>
@@ -57333,7 +57410,7 @@
       </c>
       <c r="AE34" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Quasar8</v>
+        <v>Quasar9</v>
       </c>
       <c r="AI34" s="5" t="s">
         <v>197</v>
@@ -57354,7 +57431,7 @@
       </c>
       <c r="AE35" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Quasar8</v>
+        <v>Quasar9</v>
       </c>
       <c r="AI35" s="5" t="s">
         <v>196</v>
@@ -57372,7 +57449,7 @@
       </c>
       <c r="AE36" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Quasar8</v>
+        <v>Quasar9</v>
       </c>
       <c r="AI36" s="5" t="s">
         <v>198</v>
@@ -58512,7 +58589,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -58520,7 +58597,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="51" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -58535,47 +58612,57 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>259</v>
+      <c r="A11" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>256</v>
+      <c r="B12" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>260</v>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -58648,12 +58735,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA56"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.9296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.1328125" bestFit="1" customWidth="1"/>
@@ -58682,7 +58771,7 @@
         <v>201</v>
       </c>
       <c r="K1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="L1" t="s">
         <v>231</v>
@@ -58721,7 +58810,7 @@
       </c>
       <c r="B2" s="52">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$W$3:$W$12)/NETWORKDAYS($D$3,$E$3,$W$3:$W$12),0%)</f>
-        <v>0.5431034482758621</v>
+        <v>0.55172413793103448</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>131</v>
@@ -58790,7 +58879,7 @@
       </c>
       <c r="B3" s="32">
         <f ca="1">MAX(100%,B2)-B2</f>
-        <v>0.4568965517241379</v>
+        <v>0.44827586206896552</v>
       </c>
       <c r="D3" s="28">
         <v>43201</v>
@@ -58996,7 +59085,7 @@
       </c>
       <c r="E6" s="27">
         <f ca="1">TODAY()</f>
-        <v>43292</v>
+        <v>43299</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>151</v>
@@ -59370,40 +59459,34 @@
         <v>0.62376237623762376</v>
       </c>
       <c r="M11" s="43">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$Y$4)/GETPIVOTDATA("Epic Total Estimate",$Y$4)</f>
-        <v>0.75</v>
+        <v>0.59019999999999995</v>
       </c>
       <c r="N11" s="43">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Diagram Editor")/GETPIVOTDATA("Epic Total Estimate",$Y$4,"ST:Components","Diagram Editor")</f>
-        <v>0.25</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="O11" s="43">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Artifact List")/GETPIVOTDATA("Epic Total Estimate",$Y$4,"ST:Components","Artifact List")</f>
-        <v>0.25</v>
+        <v>0.67030000000000001</v>
       </c>
       <c r="P11" s="46">
         <f t="shared" si="2"/>
         <v>1073.706896551724</v>
       </c>
       <c r="Q11" s="47">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$Y$4)</f>
-        <v>300</v>
+        <v>910</v>
       </c>
       <c r="R11" s="50">
         <f t="shared" si="3"/>
         <v>639.65517241379303</v>
       </c>
       <c r="S11" s="47">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Diagram Editor")</f>
-        <v>150</v>
+        <v>526.5</v>
       </c>
       <c r="T11" s="46">
         <f t="shared" si="0"/>
         <v>253.96039603960395</v>
       </c>
       <c r="U11" s="47">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Artifact List")</f>
-        <v>150</v>
+        <v>259.5</v>
       </c>
       <c r="W11" s="35">
         <v>43346</v>
@@ -59433,24 +59516,42 @@
         <f>SUM($J$4:J12)/SUM($J$4:$J$15)</f>
         <v>0.72277227722772275</v>
       </c>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
+      <c r="M12" s="43">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$Y$4)/GETPIVOTDATA("Epic Total Estimate",$Y$4)</f>
+        <v>0.75</v>
+      </c>
+      <c r="N12" s="43">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Diagram Editor")/GETPIVOTDATA("Epic Total Estimate",$Y$4,"ST:Components","Diagram Editor")</f>
+        <v>0.25</v>
+      </c>
+      <c r="O12" s="43">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Artifact List")/GETPIVOTDATA("Epic Total Estimate",$Y$4,"ST:Components","Artifact List")</f>
+        <v>0.25</v>
+      </c>
       <c r="P12" s="46">
         <f t="shared" si="2"/>
         <v>871.12068965517244</v>
       </c>
-      <c r="Q12" s="47"/>
+      <c r="Q12" s="47">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$Y$4)</f>
+        <v>300</v>
+      </c>
       <c r="R12" s="50">
         <f t="shared" si="3"/>
         <v>518.9655172413793</v>
       </c>
-      <c r="S12" s="47"/>
+      <c r="S12" s="47">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Diagram Editor")</f>
+        <v>150</v>
+      </c>
       <c r="T12" s="46">
         <f t="shared" si="0"/>
         <v>187.12871287128715</v>
       </c>
-      <c r="U12" s="47"/>
+      <c r="U12" s="47">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Artifact List")</f>
+        <v>150</v>
+      </c>
       <c r="W12" s="35">
         <v>43381</v>
       </c>
@@ -59640,10 +59741,10 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A17" s="44" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G17" s="25" t="s">
         <v>162</v>
@@ -59687,7 +59788,7 @@
       </c>
       <c r="B18" s="52">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$W$3:$W$12)/NETWORKDAYS($D$3,$E$4,$W$3:$W$12),0%)</f>
-        <v>0.62376237623762376</v>
+        <v>0.63366336633663367</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.45">
@@ -59696,7 +59797,7 @@
       </c>
       <c r="B19" s="32">
         <f ca="1">MAX(100%,B18)-B18</f>
-        <v>0.37623762376237624</v>
+        <v>0.36633663366336633</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.45">
@@ -60067,17 +60168,17 @@
     <mergeCell ref="T1:U1"/>
   </mergeCells>
   <conditionalFormatting sqref="B35">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
       <formula>$A$35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
       <formula>$D$36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>$G$36</formula>
     </cfRule>
   </conditionalFormatting>
@@ -60186,82 +60287,82 @@
         <v>132</v>
       </c>
       <c r="D2" s="57" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E2" s="58" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F2" s="59" t="s">
         <v>123</v>
       </c>
       <c r="G2" s="59" t="s">
+        <v>262</v>
+      </c>
+      <c r="H2" s="59" t="s">
+        <v>263</v>
+      </c>
+      <c r="I2" s="59" t="s">
+        <v>264</v>
+      </c>
+      <c r="J2" s="59" t="s">
+        <v>265</v>
+      </c>
+      <c r="K2" s="60" t="s">
         <v>266</v>
       </c>
-      <c r="H2" s="59" t="s">
-        <v>267</v>
-      </c>
-      <c r="I2" s="59" t="s">
-        <v>268</v>
-      </c>
-      <c r="J2" s="59" t="s">
-        <v>269</v>
-      </c>
-      <c r="K2" s="60" t="s">
-        <v>270</v>
-      </c>
       <c r="L2" s="57" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M2" s="58" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="N2" s="59" t="s">
         <v>123</v>
       </c>
       <c r="O2" s="59" t="s">
+        <v>262</v>
+      </c>
+      <c r="P2" s="59" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q2" s="59" t="s">
+        <v>264</v>
+      </c>
+      <c r="R2" s="59" t="s">
+        <v>265</v>
+      </c>
+      <c r="S2" s="60" t="s">
         <v>266</v>
       </c>
-      <c r="P2" s="59" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q2" s="59" t="s">
-        <v>268</v>
-      </c>
-      <c r="R2" s="59" t="s">
-        <v>269</v>
-      </c>
-      <c r="S2" s="60" t="s">
-        <v>270</v>
-      </c>
       <c r="T2" s="61" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="U2" s="58" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="V2" s="59" t="s">
         <v>123</v>
       </c>
       <c r="W2" s="59" t="s">
+        <v>262</v>
+      </c>
+      <c r="X2" s="59" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y2" s="59" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z2" s="59" t="s">
+        <v>265</v>
+      </c>
+      <c r="AA2" s="60" t="s">
         <v>266</v>
-      </c>
-      <c r="X2" s="59" t="s">
-        <v>267</v>
-      </c>
-      <c r="Y2" s="59" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z2" s="59" t="s">
-        <v>269</v>
-      </c>
-      <c r="AA2" s="60" t="s">
-        <v>270</v>
       </c>
       <c r="AB2" s="62"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="64"/>
@@ -61005,97 +61106,85 @@
         <v>43298</v>
       </c>
       <c r="D11" s="65">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AD$8, "Type", "Epic")</f>
-        <v>1200</v>
+        <v>2220.5</v>
       </c>
       <c r="E11" s="66">
         <v>2350</v>
       </c>
       <c r="F11" s="46">
-        <f>GETPIVOTDATA("Stories Estimate", $AD$8, "Type", "Epic")</f>
-        <v>0</v>
+        <v>2144</v>
       </c>
       <c r="G11" s="46">
-        <f>GETPIVOTDATA("Epic Decomposed", $AD$8, "Type", "Epic")</f>
-        <v>360</v>
+        <v>1699.5</v>
       </c>
       <c r="H11" s="46">
         <f t="shared" si="6"/>
-        <v>900</v>
+        <v>1310.5</v>
       </c>
       <c r="I11" s="46">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AD$8, "Type", "Epic")</f>
-        <v>300</v>
+        <v>910</v>
       </c>
       <c r="J11" s="36">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.76536816032425126</v>
       </c>
       <c r="K11" s="36">
         <f t="shared" si="7"/>
-        <v>0.75</v>
+        <v>0.59018239135329875</v>
       </c>
       <c r="L11" s="67">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>200</v>
+        <v>1106</v>
       </c>
       <c r="M11" s="66">
         <v>1400</v>
       </c>
       <c r="N11" s="46">
-        <f>GETPIVOTDATA("Stories Estimate", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>0</v>
+        <v>1050.5</v>
       </c>
       <c r="O11" s="46">
-        <f>GETPIVOTDATA("Epic Decomposed", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>180</v>
+        <v>709</v>
       </c>
       <c r="P11" s="46">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>579.5</v>
       </c>
       <c r="Q11" s="46">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>150</v>
+        <v>526.5</v>
       </c>
       <c r="R11" s="36">
         <f t="shared" si="1"/>
-        <v>0.9</v>
+        <v>0.6410488245931284</v>
       </c>
       <c r="S11" s="36">
         <f t="shared" si="4"/>
-        <v>0.25</v>
+        <v>0.52396021699819173</v>
       </c>
       <c r="T11" s="65">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
-        <v>200</v>
+        <v>787</v>
       </c>
       <c r="U11" s="66">
         <v>675</v>
       </c>
       <c r="V11" s="46">
-        <f>GETPIVOTDATA("Stories Estimate", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
-        <v>0</v>
+        <v>777</v>
       </c>
       <c r="W11" s="46">
-        <f>GETPIVOTDATA("Epic Decomposed", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
-        <v>180</v>
+        <v>734</v>
       </c>
       <c r="X11" s="46">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v>527.5</v>
       </c>
       <c r="Y11" s="46">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
-        <v>150</v>
+        <v>259.5</v>
       </c>
       <c r="Z11" s="36">
         <f t="shared" si="2"/>
-        <v>0.9</v>
+        <v>0.93265565438373565</v>
       </c>
       <c r="AA11" s="36">
         <f t="shared" si="5"/>
-        <v>0.25</v>
+        <v>0.67026683608640403</v>
       </c>
       <c r="AE11" t="s">
         <v>68</v>
@@ -61111,15 +61200,99 @@
       <c r="C12" s="68">
         <v>43312</v>
       </c>
+      <c r="D12" s="65">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AD$8, "Type", "Epic")</f>
+        <v>1200</v>
+      </c>
       <c r="E12" s="66">
         <v>2350</v>
       </c>
+      <c r="F12" s="46">
+        <f>GETPIVOTDATA("Stories Estimate", $AD$8, "Type", "Epic")</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="46">
+        <f>GETPIVOTDATA("Epic Decomposed", $AD$8, "Type", "Epic")</f>
+        <v>360</v>
+      </c>
+      <c r="H12" s="46">
+        <f t="shared" ref="H12" si="10">D12-I12</f>
+        <v>900</v>
+      </c>
+      <c r="I12" s="46">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AD$8, "Type", "Epic")</f>
+        <v>300</v>
+      </c>
+      <c r="J12" s="36">
+        <f t="shared" ref="J12" si="11" xml:space="preserve"> G12/D12</f>
+        <v>0.3</v>
+      </c>
+      <c r="K12" s="36">
+        <f t="shared" ref="K12" si="12" xml:space="preserve"> H12/D12</f>
+        <v>0.75</v>
+      </c>
+      <c r="L12" s="67">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>200</v>
+      </c>
       <c r="M12" s="66">
         <v>1400</v>
       </c>
+      <c r="N12" s="46">
+        <f>GETPIVOTDATA("Stories Estimate", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="46">
+        <f>GETPIVOTDATA("Epic Decomposed", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>180</v>
+      </c>
+      <c r="P12" s="46">
+        <f t="shared" ref="P12" si="13">L12-Q12</f>
+        <v>50</v>
+      </c>
+      <c r="Q12" s="46">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>150</v>
+      </c>
+      <c r="R12" s="36">
+        <f t="shared" ref="R12" si="14" xml:space="preserve"> O12/L12</f>
+        <v>0.9</v>
+      </c>
+      <c r="S12" s="36">
+        <f t="shared" ref="S12" si="15" xml:space="preserve"> P12/L12</f>
+        <v>0.25</v>
+      </c>
+      <c r="T12" s="65">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
+        <v>200</v>
+      </c>
       <c r="U12" s="66">
         <v>675</v>
       </c>
+      <c r="V12" s="46">
+        <f>GETPIVOTDATA("Stories Estimate", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="46">
+        <f>GETPIVOTDATA("Epic Decomposed", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
+        <v>180</v>
+      </c>
+      <c r="X12" s="46">
+        <f t="shared" ref="X12" si="16">T12-Y12</f>
+        <v>50</v>
+      </c>
+      <c r="Y12" s="46">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
+        <v>150</v>
+      </c>
+      <c r="Z12" s="36">
+        <f t="shared" ref="Z12" si="17" xml:space="preserve"> W12/T12</f>
+        <v>0.9</v>
+      </c>
+      <c r="AA12" s="36">
+        <f t="shared" ref="AA12" si="18">X12/T12</f>
+        <v>0.25</v>
+      </c>
       <c r="AD12" s="16" t="s">
         <v>163</v>
       </c>
@@ -61127,10 +61300,10 @@
         <v>118</v>
       </c>
       <c r="AF12" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AG12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AH12" t="s">
         <v>117</v>
@@ -61321,8 +61494,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="9.46484375" customWidth="1"/>
     <col min="6" max="6" width="8.19921875" bestFit="1" customWidth="1"/>
@@ -61475,17 +61648,23 @@
         <v>156</v>
       </c>
       <c r="C28">
-        <f t="shared" ref="C28" si="0">GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
-        <v>840</v>
+        <v>521</v>
       </c>
       <c r="D28">
-        <f t="shared" ref="D28" si="1">GETPIVOTDATA("Story Points",$B$12)</f>
-        <v>150</v>
+        <v>222.5</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>157</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C28:C29" si="0">GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
+        <v>840</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ref="D28:D29" si="1">GETPIVOTDATA("Story Points",$B$12)</f>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.45">
@@ -61541,7 +61720,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pivotSelection pane="bottomRight" click="1" r:id="rId4">
+      <pivotSelection pane="bottomRight" click="1" r:id="rId2">
         <pivotArea field="32" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
       </pivotSelection>
     </sheetView>

--- a/blueprint-jira-better-excel/_Current-Release-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/_Current-Release-Dashboard.xlsx
@@ -35,7 +35,7 @@
   </definedNames>
   <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="99" r:id="rId18"/>
+    <pivotCache cacheId="102" r:id="rId18"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -1403,36 +1403,6 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1595,6 +1565,36 @@
           <color indexed="64"/>
         </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1760,10 +1760,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.55172413793103448</c:v>
+                  <c:v>0.63793103448275867</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44827586206896552</c:v>
+                  <c:v>0.36206896551724133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2161,6 +2161,9 @@
                   <c:v>0.52400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0.62719999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -3709,6 +3712,9 @@
                   <c:v>526.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>401.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -4102,6 +4108,9 @@
                   <c:v>1106</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>1077</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -4223,6 +4232,9 @@
                   <c:v>1050.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>1053.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4346,6 +4358,9 @@
                   <c:v>709</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>827.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -4467,6 +4482,9 @@
                   <c:v>579.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>675.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -5218,10 +5236,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.63366336633663367</c:v>
+                  <c:v>0.63793103448275867</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36633663366336633</c:v>
+                  <c:v>0.36206896551724133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5666,39 +5684,45 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9504950495049507E-2</c:v>
+                  <c:v>4.3103448275862072E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14851485148514851</c:v>
+                  <c:v>0.12931034482758622</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.24752475247524752</c:v>
+                  <c:v>0.21551724137931033</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33663366336633666</c:v>
+                  <c:v>0.29310344827586204</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.43564356435643564</c:v>
+                  <c:v>0.37931034482758619</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.53465346534653468</c:v>
+                  <c:v>0.46551724137931033</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.62376237623762376</c:v>
+                  <c:v>0.5431034482758621</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.62376237623762376</c:v>
+                  <c:v>0.5431034482758621</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.72277227722772275</c:v>
+                  <c:v>0.62931034482758619</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.81188118811881194</c:v>
+                  <c:v>0.7068965517241379</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.91089108910891092</c:v>
+                  <c:v>0.7931034482758621</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>0.87068965517241381</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.9568965517241379</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -5821,6 +5845,9 @@
                   <c:v>0.67030000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0.70540000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -7221,39 +7248,45 @@
                   <c:v>675</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>641.58415841584156</c:v>
+                  <c:v>645.90517241379314</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>574.75247524752479</c:v>
+                  <c:v>587.7155172413793</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>507.9207920792079</c:v>
+                  <c:v>529.52586206896558</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>447.77227722772273</c:v>
+                  <c:v>477.15517241379308</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>380.94059405940595</c:v>
+                  <c:v>418.9655172413793</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>314.10891089108907</c:v>
+                  <c:v>360.77586206896558</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>253.96039603960395</c:v>
+                  <c:v>308.40517241379308</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>253.96039603960395</c:v>
+                  <c:v>308.40517241379308</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>187.12871287128715</c:v>
+                  <c:v>250.21551724137933</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>126.98019801980195</c:v>
+                  <c:v>197.84482758620692</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>60.148514851485125</c:v>
+                  <c:v>139.65517241379308</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>87.284482758620683</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29.094827586206918</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7376,6 +7409,9 @@
                   <c:v>259.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -7777,6 +7813,9 @@
                   <c:v>787</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>872.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -7898,6 +7937,9 @@
                   <c:v>777</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>822.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -8021,6 +8063,9 @@
                   <c:v>734</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>751.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -8142,6 +8187,9 @@
                   <c:v>527.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>615.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -9211,6 +9259,9 @@
                   <c:v>521</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>840</c:v>
                 </c:pt>
               </c:numCache>
@@ -9385,6 +9436,9 @@
                   <c:v>222.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -17408,7 +17462,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Sprint 9 Progress</c:v>
+              <c:v>Sprint 10 Progress</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -21480,6 +21534,9 @@
                   <c:v>0.59019999999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0.65620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
@@ -23892,6 +23949,9 @@
                   <c:v>910</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
@@ -24285,6 +24345,9 @@
                   <c:v>2220.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>2306.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1200</c:v>
                 </c:pt>
               </c:numCache>
@@ -24406,6 +24469,9 @@
                   <c:v>2144</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>2212</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -24529,6 +24595,9 @@
                   <c:v>1699.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>1865.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>360</c:v>
                 </c:pt>
               </c:numCache>
@@ -24650,6 +24719,9 @@
                   <c:v>1310.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>1513.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>900</c:v>
                 </c:pt>
               </c:numCache>
@@ -25401,10 +25473,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.55172413793103448</c:v>
+                  <c:v>0.63793103448275867</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44827586206896552</c:v>
+                  <c:v>0.36206896551724133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -43092,7 +43164,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>55%</a:t>
+            <a:t>64%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -43768,7 +43840,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>55%</a:t>
+            <a:t>64%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -44275,7 +44347,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>63%</a:t>
+            <a:t>64%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -44292,7 +44364,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43299.483586111113" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="90">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43313.64081597222" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="90">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -45906,7 +45978,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="18"/>
+    <x v="19"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45952,7 +46024,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="18"/>
+    <x v="19"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45998,7 +46070,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="18"/>
+    <x v="19"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -46044,7 +46116,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="18"/>
+    <x v="19"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -46090,7 +46162,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="18"/>
+    <x v="19"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -46136,7 +46208,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="18"/>
+    <x v="19"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -46182,7 +46254,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="18"/>
+    <x v="19"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -48731,8 +48803,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="99" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G35:G36" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="102" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+  <location ref="G24:H29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -48768,7 +48840,7 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -48800,16 +48872,33 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
   </pivotFields>
-  <rowItems count="1">
-    <i/>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
   </rowItems>
   <colItems count="1">
     <i/>
@@ -48819,9 +48908,264 @@
     <pageField fld="1" hier="-1"/>
     <pageField fld="10" item="1" hier="-1"/>
   </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  <dataFields count="5">
+    <dataField name="Done" fld="44" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="45" baseField="0" baseItem="32"/>
   </dataFields>
+  <chartFormats count="27">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -48835,7 +49179,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="99" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="102" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -48926,7 +49270,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="99" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="102" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B12:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49063,462 +49407,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="99" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
-  <location ref="D5:E11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="46">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item h="1" x="8"/>
-        <item h="1" x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="10"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="2" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="37" item="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="27">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="37" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="11" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="21" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="66" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="67">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="68">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="69">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="70">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="71">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="99" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="102" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A5:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49732,8 +49621,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="99" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="102" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="J5:K11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -50244,8 +50133,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="99" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="102" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="G5:H11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -50756,8 +50645,463 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="102" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
+  <location ref="D5:E11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="46">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item h="1" x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item h="1" x="8"/>
+        <item h="1" x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="37" item="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="27">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="37" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="21" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="66" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="67">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="68">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="69">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="70">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="71">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="99" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="102" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="B4:H20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -51059,7 +51403,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="99" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="102" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="D4:E11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -51192,7 +51536,7 @@
   </colItems>
   <pageFields count="2">
     <pageField fld="1" hier="-1"/>
-    <pageField fld="30" item="22" hier="-1"/>
+    <pageField fld="30" item="10" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
@@ -51326,7 +51670,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="99" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="102" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="F8:L11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -51639,7 +51983,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="99" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="102" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -52041,7 +52385,727 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="99" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="102" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D35:D36" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="46">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="102" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="B29:C44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="46">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="47">
+        <item x="0"/>
+        <item x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow">
+      <items count="18">
+        <item h="1" m="1" x="16"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item h="1" x="1"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="12">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item h="1" x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="15">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="31" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="102" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A24:B29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="46">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" item="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="44" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="45" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="15">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="102" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G35:G36" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="46">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="102" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A49:B54" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52221,124 +53285,53 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="99" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="B29:C44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="102" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A34:A35" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="46">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="8">
-        <item x="0"/>
-        <item x="6"/>
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
         <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="47">
-        <item x="0"/>
-        <item x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow">
-      <items count="18">
-        <item h="1" m="1" x="16"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item h="1" x="1"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="5">
         <item x="0"/>
@@ -52352,22 +53345,7 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="12">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="10"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item h="1" x="8"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -52377,91 +53355,19 @@
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
   </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="15">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
+  <rowItems count="1">
+    <i/>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="4">
-    <pageField fld="32" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" item="1" hier="-1"/>
+  <pageFields count="2">
+    <pageField fld="32" item="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
   </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="31" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -52474,8 +53380,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="99" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="102" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
   <location ref="D24:E29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52796,842 +53702,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="99" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
-  <location ref="G24:H29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="46">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="2" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="44" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="45" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="27">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="99" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D35:D36" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="46">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="2" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="99" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A24:B29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="46">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="32" item="2" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="44" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="45" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="15">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="99" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A34:A35" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="46">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="32" item="2" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="99" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="102" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="Y4:AA8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -53757,7 +53829,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="99" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="102" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AD10:AH16" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -53892,26 +53964,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:E4" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:E4" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="D2:E4">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="Start Date" dataDxfId="9"/>
-    <tableColumn id="2" name="End Date" dataDxfId="8"/>
+    <tableColumn id="1" name="Start Date" dataDxfId="6"/>
+    <tableColumn id="2" name="End Date" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="W2:W12" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="W2:W12" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="W2:W12">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" name="Stabilization and Holidays" dataDxfId="6"/>
+    <tableColumn id="1" name="Stabilization and Holidays" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -53926,10 +53998,10 @@
   </autoFilter>
   <tableColumns count="3">
     <tableColumn id="1" name="Sprint"/>
-    <tableColumn id="2" name="Epics New" dataDxfId="5">
+    <tableColumn id="2" name="Epics New" dataDxfId="2">
       <calculatedColumnFormula>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Stories Ready" dataDxfId="4">
+    <tableColumn id="3" name="Stories Ready" dataDxfId="1">
       <calculatedColumnFormula>GETPIVOTDATA("Story Points",$B$12)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -53957,7 +54029,7 @@
     <tableColumn id="5" name="SoftTeco" totalsRowFunction="sum"/>
     <tableColumn id="8" name="Titan" totalsRowFunction="sum"/>
     <tableColumn id="6" name="QA" totalsRowFunction="sum"/>
-    <tableColumn id="7" name="Total" totalsRowFunction="sum" dataDxfId="3">
+    <tableColumn id="7" name="Total" totalsRowFunction="sum" dataDxfId="0">
       <calculatedColumnFormula>SUM(L6:Q6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -55246,7 +55318,7 @@
   <dimension ref="A6:B9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -55682,9 +55754,24 @@
       <c r="K14" t="s">
         <v>157</v>
       </c>
+      <c r="L14">
+        <v>14</v>
+      </c>
+      <c r="M14">
+        <v>51</v>
+      </c>
+      <c r="N14">
+        <v>48.5</v>
+      </c>
+      <c r="O14">
+        <v>93.5</v>
+      </c>
+      <c r="Q14">
+        <v>6.6</v>
+      </c>
       <c r="R14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>213.6</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.45">
@@ -55824,19 +55911,19 @@
       </c>
       <c r="L20">
         <f>SUBTOTAL(109,Table1[Alpha])</f>
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="M20">
         <f>SUBTOTAL(109,Table1[ngStars])</f>
-        <v>322.5</v>
+        <v>373.5</v>
       </c>
       <c r="N20">
         <f>SUBTOTAL(109,Table1[NW])</f>
-        <v>403</v>
+        <v>451.5</v>
       </c>
       <c r="O20">
         <f>SUBTOTAL(109,Table1[SoftTeco])</f>
-        <v>513</v>
+        <v>606.5</v>
       </c>
       <c r="P20">
         <f>SUBTOTAL(109,Table1[Titan])</f>
@@ -55844,11 +55931,11 @@
       </c>
       <c r="Q20">
         <f>SUBTOTAL(109,Table1[QA])</f>
-        <v>23</v>
+        <v>29.6</v>
       </c>
       <c r="R20">
         <f>SUBTOTAL(109,Table1[Total])</f>
-        <v>1439</v>
+        <v>1652.6</v>
       </c>
     </row>
   </sheetData>
@@ -55896,7 +55983,7 @@
       </c>
       <c r="B1" t="str">
         <f>$E$2</f>
-        <v>Quasar9</v>
+        <v>Quasar10</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>9</v>
@@ -55910,7 +55997,7 @@
         <v>165</v>
       </c>
       <c r="E2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -55992,7 +56079,7 @@
       </c>
       <c r="E15" t="str">
         <f>"Sprint " &amp; SUBSTITUTE($B$1,"Quasar", "") &amp; " Progress"</f>
-        <v>Sprint 9 Progress</v>
+        <v>Sprint 10 Progress</v>
       </c>
     </row>
   </sheetData>
@@ -57326,7 +57413,7 @@
       </c>
       <c r="AE30" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Quasar9</v>
+        <v>Quasar10</v>
       </c>
       <c r="AI30" s="5" t="s">
         <v>193</v>
@@ -57347,7 +57434,7 @@
       </c>
       <c r="AE31" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Quasar9</v>
+        <v>Quasar10</v>
       </c>
       <c r="AI31" s="5" t="s">
         <v>223</v>
@@ -57368,7 +57455,7 @@
       </c>
       <c r="AE32" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Quasar9</v>
+        <v>Quasar10</v>
       </c>
       <c r="AI32" s="5" t="s">
         <v>194</v>
@@ -57389,7 +57476,7 @@
       </c>
       <c r="AE33" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Quasar9</v>
+        <v>Quasar10</v>
       </c>
       <c r="AI33" s="5" t="s">
         <v>195</v>
@@ -57410,7 +57497,7 @@
       </c>
       <c r="AE34" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Quasar9</v>
+        <v>Quasar10</v>
       </c>
       <c r="AI34" s="5" t="s">
         <v>197</v>
@@ -57431,7 +57518,7 @@
       </c>
       <c r="AE35" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Quasar9</v>
+        <v>Quasar10</v>
       </c>
       <c r="AI35" s="5" t="s">
         <v>196</v>
@@ -57449,7 +57536,7 @@
       </c>
       <c r="AE36" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Quasar9</v>
+        <v>Quasar10</v>
       </c>
       <c r="AI36" s="5" t="s">
         <v>198</v>
@@ -58735,18 +58822,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA56"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="22.9296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.9296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.9296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.19921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="9.86328125" customWidth="1"/>
@@ -58810,7 +58895,7 @@
       </c>
       <c r="B2" s="52">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$W$3:$W$12)/NETWORKDAYS($D$3,$E$3,$W$3:$W$12),0%)</f>
-        <v>0.55172413793103448</v>
+        <v>0.63793103448275867</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>131</v>
@@ -58879,7 +58964,7 @@
       </c>
       <c r="B3" s="32">
         <f ca="1">MAX(100%,B2)-B2</f>
-        <v>0.44827586206896552</v>
+        <v>0.36206896551724133</v>
       </c>
       <c r="D3" s="28">
         <v>43201</v>
@@ -58918,7 +59003,7 @@
         <v>918</v>
       </c>
       <c r="T3" s="46">
-        <f t="shared" ref="T3:T15" si="0">675*(100%-L3)</f>
+        <f t="shared" ref="T3:T17" si="0">675*(100%-L3)</f>
         <v>675</v>
       </c>
       <c r="U3" s="46">
@@ -58951,8 +59036,8 @@
         <v>4.3103448275862072E-2</v>
       </c>
       <c r="L4" s="40">
-        <f>SUM($J$4:J4)/SUM($J$4:$J$15)</f>
-        <v>4.9504950495049507E-2</v>
+        <f>SUM($J$4:J4)/SUM($J$4:$J$17)</f>
+        <v>4.3103448275862072E-2</v>
       </c>
       <c r="M4" s="43">
         <v>4.8099999999999997E-2</v>
@@ -58979,7 +59064,7 @@
       </c>
       <c r="T4" s="46">
         <f t="shared" si="0"/>
-        <v>641.58415841584156</v>
+        <v>645.90517241379314</v>
       </c>
       <c r="U4" s="46">
         <v>654</v>
@@ -59027,8 +59112,8 @@
         <v>0.12931034482758622</v>
       </c>
       <c r="L5" s="40">
-        <f>SUM($J$4:J5)/SUM($J$4:$J$15)</f>
-        <v>0.14851485148514851</v>
+        <f>SUM($J$4:J5)/SUM($J$4:$J$17)</f>
+        <v>0.12931034482758622</v>
       </c>
       <c r="M5" s="43">
         <v>0.12559999999999999</v>
@@ -59055,7 +59140,7 @@
       </c>
       <c r="T5" s="46">
         <f t="shared" si="0"/>
-        <v>574.75247524752479</v>
+        <v>587.7155172413793</v>
       </c>
       <c r="U5" s="46">
         <v>525.5</v>
@@ -59085,7 +59170,7 @@
       </c>
       <c r="E6" s="27">
         <f ca="1">TODAY()</f>
-        <v>43299</v>
+        <v>43313</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>151</v>
@@ -59107,8 +59192,8 @@
         <v>0.21551724137931033</v>
       </c>
       <c r="L6" s="40">
-        <f>SUM($J$4:J6)/SUM($J$4:$J$15)</f>
-        <v>0.24752475247524752</v>
+        <f>SUM($J$4:J6)/SUM($J$4:$J$17)</f>
+        <v>0.21551724137931033</v>
       </c>
       <c r="M6" s="43">
         <v>0.2291</v>
@@ -59135,7 +59220,7 @@
       </c>
       <c r="T6" s="46">
         <f t="shared" si="0"/>
-        <v>507.9207920792079</v>
+        <v>529.52586206896558</v>
       </c>
       <c r="U6" s="47">
         <v>462</v>
@@ -59183,8 +59268,8 @@
         <v>0.29310344827586204</v>
       </c>
       <c r="L7" s="40">
-        <f>SUM($J$4:J7)/SUM($J$4:$J$15)</f>
-        <v>0.33663366336633666</v>
+        <f>SUM($J$4:J7)/SUM($J$4:$J$17)</f>
+        <v>0.29310344827586204</v>
       </c>
       <c r="M7" s="43">
         <v>0.28570000000000001</v>
@@ -59211,7 +59296,7 @@
       </c>
       <c r="T7" s="46">
         <f t="shared" si="0"/>
-        <v>447.77227722772273</v>
+        <v>477.15517241379308</v>
       </c>
       <c r="U7" s="47">
         <v>458</v>
@@ -59252,8 +59337,8 @@
         <v>0.37931034482758619</v>
       </c>
       <c r="L8" s="40">
-        <f>SUM($J$4:J8)/SUM($J$4:$J$15)</f>
-        <v>0.43564356435643564</v>
+        <f>SUM($J$4:J8)/SUM($J$4:$J$17)</f>
+        <v>0.37931034482758619</v>
       </c>
       <c r="M8" s="43">
         <v>0.35149999999999998</v>
@@ -59280,7 +59365,7 @@
       </c>
       <c r="T8" s="46">
         <f t="shared" si="0"/>
-        <v>380.94059405940595</v>
+        <v>418.9655172413793</v>
       </c>
       <c r="U8" s="47">
         <v>427.5</v>
@@ -59325,8 +59410,8 @@
         <v>0.46551724137931033</v>
       </c>
       <c r="L9" s="40">
-        <f>SUM($J$4:J9)/SUM($J$4:$J$15)</f>
-        <v>0.53465346534653468</v>
+        <f>SUM($J$4:J9)/SUM($J$4:$J$17)</f>
+        <v>0.46551724137931033</v>
       </c>
       <c r="M9" s="43">
         <v>0.47520000000000001</v>
@@ -59353,7 +59438,7 @@
       </c>
       <c r="T9" s="46">
         <f t="shared" si="0"/>
-        <v>314.10891089108907</v>
+        <v>360.77586206896558</v>
       </c>
       <c r="U9" s="47">
         <v>321.5</v>
@@ -59390,8 +59475,8 @@
         <v>0.5431034482758621</v>
       </c>
       <c r="L10" s="40">
-        <f>SUM($J$4:J10)/SUM($J$4:$J$15)</f>
-        <v>0.62376237623762376</v>
+        <f>SUM($J$4:J10)/SUM($J$4:$J$17)</f>
+        <v>0.5431034482758621</v>
       </c>
       <c r="M10" s="43">
         <v>0.55800000000000005</v>
@@ -59418,7 +59503,7 @@
       </c>
       <c r="T10" s="46">
         <f t="shared" si="0"/>
-        <v>253.96039603960395</v>
+        <v>308.40517241379308</v>
       </c>
       <c r="U10" s="47">
         <v>249.5</v>
@@ -59455,8 +59540,8 @@
         <v>0.5431034482758621</v>
       </c>
       <c r="L11" s="40">
-        <f>SUM($J$4:J11)/SUM($J$4:$J$15)</f>
-        <v>0.62376237623762376</v>
+        <f>SUM($J$4:J11)/SUM($J$4:$J$17)</f>
+        <v>0.5431034482758621</v>
       </c>
       <c r="M11" s="43">
         <v>0.59019999999999995</v>
@@ -59483,7 +59568,7 @@
       </c>
       <c r="T11" s="46">
         <f t="shared" si="0"/>
-        <v>253.96039603960395</v>
+        <v>308.40517241379308</v>
       </c>
       <c r="U11" s="47">
         <v>259.5</v>
@@ -59513,44 +59598,38 @@
         <v>0.62931034482758619</v>
       </c>
       <c r="L12" s="40">
-        <f>SUM($J$4:J12)/SUM($J$4:$J$15)</f>
-        <v>0.72277227722772275</v>
+        <f>SUM($J$4:J12)/SUM($J$4:$J$17)</f>
+        <v>0.62931034482758619</v>
       </c>
       <c r="M12" s="43">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$Y$4)/GETPIVOTDATA("Epic Total Estimate",$Y$4)</f>
-        <v>0.75</v>
+        <v>0.65620000000000001</v>
       </c>
       <c r="N12" s="43">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Diagram Editor")/GETPIVOTDATA("Epic Total Estimate",$Y$4,"ST:Components","Diagram Editor")</f>
-        <v>0.25</v>
+        <v>0.62719999999999998</v>
       </c>
       <c r="O12" s="43">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Artifact List")/GETPIVOTDATA("Epic Total Estimate",$Y$4,"ST:Components","Artifact List")</f>
-        <v>0.25</v>
+        <v>0.70540000000000003</v>
       </c>
       <c r="P12" s="46">
         <f t="shared" si="2"/>
         <v>871.12068965517244</v>
       </c>
       <c r="Q12" s="47">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$Y$4)</f>
-        <v>300</v>
+        <v>793</v>
       </c>
       <c r="R12" s="50">
         <f t="shared" si="3"/>
         <v>518.9655172413793</v>
       </c>
       <c r="S12" s="47">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Diagram Editor")</f>
-        <v>150</v>
+        <v>401.5</v>
       </c>
       <c r="T12" s="46">
         <f t="shared" si="0"/>
-        <v>187.12871287128715</v>
+        <v>250.21551724137933</v>
       </c>
       <c r="U12" s="47">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Artifact List")</f>
-        <v>150</v>
+        <v>257</v>
       </c>
       <c r="W12" s="35">
         <v>43381</v>
@@ -59580,27 +59659,45 @@
         <v>0.7068965517241379</v>
       </c>
       <c r="L13" s="40">
-        <f>SUM($J$4:J13)/SUM($J$4:$J$15)</f>
-        <v>0.81188118811881194</v>
-      </c>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
+        <f>SUM($J$4:J13)/SUM($J$4:$J$17)</f>
+        <v>0.7068965517241379</v>
+      </c>
+      <c r="M13" s="43">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$Y$4)/GETPIVOTDATA("Epic Total Estimate",$Y$4)</f>
+        <v>0.75</v>
+      </c>
+      <c r="N13" s="43">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Diagram Editor")/GETPIVOTDATA("Epic Total Estimate",$Y$4,"ST:Components","Diagram Editor")</f>
+        <v>0.25</v>
+      </c>
+      <c r="O13" s="43">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Artifact List")/GETPIVOTDATA("Epic Total Estimate",$Y$4,"ST:Components","Artifact List")</f>
+        <v>0.25</v>
+      </c>
       <c r="P13" s="46">
         <f t="shared" si="2"/>
         <v>688.79310344827593</v>
       </c>
-      <c r="Q13" s="47"/>
+      <c r="Q13" s="47">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$Y$4)</f>
+        <v>300</v>
+      </c>
       <c r="R13" s="50">
         <f t="shared" si="3"/>
         <v>410.34482758620692</v>
       </c>
-      <c r="S13" s="47"/>
+      <c r="S13" s="47">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Diagram Editor")</f>
+        <v>150</v>
+      </c>
       <c r="T13" s="46">
         <f t="shared" si="0"/>
-        <v>126.98019801980195</v>
-      </c>
-      <c r="U13" s="47"/>
+        <v>197.84482758620692</v>
+      </c>
+      <c r="U13" s="47">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Artifact List")</f>
+        <v>150</v>
+      </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
@@ -59630,8 +59727,8 @@
         <v>0.7931034482758621</v>
       </c>
       <c r="L14" s="40">
-        <f>SUM($J$4:J14)/SUM($J$4:$J$15)</f>
-        <v>0.91089108910891092</v>
+        <f>SUM($J$4:J14)/SUM($J$4:$J$17)</f>
+        <v>0.7931034482758621</v>
       </c>
       <c r="M14" s="40"/>
       <c r="N14" s="40"/>
@@ -59648,7 +59745,7 @@
       <c r="S14" s="47"/>
       <c r="T14" s="46">
         <f t="shared" si="0"/>
-        <v>60.148514851485125</v>
+        <v>139.65517241379308</v>
       </c>
       <c r="U14" s="47"/>
     </row>
@@ -59680,8 +59777,8 @@
         <v>0.87068965517241381</v>
       </c>
       <c r="L15" s="40">
-        <f>SUM($J$4:J15)/SUM($J$4:$J$15)</f>
-        <v>1</v>
+        <f>SUM($J$4:J15)/SUM($J$4:$J$17)</f>
+        <v>0.87068965517241381</v>
       </c>
       <c r="M15" s="40"/>
       <c r="N15" s="40"/>
@@ -59698,7 +59795,7 @@
       <c r="S15" s="47"/>
       <c r="T15" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>87.284482758620683</v>
       </c>
       <c r="U15" s="47"/>
     </row>
@@ -59722,7 +59819,10 @@
         <f>SUM($J$4:J16)/SUM($J$4:$J$17)</f>
         <v>0.9568965517241379</v>
       </c>
-      <c r="L16" s="40"/>
+      <c r="L16" s="40">
+        <f>SUM($J$4:J16)/SUM($J$4:$J$17)</f>
+        <v>0.9568965517241379</v>
+      </c>
       <c r="M16" s="40"/>
       <c r="N16" s="40"/>
       <c r="O16" s="40"/>
@@ -59736,7 +59836,10 @@
         <v>60.344827586206939</v>
       </c>
       <c r="S16" s="47"/>
-      <c r="T16" s="46"/>
+      <c r="T16" s="46">
+        <f t="shared" si="0"/>
+        <v>29.094827586206918</v>
+      </c>
       <c r="U16" s="47"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.45">
@@ -59765,7 +59868,10 @@
         <f>SUM($J$4:J17)/SUM($J$4:$J$17)</f>
         <v>1</v>
       </c>
-      <c r="L17" s="41"/>
+      <c r="L17" s="41">
+        <f>SUM($J$4:J17)/SUM($J$4:$J$17)</f>
+        <v>1</v>
+      </c>
       <c r="M17" s="41"/>
       <c r="N17" s="41"/>
       <c r="O17" s="41"/>
@@ -59779,7 +59885,10 @@
         <v>0</v>
       </c>
       <c r="S17" s="48"/>
-      <c r="T17" s="49"/>
+      <c r="T17" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="U17" s="48"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.45">
@@ -59787,8 +59896,8 @@
         <v>146</v>
       </c>
       <c r="B18" s="52">
-        <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$W$3:$W$12)/NETWORKDAYS($D$3,$E$4,$W$3:$W$12),0%)</f>
-        <v>0.63366336633663367</v>
+        <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$W$3:$W$12)/NETWORKDAYS($D$3,$E$3,$W$3:$W$12),0%)</f>
+        <v>0.63793103448275867</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.45">
@@ -59797,7 +59906,7 @@
       </c>
       <c r="B19" s="32">
         <f ca="1">MAX(100%,B18)-B18</f>
-        <v>0.36633663366336633</v>
+        <v>0.36206896551724133</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.45">
@@ -60168,17 +60277,17 @@
     <mergeCell ref="T1:U1"/>
   </mergeCells>
   <conditionalFormatting sqref="B35">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="notEqual">
       <formula>$A$35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="notEqual">
       <formula>$D$36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="notEqual">
       <formula>$G$36</formula>
     </cfRule>
   </conditionalFormatting>
@@ -61201,97 +61310,85 @@
         <v>43312</v>
       </c>
       <c r="D12" s="65">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AD$8, "Type", "Epic")</f>
-        <v>1200</v>
+        <v>2306.5</v>
       </c>
       <c r="E12" s="66">
         <v>2350</v>
       </c>
       <c r="F12" s="46">
-        <f>GETPIVOTDATA("Stories Estimate", $AD$8, "Type", "Epic")</f>
-        <v>0</v>
+        <v>2212</v>
       </c>
       <c r="G12" s="46">
-        <f>GETPIVOTDATA("Epic Decomposed", $AD$8, "Type", "Epic")</f>
-        <v>360</v>
+        <v>1865.5</v>
       </c>
       <c r="H12" s="46">
         <f t="shared" ref="H12" si="10">D12-I12</f>
-        <v>900</v>
+        <v>1513.5</v>
       </c>
       <c r="I12" s="46">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AD$8, "Type", "Epic")</f>
-        <v>300</v>
+        <v>793</v>
       </c>
       <c r="J12" s="36">
         <f t="shared" ref="J12" si="11" xml:space="preserve"> G12/D12</f>
-        <v>0.3</v>
+        <v>0.80880121396054627</v>
       </c>
       <c r="K12" s="36">
         <f t="shared" ref="K12" si="12" xml:space="preserve"> H12/D12</f>
-        <v>0.75</v>
+        <v>0.65618903099934967</v>
       </c>
       <c r="L12" s="67">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>200</v>
+        <v>1077</v>
       </c>
       <c r="M12" s="66">
         <v>1400</v>
       </c>
       <c r="N12" s="46">
-        <f>GETPIVOTDATA("Stories Estimate", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>0</v>
+        <v>1053.5</v>
       </c>
       <c r="O12" s="46">
-        <f>GETPIVOTDATA("Epic Decomposed", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>180</v>
+        <v>827.5</v>
       </c>
       <c r="P12" s="46">
         <f t="shared" ref="P12" si="13">L12-Q12</f>
-        <v>50</v>
+        <v>675.5</v>
       </c>
       <c r="Q12" s="46">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>150</v>
+        <v>401.5</v>
       </c>
       <c r="R12" s="36">
         <f t="shared" ref="R12" si="14" xml:space="preserve"> O12/L12</f>
-        <v>0.9</v>
+        <v>0.76833797585886721</v>
       </c>
       <c r="S12" s="36">
         <f t="shared" ref="S12" si="15" xml:space="preserve"> P12/L12</f>
-        <v>0.25</v>
+        <v>0.627205199628598</v>
       </c>
       <c r="T12" s="65">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
-        <v>200</v>
+        <v>872.5</v>
       </c>
       <c r="U12" s="66">
         <v>675</v>
       </c>
       <c r="V12" s="46">
-        <f>GETPIVOTDATA("Stories Estimate", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
-        <v>0</v>
+        <v>822.5</v>
       </c>
       <c r="W12" s="46">
-        <f>GETPIVOTDATA("Epic Decomposed", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
-        <v>180</v>
+        <v>751.5</v>
       </c>
       <c r="X12" s="46">
         <f t="shared" ref="X12" si="16">T12-Y12</f>
-        <v>50</v>
+        <v>615.5</v>
       </c>
       <c r="Y12" s="46">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
-        <v>150</v>
+        <v>257</v>
       </c>
       <c r="Z12" s="36">
         <f t="shared" ref="Z12" si="17" xml:space="preserve"> W12/T12</f>
-        <v>0.9</v>
+        <v>0.86131805157593122</v>
       </c>
       <c r="AA12" s="36">
         <f t="shared" ref="AA12" si="18">X12/T12</f>
-        <v>0.25</v>
+        <v>0.70544412607449858</v>
       </c>
       <c r="AD12" s="16" t="s">
         <v>163</v>
@@ -61319,14 +61416,98 @@
       <c r="C13" s="68">
         <v>43326</v>
       </c>
+      <c r="D13" s="65">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AD$8, "Type", "Epic")</f>
+        <v>1200</v>
+      </c>
       <c r="E13" s="66">
         <v>2350</v>
       </c>
+      <c r="F13" s="46">
+        <f>GETPIVOTDATA("Stories Estimate", $AD$8, "Type", "Epic")</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="46">
+        <f>GETPIVOTDATA("Epic Decomposed", $AD$8, "Type", "Epic")</f>
+        <v>360</v>
+      </c>
+      <c r="H13" s="46">
+        <f t="shared" ref="H13" si="19">D13-I13</f>
+        <v>900</v>
+      </c>
+      <c r="I13" s="46">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AD$8, "Type", "Epic")</f>
+        <v>300</v>
+      </c>
+      <c r="J13" s="36">
+        <f t="shared" ref="J13" si="20" xml:space="preserve"> G13/D13</f>
+        <v>0.3</v>
+      </c>
+      <c r="K13" s="36">
+        <f t="shared" ref="K13" si="21" xml:space="preserve"> H13/D13</f>
+        <v>0.75</v>
+      </c>
+      <c r="L13" s="67">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>200</v>
+      </c>
       <c r="M13" s="66">
         <v>1400</v>
       </c>
+      <c r="N13" s="46">
+        <f>GETPIVOTDATA("Stories Estimate", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="46">
+        <f>GETPIVOTDATA("Epic Decomposed", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>180</v>
+      </c>
+      <c r="P13" s="46">
+        <f t="shared" ref="P13" si="22">L13-Q13</f>
+        <v>50</v>
+      </c>
+      <c r="Q13" s="46">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>150</v>
+      </c>
+      <c r="R13" s="36">
+        <f t="shared" ref="R13" si="23" xml:space="preserve"> O13/L13</f>
+        <v>0.9</v>
+      </c>
+      <c r="S13" s="36">
+        <f t="shared" ref="S13" si="24" xml:space="preserve"> P13/L13</f>
+        <v>0.25</v>
+      </c>
+      <c r="T13" s="65">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
+        <v>200</v>
+      </c>
       <c r="U13" s="66">
         <v>675</v>
+      </c>
+      <c r="V13" s="46">
+        <f>GETPIVOTDATA("Stories Estimate", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
+        <v>0</v>
+      </c>
+      <c r="W13" s="46">
+        <f>GETPIVOTDATA("Epic Decomposed", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
+        <v>180</v>
+      </c>
+      <c r="X13" s="46">
+        <f t="shared" ref="X13" si="25">T13-Y13</f>
+        <v>50</v>
+      </c>
+      <c r="Y13" s="46">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
+        <v>150</v>
+      </c>
+      <c r="Z13" s="36">
+        <f t="shared" ref="Z13" si="26" xml:space="preserve"> W13/T13</f>
+        <v>0.9</v>
+      </c>
+      <c r="AA13" s="36">
+        <f t="shared" ref="AA13" si="27">X13/T13</f>
+        <v>0.25</v>
       </c>
       <c r="AD13" s="17" t="s">
         <v>225</v>
@@ -61659,17 +61840,23 @@
         <v>157</v>
       </c>
       <c r="C29">
-        <f t="shared" ref="C28:C29" si="0">GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
-        <v>840</v>
+        <v>441</v>
       </c>
       <c r="D29">
-        <f t="shared" ref="D28:D29" si="1">GETPIVOTDATA("Story Points",$B$12)</f>
-        <v>150</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>158</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C29:C30" si="0">GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
+        <v>840</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ref="D29:D30" si="1">GETPIVOTDATA("Story Points",$B$12)</f>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.45">
@@ -61720,7 +61907,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pivotSelection pane="bottomRight" click="1" r:id="rId2">
+      <pivotSelection pane="bottomRight" click="1" r:id="rId1">
         <pivotArea field="32" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
       </pivotSelection>
     </sheetView>

--- a/blueprint-jira-better-excel/_Current-Release-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/_Current-Release-Dashboard.xlsx
@@ -35,7 +35,7 @@
   </definedNames>
   <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="102" r:id="rId18"/>
+    <pivotCache cacheId="12" r:id="rId18"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -1760,10 +1760,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.63793103448275867</c:v>
+                  <c:v>0.64655172413793105</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36206896551724133</c:v>
+                  <c:v>0.35344827586206895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5236,10 +5236,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.63793103448275867</c:v>
+                  <c:v>0.64655172413793105</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36206896551724133</c:v>
+                  <c:v>0.35344827586206895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7245,46 +7245,46 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>675</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>645.90517241379314</c:v>
+                  <c:v>669.82758620689651</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>587.7155172413793</c:v>
+                  <c:v>609.48275862068965</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>529.52586206896558</c:v>
+                  <c:v>549.13793103448279</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>477.15517241379308</c:v>
+                  <c:v>494.82758620689651</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>418.9655172413793</c:v>
+                  <c:v>434.48275862068965</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>360.77586206896558</c:v>
+                  <c:v>374.13793103448279</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>308.40517241379308</c:v>
+                  <c:v>319.82758620689651</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>308.40517241379308</c:v>
+                  <c:v>319.82758620689651</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>250.21551724137933</c:v>
+                  <c:v>259.48275862068965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>197.84482758620692</c:v>
+                  <c:v>205.17241379310346</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>139.65517241379308</c:v>
+                  <c:v>144.82758620689654</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>87.284482758620683</c:v>
+                  <c:v>90.517241379310335</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>29.094827586206918</c:v>
+                  <c:v>30.17241379310347</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -8548,49 +8548,49 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>675</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>675</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>675</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>675</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>675</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>675</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>675</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>675</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>675</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>675</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>675</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>675</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>675</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>675</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>675</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23785,46 +23785,46 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2350</c:v>
+                  <c:v>2380</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2248.7068965517242</c:v>
+                  <c:v>2277.4137931034484</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2046.1206896551726</c:v>
+                  <c:v>2072.2413793103447</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1843.5344827586209</c:v>
+                  <c:v>1867.0689655172416</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1661.206896551724</c:v>
+                  <c:v>1682.4137931034481</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1458.6206896551726</c:v>
+                  <c:v>1477.2413793103449</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1256.0344827586209</c:v>
+                  <c:v>1272.0689655172416</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1073.706896551724</c:v>
+                  <c:v>1087.4137931034481</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1073.706896551724</c:v>
+                  <c:v>1087.4137931034481</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>871.12068965517244</c:v>
+                  <c:v>882.24137931034488</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>688.79310344827593</c:v>
+                  <c:v>697.58620689655174</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>486.20689655172407</c:v>
+                  <c:v>492.4137931034482</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>303.87931034482756</c:v>
+                  <c:v>307.75862068965512</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>101.29310344827593</c:v>
+                  <c:v>102.5862068965518</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -25080,49 +25080,49 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2350</c:v>
+                  <c:v>2380</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2350</c:v>
+                  <c:v>2380</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2350</c:v>
+                  <c:v>2380</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2350</c:v>
+                  <c:v>2380</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2350</c:v>
+                  <c:v>2380</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2350</c:v>
+                  <c:v>2380</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2350</c:v>
+                  <c:v>2380</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2350</c:v>
+                  <c:v>2380</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2350</c:v>
+                  <c:v>2380</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2350</c:v>
+                  <c:v>2380</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2350</c:v>
+                  <c:v>2380</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2350</c:v>
+                  <c:v>2380</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2350</c:v>
+                  <c:v>2380</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2350</c:v>
+                  <c:v>2380</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2350</c:v>
+                  <c:v>2380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25473,10 +25473,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.63793103448275867</c:v>
+                  <c:v>0.64655172413793105</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36206896551724133</c:v>
+                  <c:v>0.35344827586206895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -43164,7 +43164,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>64%</a:t>
+            <a:t>65%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -43840,7 +43840,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>64%</a:t>
+            <a:t>65%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -44347,7 +44347,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>64%</a:t>
+            <a:t>65%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -44364,7 +44364,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43313.64081597222" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="90">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43314.558741782406" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="90">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -48803,8 +48803,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="102" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
-  <location ref="G24:H29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="12" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A24:B29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -48827,15 +48827,7 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -48903,10 +48895,9 @@
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="3">
+  <pageFields count="2">
     <pageField fld="32" item="2" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="1" hier="-1"/>
   </pageFields>
   <dataFields count="5">
     <dataField name="Done" fld="44" baseField="0" baseItem="32"/>
@@ -48915,7 +48906,7 @@
     <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
     <dataField name="Not Decomposed" fld="45" baseField="0" baseItem="32"/>
   </dataFields>
-  <chartFormats count="27">
+  <chartFormats count="15">
     <chartFormat chart="0" format="7" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -49057,114 +49048,6 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="7" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -49179,98 +49062,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="102" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="46">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Not Decomposed Estimate" fld="45" baseField="1" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="102" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B12:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49406,8 +49198,1066 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="46">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Not Decomposed Estimate" fld="45" baseField="1" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="102" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+  <location ref="G5:H11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="46">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item h="1" x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item h="1" x="8"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="37" item="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="32">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="37" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="21" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="56" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="57">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="58">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="59">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="60">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
+  <location ref="D5:E11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="46">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item h="1" x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item h="1" x="8"/>
+        <item h="1" x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="37" item="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="27">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="37" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="21" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="66" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="67">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="68">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="69">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="70">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="71">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A5:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49621,8 +50471,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="102" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="J5:K11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -50133,975 +50983,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="102" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
-  <location ref="G5:H11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="46">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item h="1" x="8"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="10"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="2" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="37" item="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="32">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="37" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="11" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="21" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="11" format="56" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="11" format="57">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="11" format="58">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="11" format="59">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="11" format="60">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="102" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
-  <location ref="D5:E11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="46">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item h="1" x="8"/>
-        <item h="1" x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="10"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="2" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="37" item="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="27">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="37" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="11" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="21" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="66" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="67">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="68">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="69">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="70">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="71">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="102" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="B4:H20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -51403,7 +51286,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="102" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="D4:E11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -51670,7 +51553,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="102" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="F8:L11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -51983,7 +51866,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="102" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -52385,8 +52268,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="102" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D35:D36" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="Y4:AA8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -52409,12 +52292,12 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
       <items count="5">
         <item x="0"/>
+        <item x="1"/>
         <item x="2"/>
         <item x="3"/>
-        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -52423,33 +52306,33 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="5">
-        <item x="0"/>
-        <item x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
         <item x="3"/>
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52462,19 +52345,41 @@
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
   </pivotFields>
-  <rowItems count="1">
-    <i/>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
   </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="2" hier="-1"/>
+  <pageFields count="2">
+    <pageField fld="32" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="2" hier="-1"/>
   </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -52489,7 +52394,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="102" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="B29:C44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -52742,8 +52647,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="102" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A24:B29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="12" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G35:G36" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -52766,7 +52671,395 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A49:B54" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="46">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="35"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="1" item="2" hier="-1"/>
+    <pageField fld="32" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="12" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A34:A35" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="46">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" item="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="12" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+  <location ref="G24:H29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="46">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52834,9 +53127,10 @@
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="2">
+  <pageFields count="3">
     <pageField fld="32" item="2" hier="-1"/>
     <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="1" hier="-1"/>
   </pageFields>
   <dataFields count="5">
     <dataField name="Done" fld="44" baseField="0" baseItem="32"/>
@@ -52845,7 +53139,7 @@
     <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
     <dataField name="Not Decomposed" fld="45" baseField="0" baseItem="32"/>
   </dataFields>
-  <chartFormats count="15">
+  <chartFormats count="27">
     <chartFormat chart="0" format="7" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -52987,235 +53281,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="102" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G35:G36" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="46">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="2" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="102" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A49:B54" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="46">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="35"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="1" item="2" hier="-1"/>
-    <pageField fld="32" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="2" format="10" series="1">
+    <chartFormat chart="7" format="7" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -53224,50 +53290,101 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="11">
+    <chartFormat chart="7" format="8">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
+        <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="35" count="1" selected="0">
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
             <x v="2"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="12">
+    <chartFormat chart="7" format="11">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
+        <references count="1">
           <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="13">
+    <chartFormat chart="7" format="12">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
+        <references count="1">
           <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
             <x v="4"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="14">
+    <chartFormat chart="14" format="19" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
+        <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="5"/>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -53285,9 +53402,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="102" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A34:A35" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="12" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D35:D36" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -53310,28 +53427,6 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="5">
         <item x="0"/>
@@ -53343,6 +53438,36 @@
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -53361,9 +53486,10 @@
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="2">
+  <pageFields count="3">
     <pageField fld="32" item="2" hier="-1"/>
     <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
@@ -53380,8 +53506,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="102" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="12" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
   <location ref="D24:E29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -53702,134 +53828,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="102" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="Y4:AA8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="46">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item x="3"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="32" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="102" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AD10:AH16" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -55347,7 +55347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -58831,7 +58831,7 @@
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.9296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.19921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="9.86328125" customWidth="1"/>
@@ -58895,7 +58895,7 @@
       </c>
       <c r="B2" s="52">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$W$3:$W$12)/NETWORKDAYS($D$3,$E$3,$W$3:$W$12),0%)</f>
-        <v>0.63793103448275867</v>
+        <v>0.64655172413793105</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>131</v>
@@ -58964,7 +58964,7 @@
       </c>
       <c r="B3" s="32">
         <f ca="1">MAX(100%,B2)-B2</f>
-        <v>0.36206896551724133</v>
+        <v>0.35344827586206895</v>
       </c>
       <c r="D3" s="28">
         <v>43201</v>
@@ -58989,8 +58989,8 @@
         <v>0</v>
       </c>
       <c r="P3" s="46">
-        <f>2350*(100%-K3)</f>
-        <v>2350</v>
+        <f>2380*(100%-K3)</f>
+        <v>2380</v>
       </c>
       <c r="Q3" s="46">
         <v>2023</v>
@@ -59003,8 +59003,8 @@
         <v>918</v>
       </c>
       <c r="T3" s="46">
-        <f t="shared" ref="T3:T17" si="0">675*(100%-L3)</f>
-        <v>675</v>
+        <f>700*(100%-L3)</f>
+        <v>700</v>
       </c>
       <c r="U3" s="46">
         <v>575</v>
@@ -59028,7 +59028,7 @@
         <v>43207</v>
       </c>
       <c r="J4" s="38">
-        <f t="shared" ref="J4:J17" si="1">NETWORKDAYS(H4,I4,$W$3:$W$12)</f>
+        <f t="shared" ref="J4:J17" si="0">NETWORKDAYS(H4,I4,$W$3:$W$12)</f>
         <v>5</v>
       </c>
       <c r="K4" s="40">
@@ -59049,22 +59049,22 @@
         <v>6.0299999999999999E-2</v>
       </c>
       <c r="P4" s="46">
-        <f t="shared" ref="P4:P17" si="2">2350*(100%-K4)</f>
-        <v>2248.7068965517242</v>
+        <f>2380*(100%-K4)</f>
+        <v>2277.4137931034484</v>
       </c>
       <c r="Q4" s="46">
         <v>2324.5</v>
       </c>
       <c r="R4" s="50">
-        <f t="shared" ref="R4:R17" si="3">1400*(100%-K4)</f>
+        <f t="shared" ref="R4:R17" si="1">1400*(100%-K4)</f>
         <v>1339.655172413793</v>
       </c>
       <c r="S4" s="46">
         <v>1274</v>
       </c>
       <c r="T4" s="46">
-        <f t="shared" si="0"/>
-        <v>645.90517241379314</v>
+        <f>700*(100%-L4)</f>
+        <v>669.82758620689651</v>
       </c>
       <c r="U4" s="46">
         <v>654</v>
@@ -59104,7 +59104,7 @@
         <v>43221</v>
       </c>
       <c r="J5" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="K5" s="40">
@@ -59125,22 +59125,22 @@
         <v>0.18529999999999999</v>
       </c>
       <c r="P5" s="46">
-        <f t="shared" si="2"/>
-        <v>2046.1206896551726</v>
+        <f>2380*(100%-K5)</f>
+        <v>2072.2413793103447</v>
       </c>
       <c r="Q5" s="46">
         <v>2399.3000000000002</v>
       </c>
       <c r="R5" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1218.9655172413793</v>
       </c>
       <c r="S5" s="46">
         <v>1544.3</v>
       </c>
       <c r="T5" s="46">
-        <f t="shared" si="0"/>
-        <v>587.7155172413793</v>
+        <f>700*(100%-L5)</f>
+        <v>609.48275862068965</v>
       </c>
       <c r="U5" s="46">
         <v>525.5</v>
@@ -59170,7 +59170,7 @@
       </c>
       <c r="E6" s="27">
         <f ca="1">TODAY()</f>
-        <v>43313</v>
+        <v>43314</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>151</v>
@@ -59184,7 +59184,7 @@
         <v>43235</v>
       </c>
       <c r="J6" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="K6" s="40">
@@ -59205,22 +59205,22 @@
         <v>0.30580000000000002</v>
       </c>
       <c r="P6" s="46">
-        <f t="shared" si="2"/>
-        <v>1843.5344827586209</v>
+        <f>2380*(100%-K6)</f>
+        <v>1867.0689655172416</v>
       </c>
       <c r="Q6" s="47">
         <v>1859.5</v>
       </c>
       <c r="R6" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1098.2758620689656</v>
       </c>
       <c r="S6" s="47">
         <v>1267.5</v>
       </c>
       <c r="T6" s="46">
-        <f t="shared" si="0"/>
-        <v>529.52586206896558</v>
+        <f>700*(100%-L6)</f>
+        <v>549.13793103448279</v>
       </c>
       <c r="U6" s="47">
         <v>462</v>
@@ -59252,15 +59252,15 @@
         <v>152</v>
       </c>
       <c r="H7" s="24">
-        <f t="shared" ref="H7:H17" si="4">I6+1</f>
+        <f t="shared" ref="H7:H17" si="2">I6+1</f>
         <v>43236</v>
       </c>
       <c r="I7" s="24">
-        <f t="shared" ref="I7:I16" si="5">I6+14</f>
+        <f t="shared" ref="I7:I16" si="3">I6+14</f>
         <v>43249</v>
       </c>
       <c r="J7" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="K7" s="40">
@@ -59281,22 +59281,22 @@
         <v>0.376</v>
       </c>
       <c r="P7" s="46">
-        <f t="shared" si="2"/>
-        <v>1661.206896551724</v>
+        <f>2380*(100%-K7)</f>
+        <v>1682.4137931034481</v>
       </c>
       <c r="Q7" s="47">
         <v>1741</v>
       </c>
       <c r="R7" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>989.65517241379303</v>
       </c>
       <c r="S7" s="47">
         <v>1161</v>
       </c>
       <c r="T7" s="46">
-        <f t="shared" si="0"/>
-        <v>477.15517241379308</v>
+        <f>700*(100%-L7)</f>
+        <v>494.82758620689651</v>
       </c>
       <c r="U7" s="47">
         <v>458</v>
@@ -59321,15 +59321,15 @@
         <v>153</v>
       </c>
       <c r="H8" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>43250</v>
       </c>
       <c r="I8" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>43263</v>
       </c>
       <c r="J8" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="K8" s="40">
@@ -59350,22 +59350,22 @@
         <v>0.43969999999999998</v>
       </c>
       <c r="P8" s="46">
-        <f t="shared" si="2"/>
-        <v>1458.6206896551726</v>
+        <f>2380*(100%-K8)</f>
+        <v>1477.2413793103449</v>
       </c>
       <c r="Q8" s="47">
         <v>1597</v>
       </c>
       <c r="R8" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>868.9655172413793</v>
       </c>
       <c r="S8" s="47">
         <v>1032.5</v>
       </c>
       <c r="T8" s="46">
-        <f t="shared" si="0"/>
-        <v>418.9655172413793</v>
+        <f>700*(100%-L8)</f>
+        <v>434.48275862068965</v>
       </c>
       <c r="U8" s="47">
         <v>427.5</v>
@@ -59394,15 +59394,15 @@
         <v>154</v>
       </c>
       <c r="H9" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>43264</v>
       </c>
       <c r="I9" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>43277</v>
       </c>
       <c r="J9" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="K9" s="40">
@@ -59423,22 +59423,22 @@
         <v>0.57920000000000005</v>
       </c>
       <c r="P9" s="46">
-        <f t="shared" ref="P9" si="6">2350*(100%-K9)</f>
-        <v>1256.0344827586209</v>
+        <f>2380*(100%-K9)</f>
+        <v>1272.0689655172416</v>
       </c>
       <c r="Q9" s="47">
         <v>1184.5</v>
       </c>
       <c r="R9" s="50">
-        <f t="shared" ref="R9" si="7">1400*(100%-K9)</f>
+        <f t="shared" ref="R9" si="4">1400*(100%-K9)</f>
         <v>748.27586206896558</v>
       </c>
       <c r="S9" s="47">
         <v>743.5</v>
       </c>
       <c r="T9" s="46">
-        <f t="shared" si="0"/>
-        <v>360.77586206896558</v>
+        <f>700*(100%-L9)</f>
+        <v>374.13793103448279</v>
       </c>
       <c r="U9" s="47">
         <v>321.5</v>
@@ -59467,7 +59467,7 @@
         <v>43291</v>
       </c>
       <c r="J10" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="K10" s="40">
@@ -59488,22 +59488,22 @@
         <v>0.67889999999999995</v>
       </c>
       <c r="P10" s="46">
-        <f t="shared" si="2"/>
-        <v>1073.706896551724</v>
+        <f>2380*(100%-K10)</f>
+        <v>1087.4137931034481</v>
       </c>
       <c r="Q10" s="47">
         <v>1001</v>
       </c>
       <c r="R10" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>639.65517241379303</v>
       </c>
       <c r="S10" s="47">
         <v>634</v>
       </c>
       <c r="T10" s="46">
-        <f t="shared" si="0"/>
-        <v>308.40517241379308</v>
+        <f>700*(100%-L10)</f>
+        <v>319.82758620689651</v>
       </c>
       <c r="U10" s="47">
         <v>249.5</v>
@@ -59524,7 +59524,7 @@
         <v>156</v>
       </c>
       <c r="H11" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>43292</v>
       </c>
       <c r="I11" s="24">
@@ -59532,7 +59532,7 @@
         <v>43298</v>
       </c>
       <c r="J11" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K11" s="40">
@@ -59553,22 +59553,22 @@
         <v>0.67030000000000001</v>
       </c>
       <c r="P11" s="46">
-        <f t="shared" si="2"/>
-        <v>1073.706896551724</v>
+        <f>2380*(100%-K11)</f>
+        <v>1087.4137931034481</v>
       </c>
       <c r="Q11" s="47">
         <v>910</v>
       </c>
       <c r="R11" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>639.65517241379303</v>
       </c>
       <c r="S11" s="47">
         <v>526.5</v>
       </c>
       <c r="T11" s="46">
-        <f t="shared" si="0"/>
-        <v>308.40517241379308</v>
+        <f>700*(100%-L11)</f>
+        <v>319.82758620689651</v>
       </c>
       <c r="U11" s="47">
         <v>259.5</v>
@@ -59582,15 +59582,15 @@
         <v>157</v>
       </c>
       <c r="H12" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>43299</v>
       </c>
       <c r="I12" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>43312</v>
       </c>
       <c r="J12" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="K12" s="40">
@@ -59611,22 +59611,22 @@
         <v>0.70540000000000003</v>
       </c>
       <c r="P12" s="46">
-        <f t="shared" si="2"/>
-        <v>871.12068965517244</v>
+        <f>2380*(100%-K12)</f>
+        <v>882.24137931034488</v>
       </c>
       <c r="Q12" s="47">
         <v>793</v>
       </c>
       <c r="R12" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>518.9655172413793</v>
       </c>
       <c r="S12" s="47">
         <v>401.5</v>
       </c>
       <c r="T12" s="46">
-        <f t="shared" si="0"/>
-        <v>250.21551724137933</v>
+        <f>700*(100%-L12)</f>
+        <v>259.48275862068965</v>
       </c>
       <c r="U12" s="47">
         <v>257</v>
@@ -59643,15 +59643,15 @@
         <v>158</v>
       </c>
       <c r="H13" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>43313</v>
       </c>
       <c r="I13" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>43326</v>
       </c>
       <c r="J13" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="K13" s="40">
@@ -59675,15 +59675,15 @@
         <v>0.25</v>
       </c>
       <c r="P13" s="46">
-        <f t="shared" si="2"/>
-        <v>688.79310344827593</v>
+        <f>2380*(100%-K13)</f>
+        <v>697.58620689655174</v>
       </c>
       <c r="Q13" s="47">
         <f>GETPIVOTDATA("Epic Remaining Estimate",$Y$4)</f>
         <v>300</v>
       </c>
       <c r="R13" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>410.34482758620692</v>
       </c>
       <c r="S13" s="47">
@@ -59691,8 +59691,8 @@
         <v>150</v>
       </c>
       <c r="T13" s="46">
-        <f t="shared" si="0"/>
-        <v>197.84482758620692</v>
+        <f>700*(100%-L13)</f>
+        <v>205.17241379310346</v>
       </c>
       <c r="U13" s="47">
         <f>GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Artifact List")</f>
@@ -59711,15 +59711,15 @@
         <v>159</v>
       </c>
       <c r="H14" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>43327</v>
       </c>
       <c r="I14" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>43340</v>
       </c>
       <c r="J14" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="K14" s="40">
@@ -59734,18 +59734,18 @@
       <c r="N14" s="40"/>
       <c r="O14" s="40"/>
       <c r="P14" s="46">
-        <f t="shared" si="2"/>
-        <v>486.20689655172407</v>
+        <f>2380*(100%-K14)</f>
+        <v>492.4137931034482</v>
       </c>
       <c r="Q14" s="47"/>
       <c r="R14" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>289.65517241379308</v>
       </c>
       <c r="S14" s="47"/>
       <c r="T14" s="46">
-        <f t="shared" si="0"/>
-        <v>139.65517241379308</v>
+        <f>700*(100%-L14)</f>
+        <v>144.82758620689654</v>
       </c>
       <c r="U14" s="47"/>
     </row>
@@ -59761,15 +59761,15 @@
         <v>160</v>
       </c>
       <c r="H15" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>43341</v>
       </c>
       <c r="I15" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>43354</v>
       </c>
       <c r="J15" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="K15" s="40">
@@ -59784,18 +59784,18 @@
       <c r="N15" s="40"/>
       <c r="O15" s="40"/>
       <c r="P15" s="46">
-        <f t="shared" si="2"/>
-        <v>303.87931034482756</v>
+        <f>2380*(100%-K15)</f>
+        <v>307.75862068965512</v>
       </c>
       <c r="Q15" s="47"/>
       <c r="R15" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>181.03448275862067</v>
       </c>
       <c r="S15" s="47"/>
       <c r="T15" s="46">
-        <f t="shared" si="0"/>
-        <v>87.284482758620683</v>
+        <f>700*(100%-L15)</f>
+        <v>90.517241379310335</v>
       </c>
       <c r="U15" s="47"/>
     </row>
@@ -59804,15 +59804,15 @@
         <v>161</v>
       </c>
       <c r="H16" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>43355</v>
       </c>
       <c r="I16" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>43368</v>
       </c>
       <c r="J16" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="K16" s="40">
@@ -59827,18 +59827,18 @@
       <c r="N16" s="40"/>
       <c r="O16" s="40"/>
       <c r="P16" s="46">
-        <f t="shared" si="2"/>
-        <v>101.29310344827593</v>
+        <f>2380*(100%-K16)</f>
+        <v>102.5862068965518</v>
       </c>
       <c r="Q16" s="47"/>
       <c r="R16" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>60.344827586206939</v>
       </c>
       <c r="S16" s="47"/>
       <c r="T16" s="46">
-        <f t="shared" si="0"/>
-        <v>29.094827586206918</v>
+        <f>700*(100%-L16)</f>
+        <v>30.17241379310347</v>
       </c>
       <c r="U16" s="47"/>
     </row>
@@ -59853,7 +59853,7 @@
         <v>162</v>
       </c>
       <c r="H17" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>43369</v>
       </c>
       <c r="I17" s="26">
@@ -59861,7 +59861,7 @@
         <v>43375</v>
       </c>
       <c r="J17" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K17" s="41">
@@ -59876,17 +59876,17 @@
       <c r="N17" s="41"/>
       <c r="O17" s="41"/>
       <c r="P17" s="49">
-        <f t="shared" si="2"/>
+        <f>2380*(100%-K17)</f>
         <v>0</v>
       </c>
       <c r="Q17" s="48"/>
       <c r="R17" s="49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S17" s="48"/>
       <c r="T17" s="49">
-        <f t="shared" si="0"/>
+        <f>700*(100%-L17)</f>
         <v>0</v>
       </c>
       <c r="U17" s="48"/>
@@ -59897,7 +59897,7 @@
       </c>
       <c r="B18" s="52">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$W$3:$W$12)/NETWORKDAYS($D$3,$E$3,$W$3:$W$12),0%)</f>
-        <v>0.63793103448275867</v>
+        <v>0.64655172413793105</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.45">
@@ -59906,7 +59906,7 @@
       </c>
       <c r="B19" s="32">
         <f ca="1">MAX(100%,B18)-B18</f>
-        <v>0.36206896551724133</v>
+        <v>0.35344827586206895</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.45">
@@ -60479,7 +60479,7 @@
         <v>2023</v>
       </c>
       <c r="E3" s="66">
-        <v>2350</v>
+        <v>2380</v>
       </c>
       <c r="F3" s="46">
         <v>938.5</v>
@@ -60533,7 +60533,7 @@
         <v>575</v>
       </c>
       <c r="U3" s="66">
-        <v>675</v>
+        <v>700</v>
       </c>
       <c r="V3" s="46">
         <v>350</v>
@@ -60571,7 +60571,7 @@
         <v>2442</v>
       </c>
       <c r="E4" s="66">
-        <v>2350</v>
+        <v>2380</v>
       </c>
       <c r="F4" s="46">
         <v>1008</v>
@@ -60623,7 +60623,7 @@
         <v>696</v>
       </c>
       <c r="U4" s="66">
-        <v>675</v>
+        <v>700</v>
       </c>
       <c r="V4" s="46">
         <v>389</v>
@@ -60660,7 +60660,7 @@
         <v>2743.8</v>
       </c>
       <c r="E5" s="66">
-        <v>2350</v>
+        <v>2380</v>
       </c>
       <c r="F5" s="46">
         <v>2218.3000000000002</v>
@@ -60712,7 +60712,7 @@
         <v>645</v>
       </c>
       <c r="U5" s="66">
-        <v>675</v>
+        <v>700</v>
       </c>
       <c r="V5" s="46">
         <v>615</v>
@@ -60749,7 +60749,7 @@
         <v>2412</v>
       </c>
       <c r="E6" s="66">
-        <v>2350</v>
+        <v>2380</v>
       </c>
       <c r="F6" s="46">
         <v>2128.5</v>
@@ -60803,7 +60803,7 @@
         <v>665.5</v>
       </c>
       <c r="U6" s="66">
-        <v>675</v>
+        <v>700</v>
       </c>
       <c r="V6">
         <v>635.5</v>
@@ -60841,7 +60841,7 @@
         <v>2437.5</v>
       </c>
       <c r="E7" s="66">
-        <v>2350</v>
+        <v>2380</v>
       </c>
       <c r="F7" s="46">
         <v>2265</v>
@@ -60895,7 +60895,7 @@
         <v>734</v>
       </c>
       <c r="U7" s="66">
-        <v>675</v>
+        <v>700</v>
       </c>
       <c r="V7" s="46">
         <v>707</v>
@@ -60933,7 +60933,7 @@
         <v>2462.5</v>
       </c>
       <c r="E8" s="66">
-        <v>2350</v>
+        <v>2380</v>
       </c>
       <c r="F8" s="46">
         <v>2354.5</v>
@@ -60987,7 +60987,7 @@
         <v>763</v>
       </c>
       <c r="U8" s="66">
-        <v>675</v>
+        <v>700</v>
       </c>
       <c r="V8" s="46">
         <v>726</v>
@@ -61031,7 +61031,7 @@
         <v>2257</v>
       </c>
       <c r="E9" s="66">
-        <v>2350</v>
+        <v>2380</v>
       </c>
       <c r="F9" s="46">
         <v>2157.5</v>
@@ -61085,7 +61085,7 @@
         <v>764</v>
       </c>
       <c r="U9" s="66">
-        <v>675</v>
+        <v>700</v>
       </c>
       <c r="V9" s="46">
         <v>733</v>
@@ -61123,7 +61123,7 @@
         <v>2264.5</v>
       </c>
       <c r="E10" s="66">
-        <v>2350</v>
+        <v>2380</v>
       </c>
       <c r="F10" s="46">
         <v>2177</v>
@@ -61177,7 +61177,7 @@
         <v>777</v>
       </c>
       <c r="U10" s="66">
-        <v>675</v>
+        <v>700</v>
       </c>
       <c r="V10" s="46">
         <v>755</v>
@@ -61218,7 +61218,7 @@
         <v>2220.5</v>
       </c>
       <c r="E11" s="66">
-        <v>2350</v>
+        <v>2380</v>
       </c>
       <c r="F11" s="46">
         <v>2144</v>
@@ -61272,7 +61272,7 @@
         <v>787</v>
       </c>
       <c r="U11" s="66">
-        <v>675</v>
+        <v>700</v>
       </c>
       <c r="V11" s="46">
         <v>777</v>
@@ -61313,7 +61313,7 @@
         <v>2306.5</v>
       </c>
       <c r="E12" s="66">
-        <v>2350</v>
+        <v>2380</v>
       </c>
       <c r="F12" s="46">
         <v>2212</v>
@@ -61367,7 +61367,7 @@
         <v>872.5</v>
       </c>
       <c r="U12" s="66">
-        <v>675</v>
+        <v>700</v>
       </c>
       <c r="V12" s="46">
         <v>822.5</v>
@@ -61421,7 +61421,7 @@
         <v>1200</v>
       </c>
       <c r="E13" s="66">
-        <v>2350</v>
+        <v>2380</v>
       </c>
       <c r="F13" s="46">
         <f>GETPIVOTDATA("Stories Estimate", $AD$8, "Type", "Epic")</f>
@@ -61483,7 +61483,7 @@
         <v>200</v>
       </c>
       <c r="U13" s="66">
-        <v>675</v>
+        <v>700</v>
       </c>
       <c r="V13" s="46">
         <f>GETPIVOTDATA("Stories Estimate", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
@@ -61534,13 +61534,13 @@
         <v>43340</v>
       </c>
       <c r="E14" s="66">
-        <v>2350</v>
+        <v>2380</v>
       </c>
       <c r="M14" s="66">
         <v>1400</v>
       </c>
       <c r="U14" s="66">
-        <v>675</v>
+        <v>700</v>
       </c>
       <c r="AD14" s="17" t="s">
         <v>226</v>
@@ -61567,13 +61567,13 @@
         <v>43354</v>
       </c>
       <c r="E15" s="66">
-        <v>2350</v>
+        <v>2380</v>
       </c>
       <c r="M15" s="66">
         <v>1400</v>
       </c>
       <c r="U15" s="66">
-        <v>675</v>
+        <v>700</v>
       </c>
       <c r="AD15" s="17" t="s">
         <v>238</v>
@@ -61596,13 +61596,13 @@
         <v>43368</v>
       </c>
       <c r="E16" s="66">
-        <v>2350</v>
+        <v>2380</v>
       </c>
       <c r="M16" s="66">
         <v>1400</v>
       </c>
       <c r="U16" s="66">
-        <v>675</v>
+        <v>700</v>
       </c>
       <c r="AD16" s="17" t="s">
         <v>50</v>
@@ -61629,13 +61629,13 @@
         <v>43382</v>
       </c>
       <c r="E17" s="66">
-        <v>2350</v>
+        <v>2380</v>
       </c>
       <c r="M17" s="66">
         <v>1400</v>
       </c>
       <c r="U17" s="66">
-        <v>675</v>
+        <v>700</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.45">
@@ -61656,7 +61656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -61675,8 +61675,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="16.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="9.46484375" customWidth="1"/>
     <col min="6" max="6" width="8.19921875" bestFit="1" customWidth="1"/>
@@ -61851,11 +61851,11 @@
         <v>158</v>
       </c>
       <c r="C30">
-        <f t="shared" ref="C29:C30" si="0">GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
+        <f t="shared" ref="C30" si="0">GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
         <v>840</v>
       </c>
       <c r="D30">
-        <f t="shared" ref="D29:D30" si="1">GETPIVOTDATA("Story Points",$B$12)</f>
+        <f t="shared" ref="D30" si="1">GETPIVOTDATA("Story Points",$B$12)</f>
         <v>150</v>
       </c>
     </row>
@@ -61891,7 +61891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -61907,7 +61907,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pivotSelection pane="bottomRight" click="1" r:id="rId1">
+      <pivotSelection pane="bottomRight" click="1" r:id="rId3">
         <pivotArea field="32" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
       </pivotSelection>
     </sheetView>

--- a/blueprint-jira-better-excel/_Current-Release-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/_Current-Release-Dashboard.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{AD1F6B43-5C1E-4FA2-B6FD-AE7E07936A6C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8715" tabRatio="933"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8715" tabRatio="933" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release" sheetId="10" r:id="rId1"/>
@@ -33,9 +34,9 @@
   <definedNames>
     <definedName name="issues">OFFSET(Issues!$A$1,0,0,COUNTA(Issues!$A$1:$A$10003),COUNTA(Issues!$A$1:$AAO$1) - 1)</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId18"/>
+    <pivotCache cacheId="90" r:id="rId18"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -875,7 +876,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
@@ -1760,10 +1761,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.64655172413793105</c:v>
+                  <c:v>0.71551724137931039</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35344827586206895</c:v>
+                  <c:v>0.28448275862068961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2164,6 +2165,9 @@
                   <c:v>0.62719999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0.7147</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -3715,6 +3719,9 @@
                   <c:v>401.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -4111,6 +4118,9 @@
                   <c:v>1077</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>1086.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -4235,6 +4245,9 @@
                   <c:v>1053.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>1064.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4361,6 +4374,9 @@
                   <c:v>827.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>885</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -4485,6 +4501,9 @@
                   <c:v>675.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>776.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -5236,10 +5255,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.64655172413793105</c:v>
+                  <c:v>0.71551724137931039</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35344827586206895</c:v>
+                  <c:v>0.28448275862068961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5848,6 +5867,9 @@
                   <c:v>0.70540000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0.73460000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -7412,6 +7434,9 @@
                   <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>250.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -7816,6 +7841,9 @@
                   <c:v>872.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>944</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -7940,6 +7968,9 @@
                   <c:v>822.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>874</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -8066,6 +8097,9 @@
                   <c:v>751.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>822.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -8190,6 +8224,9 @@
                   <c:v>615.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>693.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -9262,6 +9299,9 @@
                   <c:v>441</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>840</c:v>
                 </c:pt>
               </c:numCache>
@@ -9439,6 +9479,9 @@
                   <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -17462,7 +17505,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Sprint 10 Progress</c:v>
+              <c:v>Sprint 11 Progress</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -21537,6 +21580,9 @@
                   <c:v>0.65620000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0.70169999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
@@ -23952,6 +23998,9 @@
                   <c:v>793</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>725.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
@@ -24348,6 +24397,9 @@
                   <c:v>2306.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>2432.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1200</c:v>
                 </c:pt>
               </c:numCache>
@@ -24472,6 +24524,9 @@
                   <c:v>2212</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>2284.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -24598,6 +24653,9 @@
                   <c:v>1865.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>2016.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>360</c:v>
                 </c:pt>
               </c:numCache>
@@ -24722,6 +24780,9 @@
                   <c:v>1513.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>1707</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>900</c:v>
                 </c:pt>
               </c:numCache>
@@ -25473,10 +25534,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.64655172413793105</c:v>
+                  <c:v>0.71551724137931039</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35344827586206895</c:v>
+                  <c:v>0.28448275862068961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -43164,7 +43225,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>65%</a:t>
+            <a:t>72%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -43840,7 +43901,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>65%</a:t>
+            <a:t>72%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -44347,7 +44408,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>65%</a:t>
+            <a:t>72%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -44364,7 +44425,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43314.558741782406" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="90">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43327.369339120371" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="90" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -44658,7 +44719,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="90">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="90">
   <r>
     <s v="&lt;jt:forEach items=&quot;${issues}&quot; var=&quot;issue&quot;&gt;&lt;jt:hyperlink address=&quot;${requestContext.canonicalBaseUrl}/browse/${issue.key}&quot; value=&quot;${issue.key}&quot;/&gt;"/>
     <x v="0"/>
@@ -45978,7 +46039,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="19"/>
+    <x v="20"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -46024,7 +46085,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="19"/>
+    <x v="20"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -46070,7 +46131,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="19"/>
+    <x v="20"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -46116,7 +46177,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="19"/>
+    <x v="20"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -46162,7 +46223,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="19"/>
+    <x v="20"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -46208,7 +46269,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="19"/>
+    <x v="20"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -46254,7 +46315,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="19"/>
+    <x v="20"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -48803,8 +48864,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="12" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A24:B29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="90" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+  <location ref="G24:H29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -48827,28 +48888,6 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="5">
         <item x="0"/>
@@ -48860,6 +48899,36 @@
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -48869,8 +48938,8 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="-2"/>
@@ -48895,9 +48964,10 @@
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="2">
+  <pageFields count="3">
     <pageField fld="32" item="2" hier="-1"/>
     <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="1" hier="-1"/>
   </pageFields>
   <dataFields count="5">
     <dataField name="Done" fld="44" baseField="0" baseItem="32"/>
@@ -48906,7 +48976,7 @@
     <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
     <dataField name="Not Decomposed" fld="45" baseField="0" baseItem="32"/>
   </dataFields>
-  <chartFormats count="15">
+  <chartFormats count="27">
     <chartFormat chart="0" format="7" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -49048,6 +49118,114 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="7" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -49062,7 +49240,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000001000000}" name="PivotTable7" cacheId="90" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B12:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49199,7 +49377,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="90" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49290,7 +49468,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000002000000}" name="PivotTable4" cacheId="90" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="G5:H11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49802,7 +49980,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000001000000}" name="PivotTable3" cacheId="90" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
   <location ref="D5:E11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -50257,7 +50435,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="90" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A5:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -50472,7 +50650,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000003000000}" name="PivotTable5" cacheId="90" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="J5:K11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -50984,7 +51162,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="90" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="B4:H20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -51286,7 +51464,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="90" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="D4:E11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -51385,8 +51563,8 @@
     <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="34"/>
@@ -51419,7 +51597,7 @@
   </colItems>
   <pageFields count="2">
     <pageField fld="1" hier="-1"/>
-    <pageField fld="30" item="10" hier="-1"/>
+    <pageField fld="30" item="11" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
@@ -51553,7 +51731,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000001000000}" name="PivotTable2" cacheId="90" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="F8:L11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -51695,8 +51873,8 @@
     <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="37"/>
@@ -51866,7 +52044,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="90" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -52008,8 +52186,8 @@
     <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="33"/>
@@ -52268,8 +52446,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="Y4:AA8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="90" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A24:B29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -52292,225 +52470,28 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item x="3"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="32" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="B29:C44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="46">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="47">
-        <item x="0"/>
-        <item x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow">
-      <items count="18">
-        <item h="1" m="1" x="16"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item h="1" x="1"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="5">
         <item x="0"/>
@@ -52524,576 +52505,6 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="12">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="10"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item h="1" x="8"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="15">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="31" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="12" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G35:G36" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="46">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="2" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A49:B54" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="46">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="35"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="1" item="2" hier="-1"/>
-    <pageField fld="32" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="2" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="12" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A34:A35" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="46">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="32" item="2" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="12" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
-  <location ref="G24:H29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="46">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
@@ -53101,8 +52512,8 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="-2"/>
@@ -53127,10 +52538,9 @@
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="3">
+  <pageFields count="2">
     <pageField fld="32" item="2" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="1" hier="-1"/>
   </pageFields>
   <dataFields count="5">
     <dataField name="Done" fld="44" baseField="0" baseItem="32"/>
@@ -53139,7 +52549,7 @@
     <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
     <dataField name="Not Decomposed" fld="45" baseField="0" baseItem="32"/>
   </dataFields>
-  <chartFormats count="27">
+  <chartFormats count="15">
     <chartFormat chart="0" format="7" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -53281,7 +52691,239 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="7" format="7" series="1">
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="90" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="B29:C44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="46">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="47">
+        <item x="0"/>
+        <item x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow">
+      <items count="18">
+        <item h="1" m="1" x="16"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item h="1" x="1"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="12">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item h="1" x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="15">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="5" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -53290,101 +52932,14 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="7" format="8">
+    <chartFormat chart="2" format="6">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
+          <reference field="31" count="1" selected="0">
+            <x v="5"/>
           </reference>
         </references>
       </pivotArea>
@@ -53402,9 +52957,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="12" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D35:D36" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="90" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="Y4:AA8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -53427,6 +52982,132 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="90" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D35:D36" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="46">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="5">
         <item x="0"/>
@@ -53477,8 +53158,8 @@
     <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowItems count="1">
     <i/>
@@ -53506,9 +53187,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="12" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
-  <location ref="D24:E29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="90" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G35:G36" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -53544,7 +53225,7 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -53576,13 +53257,117 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="90" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+  <location ref="D24:E29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="46">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="-2"/>
@@ -53828,8 +53613,284 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="90" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A49:B54" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="46">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="35"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="1" item="2" hier="-1"/>
+    <pageField fld="32" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="90" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A34:A35" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="46">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" item="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="90" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AD10:AH16" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="46">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -53964,44 +54025,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:E4" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="D2:E4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="D2:E4" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="D2:E4" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="Start Date" dataDxfId="6"/>
-    <tableColumn id="2" name="End Date" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Start Date" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="End Date" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="W2:W12" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="W2:W12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15" displayName="Table15" ref="W2:W12" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="W2:W12" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" name="Stabilization and Holidays" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Stabilization and Holidays" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="B20:D34" totalsRowShown="0">
-  <autoFilter ref="B20:D34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table5" displayName="Table5" ref="B20:D34" totalsRowShown="0">
+  <autoFilter ref="B20:D34" xr:uid="{00000000-0009-0000-0100-000005000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="Sprint"/>
-    <tableColumn id="2" name="Epics New" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Sprint"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Epics New" dataDxfId="2">
       <calculatedColumnFormula>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Stories Ready" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Stories Ready" dataDxfId="1">
       <calculatedColumnFormula>GETPIVOTDATA("Story Points",$B$12)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -54010,8 +54071,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="K5:R20" totalsRowCount="1">
-  <autoFilter ref="K5:R19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1" displayName="Table1" ref="K5:R20" totalsRowCount="1">
+  <autoFilter ref="K5:R19" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -54022,14 +54083,14 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" name="Sprint" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Alpha" totalsRowFunction="sum"/>
-    <tableColumn id="3" name="ngStars" totalsRowFunction="sum"/>
-    <tableColumn id="4" name="NW" totalsRowFunction="sum"/>
-    <tableColumn id="5" name="SoftTeco" totalsRowFunction="sum"/>
-    <tableColumn id="8" name="Titan" totalsRowFunction="sum"/>
-    <tableColumn id="6" name="QA" totalsRowFunction="sum"/>
-    <tableColumn id="7" name="Total" totalsRowFunction="sum" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Sprint" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Alpha" totalsRowFunction="sum"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ngStars" totalsRowFunction="sum"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="NW" totalsRowFunction="sum"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="SoftTeco" totalsRowFunction="sum"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Titan" totalsRowFunction="sum"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="QA" totalsRowFunction="sum"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Total" totalsRowFunction="sum" dataDxfId="0">
       <calculatedColumnFormula>SUM(L6:Q6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -54038,10 +54099,10 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:B1" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table3" displayName="Table3" ref="A1:B1" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" name="Column1" dataCellStyle="Output"/>
-    <tableColumn id="2" name="Column2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Column1" dataCellStyle="Output"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Column2">
       <calculatedColumnFormula>$E$2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -55314,7 +55375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:B9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -55344,7 +55405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -55359,10 +55420,12 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B1:R20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -55767,11 +55830,11 @@
         <v>93.5</v>
       </c>
       <c r="Q14">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="R14">
         <f t="shared" si="0"/>
-        <v>213.6</v>
+        <v>213.5</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.45">
@@ -55791,9 +55854,21 @@
       <c r="K15" t="s">
         <v>158</v>
       </c>
+      <c r="L15">
+        <v>18</v>
+      </c>
+      <c r="M15">
+        <v>51</v>
+      </c>
+      <c r="N15">
+        <v>57</v>
+      </c>
+      <c r="O15">
+        <v>80</v>
+      </c>
       <c r="R15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.45">
@@ -55911,19 +55986,19 @@
       </c>
       <c r="L20">
         <f>SUBTOTAL(109,Table1[Alpha])</f>
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="M20">
         <f>SUBTOTAL(109,Table1[ngStars])</f>
-        <v>373.5</v>
+        <v>424.5</v>
       </c>
       <c r="N20">
         <f>SUBTOTAL(109,Table1[NW])</f>
-        <v>451.5</v>
+        <v>508.5</v>
       </c>
       <c r="O20">
         <f>SUBTOTAL(109,Table1[SoftTeco])</f>
-        <v>606.5</v>
+        <v>686.5</v>
       </c>
       <c r="P20">
         <f>SUBTOTAL(109,Table1[Titan])</f>
@@ -55931,11 +56006,11 @@
       </c>
       <c r="Q20">
         <f>SUBTOTAL(109,Table1[QA])</f>
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="R20">
         <f>SUBTOTAL(109,Table1[Total])</f>
-        <v>1652.6</v>
+        <v>1858.5</v>
       </c>
     </row>
   </sheetData>
@@ -55947,7 +56022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -55962,7 +56037,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -55983,7 +56058,7 @@
       </c>
       <c r="B1" t="str">
         <f>$E$2</f>
-        <v>Quasar10</v>
+        <v>Quasar11</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>9</v>
@@ -55997,7 +56072,7 @@
         <v>165</v>
       </c>
       <c r="E2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -56079,7 +56154,7 @@
       </c>
       <c r="E15" t="str">
         <f>"Sprint " &amp; SUBSTITUTE($B$1,"Quasar", "") &amp; " Progress"</f>
-        <v>Sprint 10 Progress</v>
+        <v>Sprint 11 Progress</v>
       </c>
     </row>
   </sheetData>
@@ -56091,7 +56166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -56115,7 +56190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -56476,7 +56551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:AS91"/>
   <sheetViews>
@@ -57413,7 +57488,7 @@
       </c>
       <c r="AE30" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Quasar10</v>
+        <v>Quasar11</v>
       </c>
       <c r="AI30" s="5" t="s">
         <v>193</v>
@@ -57434,7 +57509,7 @@
       </c>
       <c r="AE31" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Quasar10</v>
+        <v>Quasar11</v>
       </c>
       <c r="AI31" s="5" t="s">
         <v>223</v>
@@ -57455,7 +57530,7 @@
       </c>
       <c r="AE32" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Quasar10</v>
+        <v>Quasar11</v>
       </c>
       <c r="AI32" s="5" t="s">
         <v>194</v>
@@ -57476,7 +57551,7 @@
       </c>
       <c r="AE33" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Quasar10</v>
+        <v>Quasar11</v>
       </c>
       <c r="AI33" s="5" t="s">
         <v>195</v>
@@ -57497,7 +57572,7 @@
       </c>
       <c r="AE34" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Quasar10</v>
+        <v>Quasar11</v>
       </c>
       <c r="AI34" s="5" t="s">
         <v>197</v>
@@ -57518,7 +57593,7 @@
       </c>
       <c r="AE35" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Quasar10</v>
+        <v>Quasar11</v>
       </c>
       <c r="AI35" s="5" t="s">
         <v>196</v>
@@ -57536,7 +57611,7 @@
       </c>
       <c r="AE36" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Quasar10</v>
+        <v>Quasar11</v>
       </c>
       <c r="AI36" s="5" t="s">
         <v>198</v>
@@ -58675,7 +58750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -58759,7 +58834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A6:B9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -58789,7 +58864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A6:B9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -58819,7 +58894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA56"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
@@ -58831,7 +58906,7 @@
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.9296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.19921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="9.86328125" customWidth="1"/>
@@ -58895,7 +58970,7 @@
       </c>
       <c r="B2" s="52">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$W$3:$W$12)/NETWORKDAYS($D$3,$E$3,$W$3:$W$12),0%)</f>
-        <v>0.64655172413793105</v>
+        <v>0.71551724137931039</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>131</v>
@@ -58964,7 +59039,7 @@
       </c>
       <c r="B3" s="32">
         <f ca="1">MAX(100%,B2)-B2</f>
-        <v>0.35344827586206895</v>
+        <v>0.28448275862068961</v>
       </c>
       <c r="D3" s="28">
         <v>43201</v>
@@ -58989,7 +59064,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="46">
-        <f>2380*(100%-K3)</f>
+        <f t="shared" ref="P3:P17" si="0">2380*(100%-K3)</f>
         <v>2380</v>
       </c>
       <c r="Q3" s="46">
@@ -59003,7 +59078,7 @@
         <v>918</v>
       </c>
       <c r="T3" s="46">
-        <f>700*(100%-L3)</f>
+        <f t="shared" ref="T3:T17" si="1">700*(100%-L3)</f>
         <v>700</v>
       </c>
       <c r="U3" s="46">
@@ -59028,7 +59103,7 @@
         <v>43207</v>
       </c>
       <c r="J4" s="38">
-        <f t="shared" ref="J4:J17" si="0">NETWORKDAYS(H4,I4,$W$3:$W$12)</f>
+        <f t="shared" ref="J4:J17" si="2">NETWORKDAYS(H4,I4,$W$3:$W$12)</f>
         <v>5</v>
       </c>
       <c r="K4" s="40">
@@ -59049,21 +59124,21 @@
         <v>6.0299999999999999E-2</v>
       </c>
       <c r="P4" s="46">
-        <f>2380*(100%-K4)</f>
+        <f t="shared" si="0"/>
         <v>2277.4137931034484</v>
       </c>
       <c r="Q4" s="46">
         <v>2324.5</v>
       </c>
       <c r="R4" s="50">
-        <f t="shared" ref="R4:R17" si="1">1400*(100%-K4)</f>
+        <f t="shared" ref="R4:R17" si="3">1400*(100%-K4)</f>
         <v>1339.655172413793</v>
       </c>
       <c r="S4" s="46">
         <v>1274</v>
       </c>
       <c r="T4" s="46">
-        <f>700*(100%-L4)</f>
+        <f t="shared" si="1"/>
         <v>669.82758620689651</v>
       </c>
       <c r="U4" s="46">
@@ -59104,7 +59179,7 @@
         <v>43221</v>
       </c>
       <c r="J5" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K5" s="40">
@@ -59125,21 +59200,21 @@
         <v>0.18529999999999999</v>
       </c>
       <c r="P5" s="46">
-        <f>2380*(100%-K5)</f>
+        <f t="shared" si="0"/>
         <v>2072.2413793103447</v>
       </c>
       <c r="Q5" s="46">
         <v>2399.3000000000002</v>
       </c>
       <c r="R5" s="50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1218.9655172413793</v>
       </c>
       <c r="S5" s="46">
         <v>1544.3</v>
       </c>
       <c r="T5" s="46">
-        <f>700*(100%-L5)</f>
+        <f t="shared" si="1"/>
         <v>609.48275862068965</v>
       </c>
       <c r="U5" s="46">
@@ -59170,7 +59245,7 @@
       </c>
       <c r="E6" s="27">
         <f ca="1">TODAY()</f>
-        <v>43314</v>
+        <v>43327</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>151</v>
@@ -59184,7 +59259,7 @@
         <v>43235</v>
       </c>
       <c r="J6" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K6" s="40">
@@ -59205,21 +59280,21 @@
         <v>0.30580000000000002</v>
       </c>
       <c r="P6" s="46">
-        <f>2380*(100%-K6)</f>
+        <f t="shared" si="0"/>
         <v>1867.0689655172416</v>
       </c>
       <c r="Q6" s="47">
         <v>1859.5</v>
       </c>
       <c r="R6" s="50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1098.2758620689656</v>
       </c>
       <c r="S6" s="47">
         <v>1267.5</v>
       </c>
       <c r="T6" s="46">
-        <f>700*(100%-L6)</f>
+        <f t="shared" si="1"/>
         <v>549.13793103448279</v>
       </c>
       <c r="U6" s="47">
@@ -59252,15 +59327,15 @@
         <v>152</v>
       </c>
       <c r="H7" s="24">
-        <f t="shared" ref="H7:H17" si="2">I6+1</f>
+        <f t="shared" ref="H7:H17" si="4">I6+1</f>
         <v>43236</v>
       </c>
       <c r="I7" s="24">
-        <f t="shared" ref="I7:I16" si="3">I6+14</f>
+        <f t="shared" ref="I7:I16" si="5">I6+14</f>
         <v>43249</v>
       </c>
       <c r="J7" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="K7" s="40">
@@ -59281,21 +59356,21 @@
         <v>0.376</v>
       </c>
       <c r="P7" s="46">
-        <f>2380*(100%-K7)</f>
+        <f t="shared" si="0"/>
         <v>1682.4137931034481</v>
       </c>
       <c r="Q7" s="47">
         <v>1741</v>
       </c>
       <c r="R7" s="50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>989.65517241379303</v>
       </c>
       <c r="S7" s="47">
         <v>1161</v>
       </c>
       <c r="T7" s="46">
-        <f>700*(100%-L7)</f>
+        <f t="shared" si="1"/>
         <v>494.82758620689651</v>
       </c>
       <c r="U7" s="47">
@@ -59321,15 +59396,15 @@
         <v>153</v>
       </c>
       <c r="H8" s="24">
+        <f t="shared" si="4"/>
+        <v>43250</v>
+      </c>
+      <c r="I8" s="24">
+        <f t="shared" si="5"/>
+        <v>43263</v>
+      </c>
+      <c r="J8" s="38">
         <f t="shared" si="2"/>
-        <v>43250</v>
-      </c>
-      <c r="I8" s="24">
-        <f t="shared" si="3"/>
-        <v>43263</v>
-      </c>
-      <c r="J8" s="38">
-        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="K8" s="40">
@@ -59350,21 +59425,21 @@
         <v>0.43969999999999998</v>
       </c>
       <c r="P8" s="46">
-        <f>2380*(100%-K8)</f>
+        <f t="shared" si="0"/>
         <v>1477.2413793103449</v>
       </c>
       <c r="Q8" s="47">
         <v>1597</v>
       </c>
       <c r="R8" s="50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>868.9655172413793</v>
       </c>
       <c r="S8" s="47">
         <v>1032.5</v>
       </c>
       <c r="T8" s="46">
-        <f>700*(100%-L8)</f>
+        <f t="shared" si="1"/>
         <v>434.48275862068965</v>
       </c>
       <c r="U8" s="47">
@@ -59394,15 +59469,15 @@
         <v>154</v>
       </c>
       <c r="H9" s="24">
+        <f t="shared" si="4"/>
+        <v>43264</v>
+      </c>
+      <c r="I9" s="24">
+        <f t="shared" si="5"/>
+        <v>43277</v>
+      </c>
+      <c r="J9" s="38">
         <f t="shared" si="2"/>
-        <v>43264</v>
-      </c>
-      <c r="I9" s="24">
-        <f t="shared" si="3"/>
-        <v>43277</v>
-      </c>
-      <c r="J9" s="38">
-        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="K9" s="40">
@@ -59423,21 +59498,21 @@
         <v>0.57920000000000005</v>
       </c>
       <c r="P9" s="46">
-        <f>2380*(100%-K9)</f>
+        <f t="shared" si="0"/>
         <v>1272.0689655172416</v>
       </c>
       <c r="Q9" s="47">
         <v>1184.5</v>
       </c>
       <c r="R9" s="50">
-        <f t="shared" ref="R9" si="4">1400*(100%-K9)</f>
+        <f t="shared" ref="R9" si="6">1400*(100%-K9)</f>
         <v>748.27586206896558</v>
       </c>
       <c r="S9" s="47">
         <v>743.5</v>
       </c>
       <c r="T9" s="46">
-        <f>700*(100%-L9)</f>
+        <f t="shared" si="1"/>
         <v>374.13793103448279</v>
       </c>
       <c r="U9" s="47">
@@ -59467,7 +59542,7 @@
         <v>43291</v>
       </c>
       <c r="J10" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="K10" s="40">
@@ -59488,21 +59563,21 @@
         <v>0.67889999999999995</v>
       </c>
       <c r="P10" s="46">
-        <f>2380*(100%-K10)</f>
+        <f t="shared" si="0"/>
         <v>1087.4137931034481</v>
       </c>
       <c r="Q10" s="47">
         <v>1001</v>
       </c>
       <c r="R10" s="50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>639.65517241379303</v>
       </c>
       <c r="S10" s="47">
         <v>634</v>
       </c>
       <c r="T10" s="46">
-        <f>700*(100%-L10)</f>
+        <f t="shared" si="1"/>
         <v>319.82758620689651</v>
       </c>
       <c r="U10" s="47">
@@ -59524,7 +59599,7 @@
         <v>156</v>
       </c>
       <c r="H11" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>43292</v>
       </c>
       <c r="I11" s="24">
@@ -59532,7 +59607,7 @@
         <v>43298</v>
       </c>
       <c r="J11" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11" s="40">
@@ -59553,21 +59628,21 @@
         <v>0.67030000000000001</v>
       </c>
       <c r="P11" s="46">
-        <f>2380*(100%-K11)</f>
+        <f t="shared" si="0"/>
         <v>1087.4137931034481</v>
       </c>
       <c r="Q11" s="47">
         <v>910</v>
       </c>
       <c r="R11" s="50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>639.65517241379303</v>
       </c>
       <c r="S11" s="47">
         <v>526.5</v>
       </c>
       <c r="T11" s="46">
-        <f>700*(100%-L11)</f>
+        <f t="shared" si="1"/>
         <v>319.82758620689651</v>
       </c>
       <c r="U11" s="47">
@@ -59582,15 +59657,15 @@
         <v>157</v>
       </c>
       <c r="H12" s="24">
+        <f t="shared" si="4"/>
+        <v>43299</v>
+      </c>
+      <c r="I12" s="24">
+        <f t="shared" si="5"/>
+        <v>43312</v>
+      </c>
+      <c r="J12" s="38">
         <f t="shared" si="2"/>
-        <v>43299</v>
-      </c>
-      <c r="I12" s="24">
-        <f t="shared" si="3"/>
-        <v>43312</v>
-      </c>
-      <c r="J12" s="38">
-        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="K12" s="40">
@@ -59611,21 +59686,21 @@
         <v>0.70540000000000003</v>
       </c>
       <c r="P12" s="46">
-        <f>2380*(100%-K12)</f>
+        <f t="shared" si="0"/>
         <v>882.24137931034488</v>
       </c>
       <c r="Q12" s="47">
         <v>793</v>
       </c>
       <c r="R12" s="50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>518.9655172413793</v>
       </c>
       <c r="S12" s="47">
         <v>401.5</v>
       </c>
       <c r="T12" s="46">
-        <f>700*(100%-L12)</f>
+        <f t="shared" si="1"/>
         <v>259.48275862068965</v>
       </c>
       <c r="U12" s="47">
@@ -59643,15 +59718,15 @@
         <v>158</v>
       </c>
       <c r="H13" s="24">
+        <f t="shared" si="4"/>
+        <v>43313</v>
+      </c>
+      <c r="I13" s="24">
+        <f t="shared" si="5"/>
+        <v>43326</v>
+      </c>
+      <c r="J13" s="38">
         <f t="shared" si="2"/>
-        <v>43313</v>
-      </c>
-      <c r="I13" s="24">
-        <f t="shared" si="3"/>
-        <v>43326</v>
-      </c>
-      <c r="J13" s="38">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="K13" s="40">
@@ -59663,40 +59738,34 @@
         <v>0.7068965517241379</v>
       </c>
       <c r="M13" s="43">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$Y$4)/GETPIVOTDATA("Epic Total Estimate",$Y$4)</f>
-        <v>0.75</v>
+        <v>0.70169999999999999</v>
       </c>
       <c r="N13" s="43">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Diagram Editor")/GETPIVOTDATA("Epic Total Estimate",$Y$4,"ST:Components","Diagram Editor")</f>
-        <v>0.25</v>
+        <v>0.7147</v>
       </c>
       <c r="O13" s="43">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Artifact List")/GETPIVOTDATA("Epic Total Estimate",$Y$4,"ST:Components","Artifact List")</f>
-        <v>0.25</v>
+        <v>0.73460000000000003</v>
       </c>
       <c r="P13" s="46">
-        <f>2380*(100%-K13)</f>
+        <f t="shared" si="0"/>
         <v>697.58620689655174</v>
       </c>
       <c r="Q13" s="47">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$Y$4)</f>
-        <v>300</v>
+        <v>725.5</v>
       </c>
       <c r="R13" s="50">
+        <f t="shared" si="3"/>
+        <v>410.34482758620692</v>
+      </c>
+      <c r="S13" s="47">
+        <v>310</v>
+      </c>
+      <c r="T13" s="46">
         <f t="shared" si="1"/>
-        <v>410.34482758620692</v>
-      </c>
-      <c r="S13" s="47">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Diagram Editor")</f>
-        <v>150</v>
-      </c>
-      <c r="T13" s="46">
-        <f>700*(100%-L13)</f>
         <v>205.17241379310346</v>
       </c>
       <c r="U13" s="47">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Artifact List")</f>
-        <v>150</v>
+        <v>250.5</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
@@ -59711,15 +59780,15 @@
         <v>159</v>
       </c>
       <c r="H14" s="24">
+        <f t="shared" si="4"/>
+        <v>43327</v>
+      </c>
+      <c r="I14" s="24">
+        <f t="shared" si="5"/>
+        <v>43340</v>
+      </c>
+      <c r="J14" s="38">
         <f t="shared" si="2"/>
-        <v>43327</v>
-      </c>
-      <c r="I14" s="24">
-        <f t="shared" si="3"/>
-        <v>43340</v>
-      </c>
-      <c r="J14" s="38">
-        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="K14" s="40">
@@ -59730,24 +59799,42 @@
         <f>SUM($J$4:J14)/SUM($J$4:$J$17)</f>
         <v>0.7931034482758621</v>
       </c>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
+      <c r="M14" s="43">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$Y$4)/GETPIVOTDATA("Epic Total Estimate",$Y$4)</f>
+        <v>0.75</v>
+      </c>
+      <c r="N14" s="43">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Diagram Editor")/GETPIVOTDATA("Epic Total Estimate",$Y$4,"ST:Components","Diagram Editor")</f>
+        <v>0.25</v>
+      </c>
+      <c r="O14" s="43">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Artifact List")/GETPIVOTDATA("Epic Total Estimate",$Y$4,"ST:Components","Artifact List")</f>
+        <v>0.25</v>
+      </c>
       <c r="P14" s="46">
-        <f>2380*(100%-K14)</f>
+        <f t="shared" si="0"/>
         <v>492.4137931034482</v>
       </c>
-      <c r="Q14" s="47"/>
+      <c r="Q14" s="47">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$Y$4)</f>
+        <v>300</v>
+      </c>
       <c r="R14" s="50">
+        <f t="shared" si="3"/>
+        <v>289.65517241379308</v>
+      </c>
+      <c r="S14" s="47">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Diagram Editor")</f>
+        <v>150</v>
+      </c>
+      <c r="T14" s="46">
         <f t="shared" si="1"/>
-        <v>289.65517241379308</v>
-      </c>
-      <c r="S14" s="47"/>
-      <c r="T14" s="46">
-        <f>700*(100%-L14)</f>
         <v>144.82758620689654</v>
       </c>
-      <c r="U14" s="47"/>
+      <c r="U14" s="47">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Artifact List")</f>
+        <v>150</v>
+      </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
@@ -59761,15 +59848,15 @@
         <v>160</v>
       </c>
       <c r="H15" s="24">
+        <f t="shared" si="4"/>
+        <v>43341</v>
+      </c>
+      <c r="I15" s="24">
+        <f t="shared" si="5"/>
+        <v>43354</v>
+      </c>
+      <c r="J15" s="38">
         <f t="shared" si="2"/>
-        <v>43341</v>
-      </c>
-      <c r="I15" s="24">
-        <f t="shared" si="3"/>
-        <v>43354</v>
-      </c>
-      <c r="J15" s="38">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="K15" s="40">
@@ -59784,17 +59871,17 @@
       <c r="N15" s="40"/>
       <c r="O15" s="40"/>
       <c r="P15" s="46">
-        <f>2380*(100%-K15)</f>
+        <f t="shared" si="0"/>
         <v>307.75862068965512</v>
       </c>
       <c r="Q15" s="47"/>
       <c r="R15" s="50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>181.03448275862067</v>
       </c>
       <c r="S15" s="47"/>
       <c r="T15" s="46">
-        <f>700*(100%-L15)</f>
+        <f t="shared" si="1"/>
         <v>90.517241379310335</v>
       </c>
       <c r="U15" s="47"/>
@@ -59804,15 +59891,15 @@
         <v>161</v>
       </c>
       <c r="H16" s="24">
+        <f t="shared" si="4"/>
+        <v>43355</v>
+      </c>
+      <c r="I16" s="24">
+        <f t="shared" si="5"/>
+        <v>43368</v>
+      </c>
+      <c r="J16" s="38">
         <f t="shared" si="2"/>
-        <v>43355</v>
-      </c>
-      <c r="I16" s="24">
-        <f t="shared" si="3"/>
-        <v>43368</v>
-      </c>
-      <c r="J16" s="38">
-        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="K16" s="40">
@@ -59827,17 +59914,17 @@
       <c r="N16" s="40"/>
       <c r="O16" s="40"/>
       <c r="P16" s="46">
-        <f>2380*(100%-K16)</f>
+        <f t="shared" si="0"/>
         <v>102.5862068965518</v>
       </c>
       <c r="Q16" s="47"/>
       <c r="R16" s="50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>60.344827586206939</v>
       </c>
       <c r="S16" s="47"/>
       <c r="T16" s="46">
-        <f>700*(100%-L16)</f>
+        <f t="shared" si="1"/>
         <v>30.17241379310347</v>
       </c>
       <c r="U16" s="47"/>
@@ -59853,7 +59940,7 @@
         <v>162</v>
       </c>
       <c r="H17" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>43369</v>
       </c>
       <c r="I17" s="26">
@@ -59861,7 +59948,7 @@
         <v>43375</v>
       </c>
       <c r="J17" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="K17" s="41">
@@ -59876,17 +59963,17 @@
       <c r="N17" s="41"/>
       <c r="O17" s="41"/>
       <c r="P17" s="49">
-        <f>2380*(100%-K17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q17" s="48"/>
       <c r="R17" s="49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S17" s="48"/>
       <c r="T17" s="49">
-        <f>700*(100%-L17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U17" s="48"/>
@@ -59897,7 +59984,7 @@
       </c>
       <c r="B18" s="52">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$W$3:$W$12)/NETWORKDAYS($D$3,$E$3,$W$3:$W$12),0%)</f>
-        <v>0.64655172413793105</v>
+        <v>0.71551724137931039</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.45">
@@ -59906,7 +59993,7 @@
       </c>
       <c r="B19" s="32">
         <f ca="1">MAX(100%,B18)-B18</f>
-        <v>0.35344827586206895</v>
+        <v>0.28448275862068961</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.45">
@@ -60301,14 +60388,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AH18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:C1"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -61417,97 +61504,85 @@
         <v>43326</v>
       </c>
       <c r="D13" s="65">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AD$8, "Type", "Epic")</f>
-        <v>1200</v>
+        <v>2432.5</v>
       </c>
       <c r="E13" s="66">
         <v>2380</v>
       </c>
       <c r="F13" s="46">
-        <f>GETPIVOTDATA("Stories Estimate", $AD$8, "Type", "Epic")</f>
-        <v>0</v>
+        <v>2284.5</v>
       </c>
       <c r="G13" s="46">
-        <f>GETPIVOTDATA("Epic Decomposed", $AD$8, "Type", "Epic")</f>
-        <v>360</v>
+        <v>2016.5</v>
       </c>
       <c r="H13" s="46">
         <f t="shared" ref="H13" si="19">D13-I13</f>
-        <v>900</v>
+        <v>1707</v>
       </c>
       <c r="I13" s="46">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AD$8, "Type", "Epic")</f>
-        <v>300</v>
+        <v>725.5</v>
       </c>
       <c r="J13" s="36">
         <f t="shared" ref="J13" si="20" xml:space="preserve"> G13/D13</f>
-        <v>0.3</v>
+        <v>0.82898252826310381</v>
       </c>
       <c r="K13" s="36">
         <f t="shared" ref="K13" si="21" xml:space="preserve"> H13/D13</f>
-        <v>0.75</v>
+        <v>0.7017471736896197</v>
       </c>
       <c r="L13" s="67">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>200</v>
+        <v>1086.5</v>
       </c>
       <c r="M13" s="66">
         <v>1400</v>
       </c>
       <c r="N13" s="46">
-        <f>GETPIVOTDATA("Stories Estimate", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>0</v>
+        <v>1064.5</v>
       </c>
       <c r="O13" s="46">
-        <f>GETPIVOTDATA("Epic Decomposed", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>180</v>
+        <v>885</v>
       </c>
       <c r="P13" s="46">
         <f t="shared" ref="P13" si="22">L13-Q13</f>
-        <v>50</v>
+        <v>776.5</v>
       </c>
       <c r="Q13" s="46">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>150</v>
+        <v>310</v>
       </c>
       <c r="R13" s="36">
         <f t="shared" ref="R13" si="23" xml:space="preserve"> O13/L13</f>
-        <v>0.9</v>
+        <v>0.81454210768522783</v>
       </c>
       <c r="S13" s="36">
         <f t="shared" ref="S13" si="24" xml:space="preserve"> P13/L13</f>
-        <v>0.25</v>
+        <v>0.71468016566958126</v>
       </c>
       <c r="T13" s="65">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
-        <v>200</v>
+        <v>944</v>
       </c>
       <c r="U13" s="66">
         <v>700</v>
       </c>
       <c r="V13" s="46">
-        <f>GETPIVOTDATA("Stories Estimate", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
-        <v>0</v>
+        <v>874</v>
       </c>
       <c r="W13" s="46">
-        <f>GETPIVOTDATA("Epic Decomposed", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
-        <v>180</v>
+        <v>822.5</v>
       </c>
       <c r="X13" s="46">
         <f t="shared" ref="X13" si="25">T13-Y13</f>
-        <v>50</v>
+        <v>693.5</v>
       </c>
       <c r="Y13" s="46">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
-        <v>150</v>
+        <v>250.5</v>
       </c>
       <c r="Z13" s="36">
         <f t="shared" ref="Z13" si="26" xml:space="preserve"> W13/T13</f>
-        <v>0.9</v>
+        <v>0.87129237288135597</v>
       </c>
       <c r="AA13" s="36">
         <f t="shared" ref="AA13" si="27">X13/T13</f>
-        <v>0.25</v>
+        <v>0.73463983050847459</v>
       </c>
       <c r="AD13" s="17" t="s">
         <v>225</v>
@@ -61533,14 +61608,98 @@
       <c r="C14" s="68">
         <v>43340</v>
       </c>
+      <c r="D14" s="65">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AD$8, "Type", "Epic")</f>
+        <v>1200</v>
+      </c>
       <c r="E14" s="66">
         <v>2380</v>
       </c>
+      <c r="F14" s="46">
+        <f>GETPIVOTDATA("Stories Estimate", $AD$8, "Type", "Epic")</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="46">
+        <f>GETPIVOTDATA("Epic Decomposed", $AD$8, "Type", "Epic")</f>
+        <v>360</v>
+      </c>
+      <c r="H14" s="46">
+        <f t="shared" ref="H14" si="28">D14-I14</f>
+        <v>900</v>
+      </c>
+      <c r="I14" s="46">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AD$8, "Type", "Epic")</f>
+        <v>300</v>
+      </c>
+      <c r="J14" s="36">
+        <f t="shared" ref="J14" si="29" xml:space="preserve"> G14/D14</f>
+        <v>0.3</v>
+      </c>
+      <c r="K14" s="36">
+        <f t="shared" ref="K14" si="30" xml:space="preserve"> H14/D14</f>
+        <v>0.75</v>
+      </c>
+      <c r="L14" s="67">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>200</v>
+      </c>
       <c r="M14" s="66">
         <v>1400</v>
       </c>
+      <c r="N14" s="46">
+        <f>GETPIVOTDATA("Stories Estimate", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="46">
+        <f>GETPIVOTDATA("Epic Decomposed", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>180</v>
+      </c>
+      <c r="P14" s="46">
+        <f t="shared" ref="P14" si="31">L14-Q14</f>
+        <v>50</v>
+      </c>
+      <c r="Q14" s="46">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>150</v>
+      </c>
+      <c r="R14" s="36">
+        <f t="shared" ref="R14" si="32" xml:space="preserve"> O14/L14</f>
+        <v>0.9</v>
+      </c>
+      <c r="S14" s="36">
+        <f t="shared" ref="S14" si="33" xml:space="preserve"> P14/L14</f>
+        <v>0.25</v>
+      </c>
+      <c r="T14" s="65">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
+        <v>200</v>
+      </c>
       <c r="U14" s="66">
         <v>700</v>
+      </c>
+      <c r="V14" s="46">
+        <f>GETPIVOTDATA("Stories Estimate", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
+        <v>0</v>
+      </c>
+      <c r="W14" s="46">
+        <f>GETPIVOTDATA("Epic Decomposed", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
+        <v>180</v>
+      </c>
+      <c r="X14" s="46">
+        <f t="shared" ref="X14" si="34">T14-Y14</f>
+        <v>50</v>
+      </c>
+      <c r="Y14" s="46">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
+        <v>150</v>
+      </c>
+      <c r="Z14" s="36">
+        <f t="shared" ref="Z14" si="35" xml:space="preserve"> W14/T14</f>
+        <v>0.9</v>
+      </c>
+      <c r="AA14" s="36">
+        <f t="shared" ref="AA14" si="36">X14/T14</f>
+        <v>0.25</v>
       </c>
       <c r="AD14" s="17" t="s">
         <v>226</v>
@@ -61653,7 +61812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -61668,10 +61827,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B3:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -61851,17 +62012,23 @@
         <v>158</v>
       </c>
       <c r="C30">
-        <f t="shared" ref="C30" si="0">GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
-        <v>840</v>
+        <v>416</v>
       </c>
       <c r="D30">
-        <f t="shared" ref="D30" si="1">GETPIVOTDATA("Story Points",$B$12)</f>
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>159</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ref="C30:C31" si="0">GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
+        <v>840</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D30:D31" si="1">GETPIVOTDATA("Story Points",$B$12)</f>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.45">
@@ -61888,7 +62055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -61903,7 +62070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/blueprint-jira-better-excel/_Current-Release-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/_Current-Release-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{AD1F6B43-5C1E-4FA2-B6FD-AE7E07936A6C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{7AE18A4A-4FFE-4466-AC3A-124C94680B95}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8715" tabRatio="933" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,18 +32,18 @@
     <sheet name="Notes" sheetId="25" state="hidden" r:id="rId17"/>
   </sheets>
   <definedNames>
-    <definedName name="issues">OFFSET(Issues!$A$1,0,0,COUNTA(Issues!$A$1:$A$10003),COUNTA(Issues!$A$1:$AAO$1) - 1)</definedName>
+    <definedName name="issues">OFFSET(Issues!$A$1,0,0,COUNTA(Issues!$A$1:$A$10003),COUNTA(Issues!$A$1:$AAP$1) - 1)</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="90" r:id="rId18"/>
+    <pivotCache cacheId="51" r:id="rId18"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="281">
   <si>
     <t>Status</t>
   </si>
@@ -421,9 +421,6 @@
   </si>
   <si>
     <t>&lt;/jt:forEach&gt;</t>
-  </si>
-  <si>
-    <t>$[IF(OR(B2="Bug", B2="Epic"),"",IF(D2=V2, 0, N2))]&lt;/jt:forEach&gt;</t>
   </si>
   <si>
     <t>Commitment Sprint</t>
@@ -871,6 +868,24 @@
   </si>
   <si>
     <t>6. ActiveSprint sheet:</t>
+  </si>
+  <si>
+    <t>$[IF(OR(B2="Bug", B2="Epic"),"",IF(D2=V2, 0, N2))]</t>
+  </si>
+  <si>
+    <t>Backlog Health</t>
+  </si>
+  <si>
+    <t>$[IF(OR(E2="Story: Ready",E2="Tech Debt: Ready",AND(B2="Spike",E2="Story: New")), "Yes", "No")]&lt;/jt:forEach&gt;</t>
+  </si>
+  <si>
+    <t>Rocket</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -1761,10 +1776,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.71551724137931039</c:v>
+                  <c:v>0.75862068965517238</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28448275862068961</c:v>
+                  <c:v>0.24137931034482762</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5255,10 +5270,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.71551724137931039</c:v>
+                  <c:v>0.75862068965517238</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28448275862068961</c:v>
+                  <c:v>0.24137931034482762</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9482,7 +9497,7 @@
                   <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>150</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25534,10 +25549,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.71551724137931039</c:v>
+                  <c:v>0.75862068965517238</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28448275862068961</c:v>
+                  <c:v>0.24137931034482762</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -43225,7 +43240,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>72%</a:t>
+            <a:t>76%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -43901,7 +43916,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>72%</a:t>
+            <a:t>76%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -44408,7 +44423,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>72%</a:t>
+            <a:t>76%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -44425,11 +44440,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43327.369339120371" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="90" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43334.355159837964" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="90" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
-  <cacheFields count="46">
+  <cacheFields count="47">
     <cacheField name="Key" numFmtId="0">
       <sharedItems/>
     </cacheField>
@@ -44630,11 +44645,12 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Release" numFmtId="0">
-      <sharedItems containsBlank="1" count="4">
+      <sharedItems containsBlank="1" count="5">
         <s v="${issue.fixVersions.name}"/>
         <m/>
         <s v="Pegasus"/>
         <s v="Quasar"/>
+        <s v="Rocket"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Priority" numFmtId="0">
@@ -44707,6 +44723,14 @@
     <cacheField name="Different Story Points" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
+    <cacheField name="Backlog Health" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="$[IF(OR(E2=&quot;Story: Ready&quot;,E2=&quot;Tech Debt: Ready&quot;,AND(B2=&quot;Spike&quot;,E2=&quot;Story: New&quot;)), &quot;Yes&quot;, &quot;No&quot;)]&lt;/jt:forEach&gt;"/>
+        <m/>
+        <s v="Yes"/>
+        <s v="No"/>
+      </sharedItems>
+    </cacheField>
     <cacheField name="Epic Done Estimate" numFmtId="0" formula="'Epic Total Estimate'-'Epic Remaining Estimate'" databaseField="0"/>
     <cacheField name="Epic Not Decomposed Estimate" numFmtId="0" formula="'Epic Total Estimate'-'Epic Decomposed'" databaseField="0"/>
   </cacheFields>
@@ -44764,7 +44788,8 @@
     <s v="${bpHelper.getInDevEstimate(issue)}"/>
     <s v="${bpHelper.getValidationEstimate(issue)}"/>
     <s v="$[IF(B2=&quot;Epic&quot;, IF(AND(IFERROR(VALUE(P2), 0)&gt;0, P2=W2), &quot;Yes&quot;, &quot;No&quot;), &quot;&quot;)]"/>
-    <s v="$[IF(OR(B2=&quot;Bug&quot;, B2=&quot;Epic&quot;),&quot;&quot;,IF(D2=V2, 0, N2))]&lt;/jt:forEach&gt;"/>
+    <s v="$[IF(OR(B2=&quot;Bug&quot;, B2=&quot;Epic&quot;),&quot;&quot;,IF(D2=V2, 0, N2))]"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="&lt;jt:forEach items=&quot;${issues.subList(0, 0)}&quot; var=&quot;issue&quot; where=&quot;${issue.key = ''}&quot;&gt;"/>
@@ -44811,6 +44836,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -44857,6 +44883,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="2"/>
   </r>
   <r>
     <s v="key"/>
@@ -44903,6 +44930,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="3"/>
   </r>
   <r>
     <s v="key"/>
@@ -44937,7 +44965,7 @@
     <m/>
     <x v="4"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="4"/>
     <x v="4"/>
@@ -44949,6 +44977,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="2"/>
   </r>
   <r>
     <s v="key"/>
@@ -44995,6 +45024,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="3"/>
   </r>
   <r>
     <s v="key"/>
@@ -45041,6 +45071,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -45087,6 +45118,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -45133,6 +45165,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -45179,6 +45212,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -45225,6 +45259,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -45271,6 +45306,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -45317,6 +45353,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -45363,6 +45400,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -45409,6 +45447,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -45455,6 +45494,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -45501,6 +45541,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -45547,6 +45588,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -45593,6 +45635,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -45639,6 +45682,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -45685,6 +45729,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -45731,6 +45776,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -45777,6 +45823,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -45823,6 +45870,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -45869,6 +45917,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -45915,6 +45964,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -45961,6 +46011,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -46007,6 +46058,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -46053,6 +46105,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -46099,6 +46152,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -46145,6 +46199,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -46191,6 +46246,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -46237,6 +46293,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -46283,6 +46340,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -46329,6 +46387,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -46375,6 +46434,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -46421,6 +46481,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -46467,6 +46528,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -46513,6 +46575,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -46559,6 +46622,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -46605,6 +46669,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -46651,6 +46716,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -46697,6 +46763,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -46743,6 +46810,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -46789,6 +46857,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -46835,6 +46904,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -46881,6 +46951,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -46927,6 +46998,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -46973,6 +47045,7 @@
     <n v="40"/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -47019,6 +47092,7 @@
     <n v="40"/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -47065,6 +47139,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -47111,6 +47186,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -47157,6 +47233,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -47203,6 +47280,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -47249,6 +47327,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -47295,6 +47374,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -47341,6 +47421,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -47387,6 +47468,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -47433,6 +47515,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -47479,6 +47562,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -47525,6 +47609,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -47571,6 +47656,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -47617,6 +47703,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -47663,6 +47750,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -47709,6 +47797,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -47755,6 +47844,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -47801,6 +47891,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -47847,6 +47938,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -47893,6 +47985,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -47939,6 +48032,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -47985,6 +48079,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -48031,6 +48126,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -48077,6 +48173,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -48123,6 +48220,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -48169,6 +48267,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -48215,6 +48314,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -48261,6 +48361,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -48307,6 +48408,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -48353,6 +48455,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -48399,6 +48502,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -48445,6 +48549,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -48491,6 +48596,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -48537,6 +48643,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -48583,6 +48690,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -48629,6 +48737,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -48675,6 +48784,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -48721,6 +48831,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -48767,6 +48878,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -48813,6 +48925,7 @@
     <m/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -48859,24 +48972,25 @@
     <m/>
     <m/>
     <s v="&lt;/jt:forEach&gt;"/>
+    <x v="1"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="90" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
-  <location ref="G24:H29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="46">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A49:B54" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="47">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
+        <item x="0"/>
+        <item x="6"/>
         <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -48888,120 +49002,95 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
+      <items count="6">
         <item x="0"/>
         <item x="2"/>
         <item x="3"/>
         <item x="1"/>
+        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
         <item x="2"/>
         <item x="3"/>
-        <item x="1"/>
+        <item x="4"/>
+        <item x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="-2"/>
+    <field x="35"/>
   </rowFields>
   <rowItems count="5">
     <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
       <x v="2"/>
     </i>
-    <i i="3">
+    <i>
       <x v="3"/>
     </i>
-    <i i="4">
+    <i>
       <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
     </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="3">
+  <pageFields count="2">
+    <pageField fld="1" item="2" hier="-1"/>
     <pageField fld="32" item="2" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="1" hier="-1"/>
   </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="44" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="45" baseField="0" baseItem="32"/>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
   </dataFields>
-  <chartFormats count="27">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
+  <chartFormats count="5">
+    <chartFormat chart="2" format="10" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -49010,218 +49099,50 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
+    <chartFormat chart="2" format="11">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
+          <reference field="35" count="1" selected="0">
             <x v="2"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="14">
+    <chartFormat chart="2" format="12">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
             <x v="4"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="15">
+    <chartFormat chart="2" format="14">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
+          <reference field="35" count="1" selected="0">
+            <x v="5"/>
           </reference>
         </references>
       </pivotArea>
@@ -49240,146 +49161,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000001000000}" name="PivotTable7" cacheId="90" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B12:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="46">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="47">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item h="1" x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item h="1" x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="90" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="46">
+  <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisRow" subtotalTop="0" showAll="0">
       <items count="8">
@@ -49435,6 +49219,7 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
@@ -49453,7 +49238,103 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Epic Not Decomposed Estimate" fld="45" baseField="1" baseItem="2"/>
+    <dataField name="Sum of Epic Not Decomposed Estimate" fld="46" baseField="1" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000001000000}" name="PivotTable7" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B12:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="47">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="44" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="0" baseItem="514"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -49468,9 +49349,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000002000000}" name="PivotTable4" cacheId="90" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
-  <location ref="G5:H11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="46">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A5:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="8">
@@ -49515,11 +49396,12 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
+      <items count="6">
         <item x="0"/>
         <item x="2"/>
         <item x="3"/>
         <item x="1"/>
+        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -49562,6 +49444,738 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="37" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="6">
+    <chartFormat chart="10" format="49" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="50">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="51">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="52">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="53">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="54">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000003000000}" name="PivotTable5" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+  <location ref="J5:K11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="47">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item h="1" x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item h="1" x="8"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="37" item="6" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="32">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="37" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="21" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="56" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="57">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="58">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="59">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="60">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000002000000}" name="PivotTable4" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+  <location ref="G5:H11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="47">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item h="1" x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item h="1" x="8"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
@@ -49979,10 +50593,10 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000001000000}" name="PivotTable3" cacheId="90" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000001000000}" name="PivotTable3" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
   <location ref="D5:E11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="46">
+  <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="8">
@@ -50027,11 +50641,12 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
+      <items count="6">
         <item x="0"/>
         <item x="2"/>
         <item x="3"/>
         <item x="1"/>
+        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -50074,6 +50689,7 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
@@ -50434,737 +51050,10 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="90" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="A5:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="46">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item h="1" x="8"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="10"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="2" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="37" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="6">
-    <chartFormat chart="10" format="49" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="50">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="51">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="52">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="53">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="54">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000003000000}" name="PivotTable5" cacheId="90" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
-  <location ref="J5:K11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="46">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item h="1" x="8"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="10"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="2" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="37" item="6" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="32">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="37" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="11" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="21" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="11" format="56" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="11" format="57">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="11" format="58">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="11" format="59">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="11" format="60">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="90" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="B4:H20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="46">
+  <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="8">
@@ -51306,6 +51195,7 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
@@ -51464,9 +51354,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="90" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="D4:E11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="46">
+  <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="8">
@@ -51563,6 +51453,7 @@
     <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
@@ -51731,9 +51622,264 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000001000000}" name="PivotTable2" cacheId="90" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="B29:C44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="47">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="47">
+        <item x="0"/>
+        <item x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow">
+      <items count="18">
+        <item h="1" m="1" x="16"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item h="1" x="1"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="12">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item h="1" x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="15">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="31" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000001000000}" name="PivotTable2" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="F8:L11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="46">
+  <pivotFields count="47">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="8">
@@ -51828,11 +51974,12 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
+      <items count="6">
         <item x="0"/>
         <item x="2"/>
         <item x="3"/>
         <item x="1"/>
+        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -51873,6 +52020,7 @@
     <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
@@ -52043,10 +52191,138 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="90" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="Y4:AA8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="47">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="6">
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item h="1" x="1"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="46">
+  <pivotFields count="47">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="8">
@@ -52141,11 +52417,12 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
+      <items count="6">
         <item x="0"/>
         <item x="2"/>
         <item x="3"/>
         <item x="1"/>
+        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -52186,6 +52463,7 @@
     <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
@@ -52445,10 +52723,10 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="90" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A24:B29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="46">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="51" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A34:A35" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="8">
@@ -52475,7 +52753,7 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52493,11 +52771,12 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
+      <items count="6">
         <item x="0"/>
         <item x="2"/>
         <item x="3"/>
         <item x="1"/>
+        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -52507,657 +52786,12 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="32" item="2" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="44" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="45" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="15">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="90" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="B29:C44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="46">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="47">
-        <item x="0"/>
-        <item x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow">
-      <items count="18">
-        <item h="1" m="1" x="16"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item h="1" x="1"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="12">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="10"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item h="1" x="8"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="15">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="31" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="90" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="Y4:AA8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="46">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item x="3"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="32" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="90" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D35:D36" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="46">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
@@ -53167,10 +52801,9 @@
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="3">
+  <pageFields count="2">
     <pageField fld="32" item="2" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
@@ -53187,10 +52820,10 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="90" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G35:G36" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="46">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="51" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+  <location ref="D24:E29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="8">
@@ -53225,7 +52858,7 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -53243,11 +52876,12 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
+      <items count="6">
         <item x="0"/>
         <item x="2"/>
         <item x="3"/>
         <item x="1"/>
+        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -53257,115 +52891,12 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="2" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="90" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
-  <location ref="D24:E29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="46">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
@@ -53398,11 +52929,11 @@
     <pageField fld="10" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="5">
-    <dataField name="Done" fld="44" baseField="0" baseItem="32"/>
+    <dataField name="Done" fld="45" baseField="0" baseItem="32"/>
     <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
     <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
     <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="45" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="46" baseField="0" baseItem="32"/>
   </dataFields>
   <chartFormats count="21">
     <chartFormat chart="0" format="7" series="1">
@@ -53613,45 +53144,23 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="90" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A49:B54" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="46">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="51" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+  <location ref="G24:H29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="47">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="8">
-        <item x="0"/>
-        <item x="6"/>
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
         <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -53671,60 +53180,111 @@
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
         <item x="2"/>
         <item x="3"/>
+        <item x="1"/>
         <item x="4"/>
-        <item x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="35"/>
+    <field x="-2"/>
   </rowFields>
   <rowItems count="5">
     <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
       <x v="2"/>
     </i>
-    <i>
+    <i i="3">
       <x v="3"/>
     </i>
-    <i>
+    <i i="4">
       <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
     </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="2">
-    <pageField fld="1" item="2" hier="-1"/>
+  <pageFields count="3">
     <pageField fld="32" item="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="1" hier="-1"/>
   </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+  <dataFields count="5">
+    <dataField name="Done" fld="45" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="46" baseField="0" baseItem="32"/>
   </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="2" format="10" series="1">
+  <chartFormats count="27">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -53733,50 +53293,585 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="11">
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="51" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D35:D36" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="47">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="51" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A24:B29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="47">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" item="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="45" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="46" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="15">
+    <chartFormat chart="0" format="7" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="35" count="1" selected="0">
+          <reference field="1" count="1" selected="0">
             <x v="2"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="12">
+    <chartFormat chart="0" format="8" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="35" count="1" selected="0">
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="13">
+    <chartFormat chart="4" format="22" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
+        <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="14">
+    <chartFormat chart="4" format="23">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
+        <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="5"/>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -53795,9 +53890,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="90" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A34:A35" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="46">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="51" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G35:G36" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="8">
@@ -53819,28 +53914,6 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="5">
         <item x="0"/>
@@ -53852,6 +53925,37 @@
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -53861,6 +53965,7 @@
     <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
@@ -53870,9 +53975,10 @@
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="2">
+  <pageFields count="3">
     <pageField fld="32" item="2" hier="-1"/>
     <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="1" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
@@ -53890,9 +53996,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="90" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AD10:AH16" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="46">
+  <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisCol" subtotalTop="0" showAll="0">
       <items count="8">
@@ -53945,11 +54051,12 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
+      <items count="6">
         <item x="0"/>
         <item x="2"/>
         <item x="3"/>
         <item x="1"/>
+        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -53964,6 +54071,7 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
@@ -54004,7 +54112,7 @@
     </i>
   </colItems>
   <pageFields count="1">
-    <pageField fld="32" hier="-1"/>
+    <pageField fld="32" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="4">
     <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
@@ -55444,7 +55552,7 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.45">
@@ -55452,23 +55560,23 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B4" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K4" s="44" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B5" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
         <v>58</v>
@@ -55489,7 +55597,7 @@
         <v>50</v>
       </c>
       <c r="K5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L5" t="s">
         <v>58</v>
@@ -55510,12 +55618,12 @@
         <v>53</v>
       </c>
       <c r="R5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B6" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
@@ -55528,7 +55636,7 @@
         <v>30</v>
       </c>
       <c r="K6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L6">
         <v>18.5</v>
@@ -55555,7 +55663,7 @@
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B7" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20">
@@ -55568,7 +55676,7 @@
         <v>30</v>
       </c>
       <c r="K7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L7">
         <v>18</v>
@@ -55592,7 +55700,7 @@
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B8" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" s="20">
         <v>30</v>
@@ -55605,7 +55713,7 @@
         <v>30</v>
       </c>
       <c r="K8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L8">
         <v>27</v>
@@ -55629,7 +55737,7 @@
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B9" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
@@ -55642,7 +55750,7 @@
         <v>30</v>
       </c>
       <c r="K9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L9">
         <v>21</v>
@@ -55666,7 +55774,7 @@
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B10" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
@@ -55679,7 +55787,7 @@
         <v>30</v>
       </c>
       <c r="K10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L10">
         <v>23.5</v>
@@ -55703,7 +55811,7 @@
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B11" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -55716,7 +55824,7 @@
         <v>30</v>
       </c>
       <c r="K11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L11">
         <v>24</v>
@@ -55737,7 +55845,7 @@
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B12" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20">
@@ -55750,7 +55858,7 @@
         <v>30</v>
       </c>
       <c r="K12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L12">
         <v>15.5</v>
@@ -55771,7 +55879,7 @@
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B13" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C13" s="20">
         <v>30</v>
@@ -55784,7 +55892,7 @@
         <v>30</v>
       </c>
       <c r="K13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L13">
         <v>4.5</v>
@@ -55802,7 +55910,7 @@
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B14" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
@@ -55815,7 +55923,7 @@
         <v>30</v>
       </c>
       <c r="K14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L14">
         <v>14</v>
@@ -55839,7 +55947,7 @@
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B15" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
@@ -55852,7 +55960,7 @@
         <v>30</v>
       </c>
       <c r="K15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L15">
         <v>18</v>
@@ -55873,7 +55981,7 @@
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B16" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
@@ -55886,7 +55994,7 @@
         <v>30</v>
       </c>
       <c r="K16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R16">
         <f t="shared" si="0"/>
@@ -55895,7 +56003,7 @@
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B17" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20">
@@ -55908,7 +56016,7 @@
         <v>30</v>
       </c>
       <c r="K17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R17">
         <f t="shared" si="0"/>
@@ -55917,7 +56025,7 @@
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B18" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C18" s="20">
         <v>30</v>
@@ -55930,7 +56038,7 @@
         <v>30</v>
       </c>
       <c r="K18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R18">
         <f t="shared" si="0"/>
@@ -55939,7 +56047,7 @@
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B19" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
@@ -55952,7 +56060,7 @@
         <v>30</v>
       </c>
       <c r="K19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R19">
         <f t="shared" si="0"/>
@@ -55982,7 +56090,7 @@
         <v>420</v>
       </c>
       <c r="K20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L20">
         <f>SUBTOTAL(109,Table1[Alpha])</f>
@@ -56054,7 +56162,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B1" t="str">
         <f>$E$2</f>
@@ -56064,28 +56172,28 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D2" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D4" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D5" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E5" s="20">
         <v>1</v>
@@ -56093,7 +56201,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D6" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E6" s="20">
         <v>1</v>
@@ -56101,7 +56209,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D7" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E7" s="20">
         <v>1</v>
@@ -56109,7 +56217,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D8" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E8" s="20">
         <v>1</v>
@@ -56117,7 +56225,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D9" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E9" s="20">
         <v>1</v>
@@ -56125,7 +56233,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D10" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E10" s="20">
         <v>1</v>
@@ -56150,7 +56258,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E15" t="str">
         <f>"Sprint " &amp; SUBSTITUTE($B$1,"Quasar", "") &amp; " Progress"</f>
@@ -56214,26 +56322,26 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B4" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
@@ -56255,13 +56363,13 @@
         <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
@@ -56269,41 +56377,41 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="F8" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B9" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G9" t="s">
+        <v>201</v>
+      </c>
+      <c r="H9" t="s">
         <v>202</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>203</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>204</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>205</v>
-      </c>
-      <c r="K9" t="s">
-        <v>206</v>
       </c>
       <c r="L9" t="s">
         <v>50</v>
@@ -56311,7 +56419,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B10" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C10" s="20">
         <v>1</v>
@@ -56340,7 +56448,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B11" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C11" s="20">
         <v>1</v>
@@ -56369,7 +56477,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B12" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C12" s="20">
         <v>1</v>
@@ -56377,7 +56485,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B13" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C13" s="20">
         <v>1</v>
@@ -56385,7 +56493,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B14" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="20">
         <v>1</v>
@@ -56410,10 +56518,10 @@
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B24" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.45">
@@ -56429,7 +56537,7 @@
         <v>119</v>
       </c>
       <c r="C26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.45">
@@ -56442,15 +56550,15 @@
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B29" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B30" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" s="20">
         <v>1</v>
@@ -56458,25 +56566,25 @@
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B31" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C31" s="20"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B32" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C32" s="20"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B33" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="20"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B34" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C34" s="20">
         <v>1</v>
@@ -56484,55 +56592,55 @@
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B35" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C35" s="20"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B36" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C36" s="20"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B37" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C37" s="20"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B38" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C38" s="20"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B39" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C39" s="20"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B40" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C40" s="20"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B41" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C41" s="20"/>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B42" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C42" s="20"/>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B43" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C43" s="20"/>
     </row>
@@ -56553,12 +56661,12 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AS91"/>
+  <dimension ref="A1:AT91"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C3" sqref="C3"/>
-      <selection pane="bottomLeft" activeCell="AR2" sqref="AR2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -56606,10 +56714,11 @@
     <col min="42" max="42" width="21.53125" style="5" customWidth="1"/>
     <col min="43" max="43" width="19.86328125" style="5" customWidth="1"/>
     <col min="44" max="44" width="18.796875" style="5" customWidth="1"/>
-    <col min="45" max="16384" width="9.1328125" style="3"/>
+    <col min="45" max="45" width="13.73046875" style="5" customWidth="1"/>
+    <col min="46" max="16384" width="9.1328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -56683,40 +56792,40 @@
         <v>21</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AD1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>44</v>
@@ -56728,25 +56837,28 @@
         <v>120</v>
       </c>
       <c r="AN1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AO1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="AQ1" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AS1" s="3" t="s">
-        <v>164</v>
+      <c r="AS1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:45" s="5" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:46" s="5" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>67</v>
       </c>
@@ -56820,40 +56932,40 @@
         <v>42</v>
       </c>
       <c r="Y2" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z2" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AA2" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AB2" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC2" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AD2" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AE2" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AF2" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AG2" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AH2" s="10" t="s">
         <v>46</v>
       </c>
       <c r="AI2" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AJ2" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AK2" s="14" t="s">
         <v>49</v>
@@ -56865,30 +56977,33 @@
         <v>121</v>
       </c>
       <c r="AN2" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO2" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="AO2" s="11" t="s">
+      <c r="AP2" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="AP2" s="11" t="s">
-        <v>214</v>
-      </c>
       <c r="AQ2" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AR2" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="AS2" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="AS2" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="AT2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>51</v>
       </c>
@@ -56906,16 +57021,16 @@
       </c>
       <c r="W4" s="4"/>
       <c r="AE4" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AG4" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AI4" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AJ4" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AL4" s="4" t="s">
         <v>56</v>
@@ -56927,8 +57042,11 @@
       <c r="AO4" s="4"/>
       <c r="AP4" s="4"/>
       <c r="AQ4" s="4"/>
+      <c r="AS4" s="5" t="s">
+        <v>279</v>
+      </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>51</v>
       </c>
@@ -56948,16 +57066,16 @@
       </c>
       <c r="W5" s="4"/>
       <c r="AE5" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AG5" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI5" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AJ5" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AL5" s="4" t="s">
         <v>54</v>
@@ -56969,8 +57087,11 @@
       <c r="AO5" s="4"/>
       <c r="AP5" s="4"/>
       <c r="AQ5" s="4"/>
+      <c r="AS5" s="5" t="s">
+        <v>280</v>
+      </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
@@ -56991,13 +57112,16 @@
       </c>
       <c r="W6" s="4"/>
       <c r="AE6" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
+      </c>
+      <c r="AG6" s="5" t="s">
+        <v>278</v>
       </c>
       <c r="AI6" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AJ6" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AL6" s="4" t="s">
         <v>57</v>
@@ -57009,8 +57133,11 @@
       <c r="AO6" s="4"/>
       <c r="AP6" s="4"/>
       <c r="AQ6" s="4"/>
+      <c r="AS6" s="5" t="s">
+        <v>279</v>
+      </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>51</v>
       </c>
@@ -57028,13 +57155,13 @@
       </c>
       <c r="W7" s="4"/>
       <c r="AE7" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AI7" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AJ7" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AL7" s="4" t="s">
         <v>52</v>
@@ -57046,8 +57173,11 @@
       <c r="AO7" s="4"/>
       <c r="AP7" s="4"/>
       <c r="AQ7" s="4"/>
+      <c r="AS7" s="5" t="s">
+        <v>280</v>
+      </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>51</v>
       </c>
@@ -57065,10 +57195,10 @@
       </c>
       <c r="W8" s="4"/>
       <c r="AE8" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AI8" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AL8" s="4" t="s">
         <v>58</v>
@@ -57081,7 +57211,7 @@
       <c r="AP8" s="4"/>
       <c r="AQ8" s="4"/>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>51</v>
       </c>
@@ -57097,10 +57227,10 @@
       </c>
       <c r="W9" s="4"/>
       <c r="AE9" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AI9" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AL9" s="4" t="s">
         <v>59</v>
@@ -57113,7 +57243,7 @@
       <c r="AP9" s="4"/>
       <c r="AQ9" s="4"/>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
@@ -57129,10 +57259,10 @@
       </c>
       <c r="W10" s="4"/>
       <c r="AE10" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AI10" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AL10" s="4" t="s">
         <v>60</v>
@@ -57145,7 +57275,7 @@
       <c r="AP10" s="4"/>
       <c r="AQ10" s="4"/>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>51</v>
       </c>
@@ -57161,7 +57291,7 @@
       </c>
       <c r="W11" s="4"/>
       <c r="AE11" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AL11" s="4" t="s">
         <v>53</v>
@@ -57174,7 +57304,7 @@
       <c r="AP11" s="4"/>
       <c r="AQ11" s="4"/>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>51</v>
       </c>
@@ -57190,10 +57320,10 @@
       </c>
       <c r="W12" s="4"/>
       <c r="AE12" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF12" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AL12" s="4" t="s">
         <v>61</v>
@@ -57206,7 +57336,7 @@
       <c r="AP12" s="4"/>
       <c r="AQ12" s="4"/>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>51</v>
       </c>
@@ -57222,10 +57352,10 @@
       </c>
       <c r="W13" s="4"/>
       <c r="AE13" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF13" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AL13" s="4"/>
       <c r="AM13" s="4"/>
@@ -57234,7 +57364,7 @@
       <c r="AP13" s="4"/>
       <c r="AQ13" s="4"/>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>51</v>
       </c>
@@ -57255,10 +57385,10 @@
       </c>
       <c r="W14" s="4"/>
       <c r="AE14" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF14" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AL14" s="4"/>
       <c r="AM14" s="4"/>
@@ -57267,7 +57397,7 @@
       <c r="AP14" s="4"/>
       <c r="AQ14" s="4"/>
     </row>
-    <row r="15" spans="1:45" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:46" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>51</v>
       </c>
@@ -57283,10 +57413,10 @@
       </c>
       <c r="W15" s="4"/>
       <c r="AE15" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF15" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AL15" s="4"/>
       <c r="AM15" s="4"/>
@@ -57295,7 +57425,7 @@
       <c r="AP15" s="4"/>
       <c r="AQ15" s="4"/>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>51</v>
       </c>
@@ -57303,10 +57433,10 @@
         <v>104</v>
       </c>
       <c r="AE16" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF16" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="26.25" x14ac:dyDescent="0.45">
@@ -57317,10 +57447,10 @@
         <v>105</v>
       </c>
       <c r="AE17" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF17" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.45">
@@ -57331,10 +57461,10 @@
         <v>106</v>
       </c>
       <c r="AE18" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF18" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="39.4" x14ac:dyDescent="0.45">
@@ -57345,10 +57475,10 @@
         <v>107</v>
       </c>
       <c r="AE19" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF19" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="26.25" x14ac:dyDescent="0.45">
@@ -57359,10 +57489,10 @@
         <v>108</v>
       </c>
       <c r="AE20" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF20" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:35" ht="26.25" x14ac:dyDescent="0.45">
@@ -57373,10 +57503,10 @@
         <v>109</v>
       </c>
       <c r="AE21" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF21" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:35" ht="26.25" x14ac:dyDescent="0.45">
@@ -57387,10 +57517,10 @@
         <v>110</v>
       </c>
       <c r="AE22" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF22" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="26.25" x14ac:dyDescent="0.45">
@@ -57401,10 +57531,10 @@
         <v>111</v>
       </c>
       <c r="AE23" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF23" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.45">
@@ -57415,10 +57545,10 @@
         <v>112</v>
       </c>
       <c r="AE24" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF24" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.45">
@@ -57429,10 +57559,10 @@
         <v>113</v>
       </c>
       <c r="AE25" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF25" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.45">
@@ -57491,7 +57621,7 @@
         <v>Quasar11</v>
       </c>
       <c r="AI30" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.45">
@@ -57512,7 +57642,7 @@
         <v>Quasar11</v>
       </c>
       <c r="AI31" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:35" ht="39.4" x14ac:dyDescent="0.45">
@@ -57533,7 +57663,7 @@
         <v>Quasar11</v>
       </c>
       <c r="AI32" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:38" ht="26.25" x14ac:dyDescent="0.45">
@@ -57554,7 +57684,7 @@
         <v>Quasar11</v>
       </c>
       <c r="AI33" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:38" ht="26.25" x14ac:dyDescent="0.45">
@@ -57575,7 +57705,7 @@
         <v>Quasar11</v>
       </c>
       <c r="AI34" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:38" ht="26.25" x14ac:dyDescent="0.45">
@@ -57596,7 +57726,7 @@
         <v>Quasar11</v>
       </c>
       <c r="AI35" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:38" ht="26.25" x14ac:dyDescent="0.45">
@@ -57614,7 +57744,7 @@
         <v>Quasar11</v>
       </c>
       <c r="AI36" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.45">
@@ -57652,13 +57782,13 @@
         <v>84</v>
       </c>
       <c r="AF40" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AG40" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH40" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AL40" s="4" t="s">
         <v>52</v>
@@ -57675,13 +57805,13 @@
         <v>85</v>
       </c>
       <c r="AF41" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AG41" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH41" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AL41" s="4" t="s">
         <v>52</v>
@@ -57698,13 +57828,13 @@
         <v>86</v>
       </c>
       <c r="AF42" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AG42" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH42" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AL42" s="4" t="s">
         <v>52</v>
@@ -57721,13 +57851,13 @@
         <v>87</v>
       </c>
       <c r="AF43" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AG43" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH43" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AL43" s="4" t="s">
         <v>52</v>
@@ -57744,13 +57874,13 @@
         <v>88</v>
       </c>
       <c r="AF44" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AG44" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH44" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AL44" s="4" t="s">
         <v>52</v>
@@ -57767,13 +57897,13 @@
         <v>89</v>
       </c>
       <c r="AF45" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG45" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH45" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AL45" s="4" t="s">
         <v>52</v>
@@ -57811,13 +57941,13 @@
         <v>87</v>
       </c>
       <c r="AF49" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AG49" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH49" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AL49" s="4" t="s">
         <v>52</v>
@@ -57831,7 +57961,7 @@
         <v>68</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P50" s="5">
         <v>200</v>
@@ -57843,7 +57973,7 @@
         <v>180</v>
       </c>
       <c r="AG50" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AN50" s="5">
         <v>30</v>
@@ -57863,7 +57993,7 @@
         <v>68</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P51" s="5">
         <v>200</v>
@@ -57875,7 +58005,7 @@
         <v>180</v>
       </c>
       <c r="AG51" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AN51" s="5">
         <v>30</v>
@@ -57903,10 +58033,10 @@
         <v>10</v>
       </c>
       <c r="AG52" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI52" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AL52" s="4" t="s">
         <v>58</v>
@@ -57926,10 +58056,10 @@
         <v>10</v>
       </c>
       <c r="AG53" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI53" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AL53" s="4" t="s">
         <v>58</v>
@@ -57949,10 +58079,10 @@
         <v>10</v>
       </c>
       <c r="AG54" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI54" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AL54" s="4" t="s">
         <v>58</v>
@@ -57972,10 +58102,10 @@
         <v>10</v>
       </c>
       <c r="AG55" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI55" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AL55" s="4" t="s">
         <v>58</v>
@@ -57995,10 +58125,10 @@
         <v>10</v>
       </c>
       <c r="AG56" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI56" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AL56" s="4" t="s">
         <v>58</v>
@@ -58020,10 +58150,10 @@
         <v>20</v>
       </c>
       <c r="AG57" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI57" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AL57" s="4" t="s">
         <v>56</v>
@@ -58045,10 +58175,10 @@
         <v>20</v>
       </c>
       <c r="AG58" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI58" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AL58" s="4" t="s">
         <v>56</v>
@@ -58070,10 +58200,10 @@
         <v>20</v>
       </c>
       <c r="AG59" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI59" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AL59" s="4" t="s">
         <v>56</v>
@@ -58095,10 +58225,10 @@
         <v>20</v>
       </c>
       <c r="AG60" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI60" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AL60" s="4" t="s">
         <v>56</v>
@@ -58120,10 +58250,10 @@
         <v>20</v>
       </c>
       <c r="AG61" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI61" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AL61" s="4" t="s">
         <v>56</v>
@@ -58145,10 +58275,10 @@
         <v>30</v>
       </c>
       <c r="AG62" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI62" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AL62" s="4" t="s">
         <v>54</v>
@@ -58170,10 +58300,10 @@
         <v>30</v>
       </c>
       <c r="AG63" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI63" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AL63" s="4" t="s">
         <v>54</v>
@@ -58195,10 +58325,10 @@
         <v>30</v>
       </c>
       <c r="AG64" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI64" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AL64" s="4" t="s">
         <v>54</v>
@@ -58220,10 +58350,10 @@
         <v>30</v>
       </c>
       <c r="AG65" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI65" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AL65" s="4" t="s">
         <v>54</v>
@@ -58245,10 +58375,10 @@
         <v>30</v>
       </c>
       <c r="AG66" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI66" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AL66" s="4" t="s">
         <v>54</v>
@@ -58270,10 +58400,10 @@
         <v>40</v>
       </c>
       <c r="AG67" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI67" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AL67" s="4" t="s">
         <v>57</v>
@@ -58295,10 +58425,10 @@
         <v>40</v>
       </c>
       <c r="AG68" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI68" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AL68" s="4" t="s">
         <v>57</v>
@@ -58320,10 +58450,10 @@
         <v>40</v>
       </c>
       <c r="AG69" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI69" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AL69" s="4" t="s">
         <v>57</v>
@@ -58345,10 +58475,10 @@
         <v>40</v>
       </c>
       <c r="AG70" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI70" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AL70" s="4" t="s">
         <v>57</v>
@@ -58370,10 +58500,10 @@
         <v>40</v>
       </c>
       <c r="AG71" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI71" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AL71" s="4" t="s">
         <v>57</v>
@@ -58395,10 +58525,10 @@
         <v>200</v>
       </c>
       <c r="AG73" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AJ73" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.45">
@@ -58412,10 +58542,10 @@
         <v>200</v>
       </c>
       <c r="AG74" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AJ74" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="75" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.45">
@@ -58431,10 +58561,10 @@
         <v>200</v>
       </c>
       <c r="AG75" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AJ75" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.45">
@@ -58448,10 +58578,10 @@
         <v>200</v>
       </c>
       <c r="AG76" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AJ76" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="77" spans="1:38" x14ac:dyDescent="0.45">
@@ -58474,7 +58604,7 @@
         <v>30</v>
       </c>
       <c r="AF78" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AL78" s="4" t="s">
         <v>54</v>
@@ -58494,7 +58624,7 @@
         <v>30</v>
       </c>
       <c r="AF79" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AL79" s="4" t="s">
         <v>56</v>
@@ -58514,7 +58644,7 @@
         <v>30</v>
       </c>
       <c r="AF80" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AL80" s="4" t="s">
         <v>58</v>
@@ -58534,7 +58664,7 @@
         <v>30</v>
       </c>
       <c r="AF81" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AL81" s="4" t="s">
         <v>52</v>
@@ -58554,7 +58684,7 @@
         <v>30</v>
       </c>
       <c r="AF82" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AL82" s="4" t="s">
         <v>57</v>
@@ -58574,7 +58704,7 @@
         <v>30</v>
       </c>
       <c r="AF83" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AL83" s="4" t="s">
         <v>54</v>
@@ -58594,7 +58724,7 @@
         <v>30</v>
       </c>
       <c r="AF84" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AL84" s="4" t="s">
         <v>56</v>
@@ -58614,7 +58744,7 @@
         <v>30</v>
       </c>
       <c r="AF85" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL85" s="4" t="s">
         <v>58</v>
@@ -58634,7 +58764,7 @@
         <v>30</v>
       </c>
       <c r="AF86" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AL86" s="4" t="s">
         <v>52</v>
@@ -58654,7 +58784,7 @@
         <v>30</v>
       </c>
       <c r="AF87" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AL87" s="4" t="s">
         <v>57</v>
@@ -58674,7 +58804,7 @@
         <v>30</v>
       </c>
       <c r="AF88" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AL88" s="4" t="s">
         <v>54</v>
@@ -58694,7 +58824,7 @@
         <v>30</v>
       </c>
       <c r="AF89" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AL89" s="4" t="s">
         <v>56</v>
@@ -58714,7 +58844,7 @@
         <v>30</v>
       </c>
       <c r="AF90" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AL90" s="4" t="s">
         <v>58</v>
@@ -58734,7 +58864,7 @@
         <v>30</v>
       </c>
       <c r="AF91" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL91" s="4" t="s">
         <v>52</v>
@@ -58759,72 +58889,72 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="51" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -58901,10 +59031,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.9296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.1328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.9296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.19921875" bestFit="1" customWidth="1"/>
@@ -58925,106 +59055,106 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A1" s="44" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N1" t="s">
+        <v>229</v>
+      </c>
+      <c r="O1" t="s">
         <v>230</v>
       </c>
-      <c r="O1" t="s">
-        <v>231</v>
-      </c>
       <c r="P1" s="72" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q1" s="72"/>
       <c r="R1" s="72" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S1" s="72"/>
       <c r="T1" s="72" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U1" s="72"/>
       <c r="Y1" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" s="52">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$W$3:$W$12)/NETWORKDAYS($D$3,$E$3,$W$3:$W$12),0%)</f>
-        <v>0.71551724137931039</v>
+        <v>0.75862068965517238</v>
       </c>
       <c r="D2" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E2" s="31" t="s">
-        <v>132</v>
-      </c>
       <c r="G2" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H2" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="I2" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="I2" s="22" t="s">
-        <v>132</v>
-      </c>
       <c r="J2" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K2" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="M2" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="N2" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="M2" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>229</v>
-      </c>
       <c r="O2" s="22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P2" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q2" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="Q2" s="22" t="s">
-        <v>248</v>
-      </c>
       <c r="R2" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="S2" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="S2" s="22" t="s">
-        <v>248</v>
-      </c>
       <c r="T2" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="U2" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="U2" s="22" t="s">
-        <v>248</v>
-      </c>
       <c r="W2" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Y2" s="16" t="s">
         <v>9</v>
@@ -59035,11 +59165,11 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" s="32">
         <f ca="1">MAX(100%,B2)-B2</f>
-        <v>0.28448275862068961</v>
+        <v>0.24137931034482762</v>
       </c>
       <c r="D3" s="28">
         <v>43201</v>
@@ -59094,7 +59224,7 @@
         <v>43354</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H4" s="24">
         <v>43201</v>
@@ -59148,7 +59278,7 @@
         <v>43293</v>
       </c>
       <c r="Y4" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Z4" t="s">
         <v>118</v>
@@ -59159,16 +59289,16 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H5" s="24">
         <f>I4+1</f>
@@ -59224,7 +59354,7 @@
         <v>43294</v>
       </c>
       <c r="Y5" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Z5" s="20">
         <v>800</v>
@@ -59233,7 +59363,7 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B6" s="52">
         <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$Y$4)/GETPIVOTDATA("Epic Total Estimate",$Y$4)</f>
@@ -59241,14 +59371,14 @@
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E6" s="27">
         <f ca="1">TODAY()</f>
-        <v>43327</v>
+        <v>43334</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H6" s="24">
         <f>I5+1</f>
@@ -59304,7 +59434,7 @@
         <v>43297</v>
       </c>
       <c r="Y6" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Z6" s="20">
         <v>200</v>
@@ -59315,7 +59445,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B7" s="32">
         <f>MAX(100%,B6)-B6</f>
@@ -59324,7 +59454,7 @@
       <c r="D7" s="21"/>
       <c r="E7" s="20"/>
       <c r="G7" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H7" s="24">
         <f t="shared" ref="H7:H17" si="4">I6+1</f>
@@ -59380,7 +59510,7 @@
         <v>43298</v>
       </c>
       <c r="Y7" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Z7" s="20">
         <v>200</v>
@@ -59393,7 +59523,7 @@
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
       <c r="G8" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H8" s="24">
         <f t="shared" si="4"/>
@@ -59460,13 +59590,13 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="44" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
       <c r="G9" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H9" s="24">
         <f t="shared" si="4"/>
@@ -59524,14 +59654,14 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B10" s="52">
         <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Diagram Editor")/GETPIVOTDATA("Epic Total Estimate",$Y$4,"ST:Components","Diagram Editor")</f>
         <v>0.25</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H10" s="24">
         <f>I9+1</f>
@@ -59589,14 +59719,14 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B11" s="32">
         <f>MAX(100%,B10)-B10</f>
         <v>0.75</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H11" s="24">
         <f t="shared" si="4"/>
@@ -59654,7 +59784,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="G12" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H12" s="24">
         <f t="shared" si="4"/>
@@ -59712,10 +59842,10 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H13" s="24">
         <f t="shared" si="4"/>
@@ -59770,14 +59900,14 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B14" s="52">
         <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Artifact List")/GETPIVOTDATA("Epic Total Estimate",$Y$4,"ST:Components","Artifact List")</f>
         <v>0.25</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H14" s="24">
         <f t="shared" si="4"/>
@@ -59838,14 +59968,14 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B15" s="32">
         <f>MAX(100%,B14)-B14</f>
         <v>0.75</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H15" s="24">
         <f t="shared" si="4"/>
@@ -59888,7 +60018,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="G16" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H16" s="24">
         <f t="shared" si="4"/>
@@ -59931,13 +60061,13 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A17" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="B17" s="44" t="s">
         <v>257</v>
       </c>
-      <c r="B17" s="44" t="s">
-        <v>258</v>
-      </c>
       <c r="G17" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H17" s="26">
         <f t="shared" si="4"/>
@@ -59980,42 +60110,42 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B18" s="52">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$W$3:$W$12)/NETWORKDAYS($D$3,$E$3,$W$3:$W$12),0%)</f>
-        <v>0.71551724137931039</v>
+        <v>0.75862068965517238</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B19" s="32">
         <f ca="1">MAX(100%,B18)-B18</f>
-        <v>0.28448275862068961</v>
+        <v>0.24137931034482762</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.45">
       <c r="D20" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A21" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C21" s="42"/>
       <c r="D21" s="16" t="s">
@@ -60042,41 +60172,41 @@
         <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G22" s="16" t="s">
         <v>20</v>
       </c>
       <c r="H22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A24" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A25" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B25" s="20">
         <v>900</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E25" s="20">
         <v>50</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H25" s="20">
         <v>50</v>
@@ -60084,19 +60214,19 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A26" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B26" s="20">
         <v>80</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E26" s="20">
         <v>40</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H26" s="20">
         <v>40</v>
@@ -60104,19 +60234,19 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A27" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B27" s="20">
         <v>120</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E27" s="20">
         <v>60</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H27" s="20">
         <v>60</v>
@@ -60124,19 +60254,19 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A28" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B28" s="20">
         <v>60</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E28" s="20">
         <v>30</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H28" s="20">
         <v>30</v>
@@ -60144,19 +60274,19 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A29" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B29" s="20">
         <v>840</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E29" s="20">
         <v>20</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H29" s="20">
         <v>20</v>
@@ -60164,22 +60294,22 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A31" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.45">
@@ -60207,13 +60337,13 @@
         <v>20</v>
       </c>
       <c r="E33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G33" s="16" t="s">
         <v>20</v>
       </c>
       <c r="H33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
@@ -60294,15 +60424,15 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B49" t="s">
         <v>118</v>
@@ -60310,7 +60440,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B50" s="20">
         <v>200</v>
@@ -60318,7 +60448,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B51" s="20">
         <v>200</v>
@@ -60326,7 +60456,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B52" s="20">
         <v>200</v>
@@ -60334,7 +60464,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B53" s="20">
         <v>200</v>
@@ -60395,7 +60525,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -60442,7 +60572,7 @@
       <c r="B1" s="73"/>
       <c r="C1" s="73"/>
       <c r="D1" s="74" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E1" s="74"/>
       <c r="F1" s="74"/>
@@ -60452,7 +60582,7 @@
       <c r="J1" s="74"/>
       <c r="K1" s="74"/>
       <c r="L1" s="74" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M1" s="74"/>
       <c r="N1" s="74"/>
@@ -60462,7 +60592,7 @@
       <c r="R1" s="74"/>
       <c r="S1" s="74"/>
       <c r="T1" s="74" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U1" s="74"/>
       <c r="V1" s="74"/>
@@ -60474,91 +60604,91 @@
     </row>
     <row r="2" spans="1:34" s="63" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="56" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B2" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="56" t="s">
-        <v>132</v>
-      </c>
       <c r="D2" s="57" t="s">
+        <v>259</v>
+      </c>
+      <c r="E2" s="58" t="s">
         <v>260</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>261</v>
       </c>
       <c r="F2" s="59" t="s">
         <v>123</v>
       </c>
       <c r="G2" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="H2" s="59" t="s">
         <v>262</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="I2" s="59" t="s">
         <v>263</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="J2" s="59" t="s">
         <v>264</v>
       </c>
-      <c r="J2" s="59" t="s">
+      <c r="K2" s="60" t="s">
         <v>265</v>
       </c>
-      <c r="K2" s="60" t="s">
-        <v>266</v>
-      </c>
       <c r="L2" s="57" t="s">
+        <v>259</v>
+      </c>
+      <c r="M2" s="58" t="s">
         <v>260</v>
-      </c>
-      <c r="M2" s="58" t="s">
-        <v>261</v>
       </c>
       <c r="N2" s="59" t="s">
         <v>123</v>
       </c>
       <c r="O2" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="P2" s="59" t="s">
         <v>262</v>
       </c>
-      <c r="P2" s="59" t="s">
+      <c r="Q2" s="59" t="s">
         <v>263</v>
       </c>
-      <c r="Q2" s="59" t="s">
+      <c r="R2" s="59" t="s">
         <v>264</v>
       </c>
-      <c r="R2" s="59" t="s">
+      <c r="S2" s="60" t="s">
         <v>265</v>
       </c>
-      <c r="S2" s="60" t="s">
-        <v>266</v>
-      </c>
       <c r="T2" s="61" t="s">
+        <v>259</v>
+      </c>
+      <c r="U2" s="58" t="s">
         <v>260</v>
-      </c>
-      <c r="U2" s="58" t="s">
-        <v>261</v>
       </c>
       <c r="V2" s="59" t="s">
         <v>123</v>
       </c>
       <c r="W2" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="X2" s="59" t="s">
         <v>262</v>
       </c>
-      <c r="X2" s="59" t="s">
+      <c r="Y2" s="59" t="s">
         <v>263</v>
       </c>
-      <c r="Y2" s="59" t="s">
+      <c r="Z2" s="59" t="s">
         <v>264</v>
       </c>
-      <c r="Z2" s="59" t="s">
+      <c r="AA2" s="60" t="s">
         <v>265</v>
-      </c>
-      <c r="AA2" s="60" t="s">
-        <v>266</v>
       </c>
       <c r="AB2" s="62"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="64"/>
@@ -60646,7 +60776,7 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B4" s="68">
         <v>43194</v>
@@ -60735,7 +60865,7 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B5" s="68">
         <v>43208</v>
@@ -60824,7 +60954,7 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B6" s="68">
         <v>43222</v>
@@ -60916,7 +61046,7 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B7" s="68">
         <v>43236</v>
@@ -61008,7 +61138,7 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B8" s="68">
         <v>43250</v>
@@ -61098,15 +61228,15 @@
         <v>0.4397116644823067</v>
       </c>
       <c r="AD8" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AE8" t="s">
-        <v>227</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B9" s="68">
         <v>43264</v>
@@ -61198,7 +61328,7 @@
     </row>
     <row r="10" spans="1:34" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B10" s="68">
         <v>43278</v>
@@ -61288,12 +61418,12 @@
         <v>0.67889317889317891</v>
       </c>
       <c r="AE10" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B11" s="68">
         <v>43292</v>
@@ -61388,7 +61518,7 @@
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B12" s="68">
         <v>43299</v>
@@ -61478,16 +61608,16 @@
         <v>0.70544412607449858</v>
       </c>
       <c r="AD12" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AE12" t="s">
         <v>118</v>
       </c>
       <c r="AF12" t="s">
+        <v>267</v>
+      </c>
+      <c r="AG12" t="s">
         <v>268</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>269</v>
       </c>
       <c r="AH12" t="s">
         <v>117</v>
@@ -61495,7 +61625,7 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B13" s="68">
         <v>43313</v>
@@ -61585,7 +61715,7 @@
         <v>0.73463983050847459</v>
       </c>
       <c r="AD13" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AE13" s="20">
         <v>200</v>
@@ -61600,7 +61730,7 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B14" s="68">
         <v>43327</v>
@@ -61702,7 +61832,7 @@
         <v>0.25</v>
       </c>
       <c r="AD14" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AE14" s="20">
         <v>200</v>
@@ -61717,7 +61847,7 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" s="68">
         <v>43341</v>
@@ -61735,7 +61865,7 @@
         <v>700</v>
       </c>
       <c r="AD15" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AE15" s="20">
         <v>800</v>
@@ -61746,7 +61876,7 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B16" s="68">
         <v>43355</v>
@@ -61779,7 +61909,7 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B17" s="70">
         <v>43369</v>
@@ -61830,14 +61960,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B3:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="9.46484375" customWidth="1"/>
     <col min="6" max="6" width="8.19921875" bestFit="1" customWidth="1"/>
@@ -61849,10 +61977,10 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B3" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.45">
@@ -61876,41 +62004,39 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B10" s="16" t="s">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="C10" t="s">
-        <v>199</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B13" s="20">
-        <v>150</v>
-      </c>
+      <c r="B13" s="20"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C20" t="s">
+        <v>244</v>
+      </c>
+      <c r="D20" t="s">
         <v>245</v>
-      </c>
-      <c r="D20" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C21">
         <v>1872.5</v>
@@ -61921,7 +62047,7 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C22">
         <v>1932.75</v>
@@ -61932,7 +62058,7 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C23">
         <v>1438</v>
@@ -61943,7 +62069,7 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C24">
         <v>1265</v>
@@ -61954,7 +62080,7 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C25">
         <v>1099</v>
@@ -61965,7 +62091,7 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C26">
         <v>779</v>
@@ -61976,7 +62102,7 @@
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C27">
         <v>701</v>
@@ -61987,7 +62113,7 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C28">
         <v>521</v>
@@ -61998,7 +62124,7 @@
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C29">
         <v>441</v>
@@ -62009,7 +62135,7 @@
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C30">
         <v>416</v>
@@ -62020,30 +62146,30 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C31">
-        <f t="shared" ref="C30:C31" si="0">GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
+        <f t="shared" ref="C31" si="0">GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
         <v>840</v>
       </c>
       <c r="D31">
-        <f t="shared" ref="D30:D31" si="1">GETPIVOTDATA("Story Points",$B$12)</f>
-        <v>150</v>
+        <f t="shared" ref="D31" si="1">GETPIVOTDATA("Story Points",$B$12)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -62074,7 +62200,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pivotSelection pane="bottomRight" click="1" r:id="rId3">
+      <pivotSelection pane="bottomRight" click="1" r:id="rId1">
         <pivotArea field="32" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
       </pivotSelection>
     </sheetView>
@@ -62098,28 +62224,28 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
@@ -62127,25 +62253,25 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>9</v>
       </c>
       <c r="K2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
@@ -62176,51 +62302,51 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B6" s="20">
         <v>10</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E6" s="20">
         <v>20</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H6" s="20">
         <v>30</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K6" s="20">
         <v>40</v>
@@ -62228,25 +62354,25 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B7" s="20">
         <v>10</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E7" s="20">
         <v>20</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H7" s="20">
         <v>30</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K7" s="20">
         <v>40</v>
@@ -62254,25 +62380,25 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B8" s="20">
         <v>10</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E8" s="20">
         <v>20</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H8" s="20">
         <v>30</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K8" s="20">
         <v>40</v>
@@ -62280,25 +62406,25 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B9" s="20">
         <v>10</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E9" s="20">
         <v>20</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H9" s="20">
         <v>30</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K9" s="20">
         <v>40</v>
@@ -62306,25 +62432,25 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B10" s="20">
         <v>10</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E10" s="20">
         <v>20</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H10" s="20">
         <v>30</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K10" s="20">
         <v>40</v>

--- a/blueprint-jira-better-excel/_Current-Release-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/_Current-Release-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{7AE18A4A-4FFE-4466-AC3A-124C94680B95}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{A81C7315-0BA5-4A13-9103-B946D5D8C975}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8715" tabRatio="933" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,14 +36,14 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="51" r:id="rId18"/>
+    <pivotCache cacheId="37" r:id="rId18"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="281">
   <si>
     <t>Status</t>
   </si>
@@ -876,9 +876,6 @@
     <t>Backlog Health</t>
   </si>
   <si>
-    <t>$[IF(OR(E2="Story: Ready",E2="Tech Debt: Ready",AND(B2="Spike",E2="Story: New")), "Yes", "No")]&lt;/jt:forEach&gt;</t>
-  </si>
-  <si>
     <t>Rocket</t>
   </si>
   <si>
@@ -886,6 +883,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>${bpHelper.isInBacklogHealth(issue)}&lt;/jt:forEach&gt;</t>
   </si>
 </sst>
 </file>
@@ -9153,7 +9153,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>_ReadinessData!$C$20</c:f>
+              <c:f>_ReadinessData!$C$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9232,7 +9232,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>_ReadinessData!$B$21:$B$34</c:f>
+              <c:f>_ReadinessData!$B$16:$B$29</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -9282,7 +9282,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>_ReadinessData!$C$21:$C$34</c:f>
+              <c:f>_ReadinessData!$C$16:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -9333,7 +9333,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>_ReadinessData!$D$20</c:f>
+              <c:f>_ReadinessData!$D$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9412,7 +9412,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>_ReadinessData!$B$21:$B$34</c:f>
+              <c:f>_ReadinessData!$B$16:$B$29</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -9462,7 +9462,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>_ReadinessData!$D$21:$D$34</c:f>
+              <c:f>_ReadinessData!$D$16:$D$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -9497,7 +9497,7 @@
                   <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14598,7 +14598,7 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>30</c:v>
@@ -42670,7 +42670,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>150</a:t>
+            <a:t>155</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -44440,7 +44440,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43334.355159837964" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="90" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43334.696172916665" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="90" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -44724,11 +44724,13 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Backlog Health" numFmtId="0">
-      <sharedItems containsBlank="1" count="4">
-        <s v="$[IF(OR(E2=&quot;Story: Ready&quot;,E2=&quot;Tech Debt: Ready&quot;,AND(B2=&quot;Spike&quot;,E2=&quot;Story: New&quot;)), &quot;Yes&quot;, &quot;No&quot;)]&lt;/jt:forEach&gt;"/>
+      <sharedItems containsBlank="1" count="6">
+        <s v="${bpHelper.isInBacklogHealth(issue)}&lt;/jt:forEach&gt;"/>
         <m/>
         <s v="Yes"/>
         <s v="No"/>
+        <s v="&lt;/jt:forEach&gt;"/>
+        <s v="$[IF(OR(E2=&quot;Story: Ready&quot;,E2=&quot;Tech Debt: Ready&quot;,AND(B2=&quot;Spike&quot;,E2=&quot;Story: New&quot;)), &quot;Yes&quot;, &quot;No&quot;)]&lt;/jt:forEach&gt;" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Epic Done Estimate" numFmtId="0" formula="'Epic Total Estimate'-'Epic Remaining Estimate'" databaseField="0"/>
@@ -44883,7 +44885,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -44899,7 +44901,7 @@
     <x v="1"/>
     <m/>
     <m/>
-    <m/>
+    <n v="5"/>
     <m/>
     <m/>
     <m/>
@@ -44930,7 +44932,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <s v="key"/>
@@ -44946,7 +44948,7 @@
     <x v="1"/>
     <m/>
     <m/>
-    <m/>
+    <n v="10"/>
     <m/>
     <m/>
     <m/>
@@ -44993,7 +44995,7 @@
     <x v="1"/>
     <m/>
     <m/>
-    <m/>
+    <n v="20"/>
     <m/>
     <m/>
     <m/>
@@ -45019,6 +45021,53 @@
     <m/>
     <x v="5"/>
     <s v="Titan"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="key"/>
+    <x v="6"/>
+    <m/>
+    <s v="Alpha"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Alpha"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <s v="Alpha"/>
     <m/>
     <m/>
     <m/>
@@ -45028,102 +45077,55 @@
   </r>
   <r>
     <s v="key"/>
-    <x v="6"/>
-    <m/>
-    <s v="Alpha"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Alpha"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="6"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="1"/>
-    <m/>
-    <x v="6"/>
-    <s v="Alpha"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <s v="Unassigned"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Unassigned"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="1"/>
+    <m/>
+    <x v="7"/>
+    <s v="Unassigned"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
   </r>
   <r>
     <s v="key"/>
     <x v="1"/>
     <m/>
-    <s v="Unassigned"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Unassigned"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="1"/>
-    <m/>
-    <x v="7"/>
-    <s v="Unassigned"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="key"/>
-    <x v="1"/>
-    <m/>
     <s v="TechComm"/>
     <x v="8"/>
     <m/>
@@ -45165,7 +45167,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="1"/>
+    <x v="3"/>
   </r>
   <r>
     <s v="key"/>
@@ -45353,7 +45355,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <s v="key"/>
@@ -48971,25 +48973,42 @@
     <m/>
     <m/>
     <m/>
-    <s v="&lt;/jt:forEach&gt;"/>
-    <x v="1"/>
+    <m/>
+    <x v="4"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A49:B54" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="37" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+  <location ref="G24:H29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
+      <items count="5">
         <item x="0"/>
-        <item x="6"/>
         <item x="2"/>
-        <item x="4"/>
         <item x="3"/>
-        <item x="5"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -48999,15 +49018,6 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49036,61 +49046,80 @@
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="35"/>
+    <field x="-2"/>
   </rowFields>
   <rowItems count="5">
     <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
       <x v="2"/>
     </i>
-    <i>
+    <i i="3">
       <x v="3"/>
     </i>
-    <i>
+    <i i="4">
       <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
     </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="2">
-    <pageField fld="1" item="2" hier="-1"/>
+  <pageFields count="3">
     <pageField fld="32" item="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="1" hier="-1"/>
   </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+  <dataFields count="5">
+    <dataField name="Done" fld="45" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="46" baseField="0" baseItem="32"/>
   </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="2" format="10" series="1">
+  <chartFormats count="27">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -49099,50 +49128,218 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="11">
+    <chartFormat chart="0" format="10" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="35" count="1" selected="0">
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
             <x v="2"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="12">
+    <chartFormat chart="0" format="14">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
+        <references count="1">
           <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
+            <x v="4"/>
           </reference>
-          <reference field="35" count="1" selected="0">
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="13">
+    <chartFormat chart="4" format="22" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
+        <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="35" count="1" selected="0">
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
             <x v="4"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="14">
+    <chartFormat chart="7" format="7" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
+        <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="5"/>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -49161,7 +49358,129 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G4:H7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="47">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="6">
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item h="1" x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="37"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" hier="-1"/>
+    <pageField fld="44" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49252,9 +49571,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000001000000}" name="PivotTable7" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B12:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000001000000}" name="PivotTable3" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
+  <location ref="D5:E11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -49271,7 +49590,7 @@
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49299,43 +49618,404 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
         <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item h="1" x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item h="1" x="8"/>
+        <item h="1" x="1"/>
         <item x="3"/>
         <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="7"/>
         <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowItems count="1">
-    <i/>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="2">
+  <pageFields count="3">
+    <pageField fld="32" item="2" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="44" item="2" hier="-1"/>
+    <pageField fld="37" item="3" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="0" baseItem="514"/>
+    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
   </dataFields>
+  <chartFormats count="27">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="37" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="21" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="66" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="67">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="68">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="69">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="70">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="71">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -49348,8 +50028,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A5:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49565,8 +50245,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000003000000}" name="PivotTable5" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000003000000}" name="PivotTable5" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="J5:K11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -50079,8 +50759,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000002000000}" name="PivotTable4" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000002000000}" name="PivotTable4" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="G5:H11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -50593,465 +51273,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000001000000}" name="PivotTable3" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
-  <location ref="D5:E11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="47">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item h="1" x="8"/>
-        <item h="1" x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="10"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="2" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="37" item="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="27">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="37" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="11" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="21" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="66" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="67">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="68">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="69">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="70">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="71">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="B4:H20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -51354,7 +51577,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="D4:E11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -51622,7 +51845,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="B29:C44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -51877,7 +52100,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000001000000}" name="PivotTable2" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000001000000}" name="PivotTable2" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="F8:L11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -52192,8 +52415,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="Y4:AA8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="37" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G35:G36" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -52216,12 +52439,12 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="5">
         <item x="0"/>
-        <item x="1"/>
         <item x="2"/>
         <item x="3"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -52230,34 +52453,34 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="6">
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
+        <item x="0"/>
+        <item x="2"/>
         <item x="3"/>
-        <item h="1" x="1"/>
-        <item h="1" x="4"/>
+        <item x="1"/>
+        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52271,41 +52494,19 @@
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
+  <rowItems count="1">
+    <i/>
   </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
+  <colItems count="1">
+    <i/>
   </colItems>
-  <pageFields count="2">
-    <pageField fld="32" hier="-1"/>
+  <pageFields count="3">
+    <pageField fld="32" item="2" hier="-1"/>
     <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="1" hier="-1"/>
   </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -52320,7 +52521,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -52724,7 +52925,557 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="51" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="37" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D35:D36" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="47">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="37" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A24:B29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="47">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" item="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="45" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="46" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="15">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A49:B54" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="47">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="35"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="1" item="2" hier="-1"/>
+    <pageField fld="32" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="37" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A34:A35" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52820,8 +53571,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="51" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="37" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
   <location ref="D24:E29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -53144,9 +53895,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="51" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
-  <location ref="G24:H29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="Y4:AA8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -53169,12 +53920,12 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
       <items count="5">
         <item x="0"/>
+        <item x="1"/>
         <item x="2"/>
         <item x="3"/>
-        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -53182,806 +53933,83 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="6">
-        <item x="0"/>
-        <item x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
         <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
+        <item h="1" x="1"/>
+        <item h="1" x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
     <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
+  </colFields>
+  <colItems count="2">
     <i>
       <x/>
     </i>
     <i i="1">
       <x v="1"/>
     </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="2" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="45" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="46" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="27">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="51" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D35:D36" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="47">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="2" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="51" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A24:B29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="47">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
   </colItems>
   <pageFields count="2">
-    <pageField fld="32" item="2" hier="-1"/>
+    <pageField fld="32" hier="-1"/>
     <pageField fld="1" hier="-1"/>
   </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="45" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="46" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="15">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="51" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G35:G36" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="47">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="2" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -53996,7 +54024,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AD10:AH16" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -54159,8 +54187,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table5" displayName="Table5" ref="B20:D34" totalsRowShown="0">
-  <autoFilter ref="B20:D34" xr:uid="{00000000-0009-0000-0100-000005000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table5" displayName="Table5" ref="B15:D29" totalsRowShown="0">
+  <autoFilter ref="B15:D29" xr:uid="{00000000-0009-0000-0100-000005000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -54171,7 +54199,7 @@
       <calculatedColumnFormula>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Stories Ready" dataDxfId="1">
-      <calculatedColumnFormula>GETPIVOTDATA("Story Points",$B$12)</calculatedColumnFormula>
+      <calculatedColumnFormula>GETPIVOTDATA("Story Points",#REF!)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
@@ -56992,7 +57020,7 @@
         <v>275</v>
       </c>
       <c r="AS2" s="15" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AT2" s="5" t="s">
         <v>11</v>
@@ -57042,9 +57070,6 @@
       <c r="AO4" s="4"/>
       <c r="AP4" s="4"/>
       <c r="AQ4" s="4"/>
-      <c r="AS4" s="5" t="s">
-        <v>279</v>
-      </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
@@ -57061,6 +57086,9 @@
       </c>
       <c r="G5" s="5"/>
       <c r="J5" s="5"/>
+      <c r="N5" s="5">
+        <v>5</v>
+      </c>
       <c r="V5" s="4" t="s">
         <v>54</v>
       </c>
@@ -57088,7 +57116,7 @@
       <c r="AP5" s="4"/>
       <c r="AQ5" s="4"/>
       <c r="AS5" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.45">
@@ -57107,6 +57135,9 @@
       <c r="E6" s="19" t="s">
         <v>94</v>
       </c>
+      <c r="N6" s="5">
+        <v>10</v>
+      </c>
       <c r="V6" s="4" t="s">
         <v>57</v>
       </c>
@@ -57115,7 +57146,7 @@
         <v>170</v>
       </c>
       <c r="AG6" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AI6" s="5" t="s">
         <v>193</v>
@@ -57134,7 +57165,7 @@
       <c r="AP6" s="4"/>
       <c r="AQ6" s="4"/>
       <c r="AS6" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.45">
@@ -57149,6 +57180,9 @@
       </c>
       <c r="E7" s="19" t="s">
         <v>95</v>
+      </c>
+      <c r="N7" s="5">
+        <v>20</v>
       </c>
       <c r="V7" s="4" t="s">
         <v>52</v>
@@ -57174,7 +57208,7 @@
       <c r="AP7" s="4"/>
       <c r="AQ7" s="4"/>
       <c r="AS7" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.45">
@@ -57210,6 +57244,9 @@
       <c r="AO8" s="4"/>
       <c r="AP8" s="4"/>
       <c r="AQ8" s="4"/>
+      <c r="AS8" s="5" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
@@ -57242,6 +57279,9 @@
       <c r="AO9" s="4"/>
       <c r="AP9" s="4"/>
       <c r="AQ9" s="4"/>
+      <c r="AS9" s="5" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
@@ -57274,6 +57314,9 @@
       <c r="AO10" s="4"/>
       <c r="AP10" s="4"/>
       <c r="AQ10" s="4"/>
+      <c r="AS10" s="5" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
@@ -57396,6 +57439,9 @@
       <c r="AO14" s="4"/>
       <c r="AP14" s="4"/>
       <c r="AQ14" s="4"/>
+      <c r="AS14" s="5" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="15" spans="1:46" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
@@ -58650,7 +58696,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A81" s="5" t="s">
         <v>51</v>
       </c>
@@ -58670,7 +58716,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="82" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A82" s="5" t="s">
         <v>51</v>
       </c>
@@ -58690,7 +58736,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="83" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A83" s="5" t="s">
         <v>51</v>
       </c>
@@ -58710,7 +58756,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="84" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A84" s="5" t="s">
         <v>51</v>
       </c>
@@ -58730,7 +58776,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="85" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A85" s="5" t="s">
         <v>51</v>
       </c>
@@ -58750,7 +58796,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="86" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A86" s="5" t="s">
         <v>51</v>
       </c>
@@ -58770,7 +58816,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="87" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A87" s="5" t="s">
         <v>51</v>
       </c>
@@ -58790,7 +58836,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="88" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A88" s="5" t="s">
         <v>51</v>
       </c>
@@ -58810,7 +58856,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="89" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A89" s="5" t="s">
         <v>51</v>
       </c>
@@ -58830,7 +58876,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="90" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A90" s="5" t="s">
         <v>51</v>
       </c>
@@ -58850,7 +58896,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="91" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A91" s="5" t="s">
         <v>51</v>
       </c>
@@ -58869,7 +58915,7 @@
       <c r="AL91" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AR91" s="5" t="s">
+      <c r="AS91" s="5" t="s">
         <v>125</v>
       </c>
     </row>
@@ -59031,10 +59077,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.9296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.9296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.1328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.9296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.19921875" bestFit="1" customWidth="1"/>
@@ -61958,24 +62004,40 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B3:D34"/>
+  <dimension ref="B1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="16.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="9.46484375" customWidth="1"/>
     <col min="6" max="6" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.9296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.86328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.9296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="G1" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="G2" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="H2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B3" s="16" t="s">
         <v>162</v>
       </c>
@@ -61983,192 +62045,196 @@
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B4" s="17" t="s">
         <v>68</v>
       </c>
       <c r="C4" s="20">
         <v>840</v>
       </c>
+      <c r="G4" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="H4" t="s">
+        <v>189</v>
+      </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B5" s="17" t="s">
         <v>50</v>
       </c>
       <c r="C5" s="20">
         <v>840</v>
       </c>
+      <c r="G5" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="20">
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B9" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>198</v>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="G6" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="20">
+        <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B10" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="C10" t="s">
-        <v>279</v>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="G7" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="20">
+        <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>189</v>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>241</v>
+      </c>
+      <c r="C15" t="s">
+        <v>244</v>
+      </c>
+      <c r="D15" t="s">
+        <v>245</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B13" s="20"/>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16">
+        <v>1872.5</v>
+      </c>
+      <c r="D16">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17">
+        <v>1932.75</v>
+      </c>
+      <c r="D17">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18">
+        <v>1438</v>
+      </c>
+      <c r="D18">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19">
+        <v>1265</v>
+      </c>
+      <c r="D19">
+        <v>339.5</v>
+      </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>241</v>
-      </c>
-      <c r="C20" t="s">
-        <v>244</v>
-      </c>
-      <c r="D20" t="s">
-        <v>245</v>
+        <v>152</v>
+      </c>
+      <c r="C20">
+        <v>1099</v>
+      </c>
+      <c r="D20">
+        <v>348</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C21">
-        <v>1872.5</v>
+        <v>779</v>
       </c>
       <c r="D21">
-        <v>227.5</v>
+        <v>348</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C22">
-        <v>1932.75</v>
+        <v>701</v>
       </c>
       <c r="D22">
-        <v>291</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C23">
-        <v>1438</v>
+        <v>521</v>
       </c>
       <c r="D23">
-        <v>286</v>
+        <v>222.5</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C24">
-        <v>1265</v>
+        <v>441</v>
       </c>
       <c r="D24">
-        <v>339.5</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C25">
-        <v>1099</v>
+        <v>416</v>
       </c>
       <c r="D25">
-        <v>348</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C26">
-        <v>779</v>
+        <f t="shared" ref="C26" si="0">GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
+        <v>840</v>
       </c>
       <c r="D26">
-        <v>348</v>
+        <f>GETPIVOTDATA("Story Points",$G$1)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
-        <v>154</v>
-      </c>
-      <c r="C27">
-        <v>701</v>
-      </c>
-      <c r="D27">
-        <v>217</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
-        <v>155</v>
-      </c>
-      <c r="C28">
-        <v>521</v>
-      </c>
-      <c r="D28">
-        <v>222.5</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
-        <v>156</v>
-      </c>
-      <c r="C29">
-        <v>441</v>
-      </c>
-      <c r="D29">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B30" t="s">
-        <v>157</v>
-      </c>
-      <c r="C30">
-        <v>416</v>
-      </c>
-      <c r="D30">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B31" t="s">
-        <v>158</v>
-      </c>
-      <c r="C31">
-        <f t="shared" ref="C31" si="0">GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
-        <v>840</v>
-      </c>
-      <c r="D31">
-        <f t="shared" ref="D31" si="1">GETPIVOTDATA("Story Points",$B$12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B32" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B33" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B34" t="s">
         <v>161</v>
       </c>
     </row>
@@ -62200,7 +62266,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pivotSelection pane="bottomRight" click="1" r:id="rId1">
+      <pivotSelection pane="bottomRight" click="1" r:id="rId2">
         <pivotArea field="32" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
       </pivotSelection>
     </sheetView>
@@ -62421,7 +62487,7 @@
         <v>222</v>
       </c>
       <c r="H9" s="20">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J9" s="17" t="s">
         <v>222</v>
@@ -62473,7 +62539,7 @@
         <v>50</v>
       </c>
       <c r="H11" s="20">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J11" s="17" t="s">
         <v>50</v>
@@ -62502,7 +62568,7 @@
       </c>
       <c r="H12">
         <f>GETPIVOTDATA("Story Points", $H$5)</f>
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J12" s="17" t="s">
         <v>50</v>

--- a/blueprint-jira-better-excel/_Current-Release-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/_Current-Release-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{A81C7315-0BA5-4A13-9103-B946D5D8C975}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{2CE9D2A8-A721-4975-990B-1F44C20F1614}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8715" tabRatio="933" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="37" r:id="rId18"/>
+    <pivotCache cacheId="54" r:id="rId18"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -1776,10 +1776,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.75862068965517238</c:v>
+                  <c:v>0.80172413793103448</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24137931034482762</c:v>
+                  <c:v>0.19827586206896552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2183,6 +2183,9 @@
                   <c:v>0.7147</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0.82769999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -3737,6 +3740,9 @@
                   <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>180.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -4136,6 +4142,9 @@
                   <c:v>1086.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>1047.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -4263,6 +4272,9 @@
                   <c:v>1064.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>1026.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4392,6 +4404,9 @@
                   <c:v>885</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -4519,6 +4534,9 @@
                   <c:v>776.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>867</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -5270,10 +5288,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.75862068965517238</c:v>
+                  <c:v>0.80172413793103448</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24137931034482762</c:v>
+                  <c:v>0.19827586206896552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5885,6 +5903,9 @@
                   <c:v>0.73460000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0.79830000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -7452,6 +7473,9 @@
                   <c:v>250.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -7861,6 +7885,9 @@
                 <c:pt idx="11">
                   <c:v>200</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>937</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7987,6 +8014,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8117,6 +8147,9 @@
                 <c:pt idx="11">
                   <c:v>180</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>917</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8243,6 +8276,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9317,6 +9353,9 @@
                   <c:v>416</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>840</c:v>
                 </c:pt>
               </c:numCache>
@@ -9497,6 +9536,9 @@
                   <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>239.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
@@ -17520,7 +17562,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Sprint 11 Progress</c:v>
+              <c:v>Sprint 12 Progress</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -21598,6 +21640,9 @@
                   <c:v>0.70169999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0.76429999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
@@ -24016,6 +24061,9 @@
                   <c:v>725.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>577.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
@@ -24415,6 +24463,9 @@
                   <c:v>2432.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>2450.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1200</c:v>
                 </c:pt>
               </c:numCache>
@@ -24542,6 +24593,9 @@
                   <c:v>2284.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>2301.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -24671,6 +24725,9 @@
                   <c:v>2016.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>2237</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>360</c:v>
                 </c:pt>
               </c:numCache>
@@ -24798,6 +24855,9 @@
                   <c:v>1707</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>1873</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>900</c:v>
                 </c:pt>
               </c:numCache>
@@ -25549,10 +25609,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.75862068965517238</c:v>
+                  <c:v>0.80172413793103448</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24137931034482762</c:v>
+                  <c:v>0.19827586206896552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -43240,7 +43300,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>76%</a:t>
+            <a:t>80%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -43916,7 +43976,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>76%</a:t>
+            <a:t>80%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -44423,7 +44483,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>76%</a:t>
+            <a:t>80%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -44440,7 +44500,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43334.696172916665" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="90" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43341.362470138891" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="90" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -46093,7 +46153,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="20"/>
+    <x v="21"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -46140,7 +46200,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="20"/>
+    <x v="21"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -46187,7 +46247,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="20"/>
+    <x v="21"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -46234,7 +46294,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="20"/>
+    <x v="21"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -46281,7 +46341,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="20"/>
+    <x v="21"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -46328,7 +46388,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="20"/>
+    <x v="21"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -46375,7 +46435,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="20"/>
+    <x v="21"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -48980,8 +49040,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="37" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
-  <location ref="G24:H29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="54" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G35:G36" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -49017,7 +49077,7 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49050,34 +49110,17 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
+  <rowItems count="1">
+    <i/>
   </rowItems>
   <colItems count="1">
     <i/>
@@ -49087,264 +49130,9 @@
     <pageField fld="1" hier="-1"/>
     <pageField fld="10" item="1" hier="-1"/>
   </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="45" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="46" baseField="0" baseItem="32"/>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
   </dataFields>
-  <chartFormats count="27">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -49358,7 +49146,99 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="47">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Not Decomposed Estimate" fld="46" baseField="1" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G4:H7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField showAll="0"/>
@@ -49479,557 +49359,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="47">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Not Decomposed Estimate" fld="46" baseField="1" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000001000000}" name="PivotTable3" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
-  <location ref="D5:E11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="47">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item h="1" x="8"/>
-        <item h="1" x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="10"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="2" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="37" item="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="27">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="37" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="11" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="21" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="66" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="67">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="68">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="69">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="70">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="71">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A5:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -50245,8 +49576,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000003000000}" name="PivotTable5" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000003000000}" name="PivotTable5" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="J5:K11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -50759,8 +50090,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000002000000}" name="PivotTable4" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000002000000}" name="PivotTable4" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="G5:H11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -51273,8 +50604,465 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000001000000}" name="PivotTable3" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
+  <location ref="D5:E11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="47">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item h="1" x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item h="1" x="8"/>
+        <item h="1" x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="37" item="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="27">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="37" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="21" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="66" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="67">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="68">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="69">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="70">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="71">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="B4:H20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -51577,7 +51365,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="D4:E11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -51711,7 +51499,7 @@
   </colItems>
   <pageFields count="2">
     <pageField fld="1" hier="-1"/>
-    <pageField fld="30" item="11" hier="-1"/>
+    <pageField fld="30" item="12" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
@@ -51845,262 +51633,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="B29:C44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="47">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="47">
-        <item x="0"/>
-        <item x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow">
-      <items count="18">
-        <item h="1" m="1" x="16"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item h="1" x="1"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="12">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="10"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item h="1" x="8"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="15">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="31" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000001000000}" name="PivotTable2" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000001000000}" name="PivotTable2" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="F8:L11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -52414,114 +51947,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="37" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G35:G36" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="47">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="2" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -52924,9 +52351,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="37" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D35:D36" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="Y4:AA8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -52949,12 +52376,12 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
       <items count="5">
         <item x="0"/>
+        <item x="1"/>
         <item x="2"/>
         <item x="3"/>
-        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -52963,34 +52390,34 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="6">
-        <item x="0"/>
-        <item x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
         <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
+        <item h="1" x="1"/>
+        <item h="1" x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -53004,19 +52431,41 @@
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowItems count="1">
-    <i/>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
   </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="2" hier="-1"/>
+  <pageFields count="2">
+    <pageField fld="32" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="2" hier="-1"/>
   </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -53030,8 +52479,263 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="37" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<file path=xl/pivotTables/pivotTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="B29:C44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="47">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="47">
+        <item x="0"/>
+        <item x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow">
+      <items count="18">
+        <item h="1" m="1" x="16"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item h="1" x="1"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="12">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item h="1" x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="15">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="31" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="54" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A24:B29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -53291,288 +52995,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A49:B54" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="47">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="35"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="1" item="2" hier="-1"/>
-    <pageField fld="32" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="2" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="37" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A34:A35" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="47">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="32" item="2" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="37" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="54" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
   <location ref="D24:E29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -53895,9 +53319,192 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="Y4:AA8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A49:B54" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="47">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="35"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="1" item="2" hier="-1"/>
+    <pageField fld="32" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="54" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D35:D36" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -53920,12 +53527,12 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="5">
         <item x="0"/>
-        <item x="1"/>
         <item x="2"/>
         <item x="3"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -53934,34 +53541,34 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="6">
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
+        <item x="0"/>
+        <item x="2"/>
         <item x="3"/>
-        <item h="1" x="1"/>
-        <item h="1" x="4"/>
+        <item x="1"/>
+        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -53975,41 +53582,19 @@
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
+  <rowItems count="1">
+    <i/>
   </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
+  <colItems count="1">
+    <i/>
   </colItems>
-  <pageFields count="2">
-    <pageField fld="32" hier="-1"/>
+  <pageFields count="3">
+    <pageField fld="32" item="2" hier="-1"/>
     <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="2" hier="-1"/>
   </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -54023,8 +53608,483 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="54" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A34:A35" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="47">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" item="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="54" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+  <location ref="G24:H29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="47">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="45" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="46" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="27">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AD10:AH16" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -55559,9 +55619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B1:R20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -56024,9 +56082,21 @@
       <c r="K16" t="s">
         <v>158</v>
       </c>
+      <c r="L16">
+        <v>28.5</v>
+      </c>
+      <c r="M16">
+        <v>51.5</v>
+      </c>
+      <c r="N16">
+        <v>54</v>
+      </c>
+      <c r="O16">
+        <v>57.5</v>
+      </c>
       <c r="R16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>191.5</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.45">
@@ -56122,19 +56192,19 @@
       </c>
       <c r="L20">
         <f>SUBTOTAL(109,Table1[Alpha])</f>
-        <v>184</v>
+        <v>212.5</v>
       </c>
       <c r="M20">
         <f>SUBTOTAL(109,Table1[ngStars])</f>
-        <v>424.5</v>
+        <v>476</v>
       </c>
       <c r="N20">
         <f>SUBTOTAL(109,Table1[NW])</f>
-        <v>508.5</v>
+        <v>562.5</v>
       </c>
       <c r="O20">
         <f>SUBTOTAL(109,Table1[SoftTeco])</f>
-        <v>686.5</v>
+        <v>744</v>
       </c>
       <c r="P20">
         <f>SUBTOTAL(109,Table1[Titan])</f>
@@ -56146,7 +56216,7 @@
       </c>
       <c r="R20">
         <f>SUBTOTAL(109,Table1[Total])</f>
-        <v>1858.5</v>
+        <v>2050</v>
       </c>
     </row>
   </sheetData>
@@ -56194,7 +56264,7 @@
       </c>
       <c r="B1" t="str">
         <f>$E$2</f>
-        <v>Quasar11</v>
+        <v>Quasar12</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>9</v>
@@ -56208,7 +56278,7 @@
         <v>164</v>
       </c>
       <c r="E2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -56290,7 +56360,7 @@
       </c>
       <c r="E15" t="str">
         <f>"Sprint " &amp; SUBSTITUTE($B$1,"Quasar", "") &amp; " Progress"</f>
-        <v>Sprint 11 Progress</v>
+        <v>Sprint 12 Progress</v>
       </c>
     </row>
   </sheetData>
@@ -57664,7 +57734,7 @@
       </c>
       <c r="AE30" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Quasar11</v>
+        <v>Quasar12</v>
       </c>
       <c r="AI30" s="5" t="s">
         <v>192</v>
@@ -57685,7 +57755,7 @@
       </c>
       <c r="AE31" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Quasar11</v>
+        <v>Quasar12</v>
       </c>
       <c r="AI31" s="5" t="s">
         <v>222</v>
@@ -57706,7 +57776,7 @@
       </c>
       <c r="AE32" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Quasar11</v>
+        <v>Quasar12</v>
       </c>
       <c r="AI32" s="5" t="s">
         <v>193</v>
@@ -57727,7 +57797,7 @@
       </c>
       <c r="AE33" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Quasar11</v>
+        <v>Quasar12</v>
       </c>
       <c r="AI33" s="5" t="s">
         <v>194</v>
@@ -57748,7 +57818,7 @@
       </c>
       <c r="AE34" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Quasar11</v>
+        <v>Quasar12</v>
       </c>
       <c r="AI34" s="5" t="s">
         <v>196</v>
@@ -57769,7 +57839,7 @@
       </c>
       <c r="AE35" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Quasar11</v>
+        <v>Quasar12</v>
       </c>
       <c r="AI35" s="5" t="s">
         <v>195</v>
@@ -57787,7 +57857,7 @@
       </c>
       <c r="AE36" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Quasar11</v>
+        <v>Quasar12</v>
       </c>
       <c r="AI36" s="5" t="s">
         <v>197</v>
@@ -59080,9 +59150,9 @@
     <col min="1" max="1" width="22.9296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.9296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.9296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.19921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="9.86328125" customWidth="1"/>
@@ -59146,7 +59216,7 @@
       </c>
       <c r="B2" s="52">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$W$3:$W$12)/NETWORKDAYS($D$3,$E$3,$W$3:$W$12),0%)</f>
-        <v>0.75862068965517238</v>
+        <v>0.80172413793103448</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>130</v>
@@ -59215,7 +59285,7 @@
       </c>
       <c r="B3" s="32">
         <f ca="1">MAX(100%,B2)-B2</f>
-        <v>0.24137931034482762</v>
+        <v>0.19827586206896552</v>
       </c>
       <c r="D3" s="28">
         <v>43201</v>
@@ -59421,7 +59491,7 @@
       </c>
       <c r="E6" s="27">
         <f ca="1">TODAY()</f>
-        <v>43334</v>
+        <v>43341</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>150</v>
@@ -59976,40 +60046,34 @@
         <v>0.7931034482758621</v>
       </c>
       <c r="M14" s="43">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$Y$4)/GETPIVOTDATA("Epic Total Estimate",$Y$4)</f>
-        <v>0.75</v>
+        <v>0.76429999999999998</v>
       </c>
       <c r="N14" s="43">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Diagram Editor")/GETPIVOTDATA("Epic Total Estimate",$Y$4,"ST:Components","Diagram Editor")</f>
-        <v>0.25</v>
+        <v>0.82769999999999999</v>
       </c>
       <c r="O14" s="43">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Artifact List")/GETPIVOTDATA("Epic Total Estimate",$Y$4,"ST:Components","Artifact List")</f>
-        <v>0.25</v>
+        <v>0.79830000000000001</v>
       </c>
       <c r="P14" s="46">
         <f t="shared" si="0"/>
         <v>492.4137931034482</v>
       </c>
       <c r="Q14" s="47">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$Y$4)</f>
-        <v>300</v>
+        <v>577.5</v>
       </c>
       <c r="R14" s="50">
         <f t="shared" si="3"/>
         <v>289.65517241379308</v>
       </c>
       <c r="S14" s="47">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Diagram Editor")</f>
-        <v>150</v>
+        <v>180.5</v>
       </c>
       <c r="T14" s="46">
         <f t="shared" si="1"/>
         <v>144.82758620689654</v>
       </c>
       <c r="U14" s="47">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Artifact List")</f>
-        <v>150</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
@@ -60043,24 +60107,42 @@
         <f>SUM($J$4:J15)/SUM($J$4:$J$17)</f>
         <v>0.87068965517241381</v>
       </c>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
+      <c r="M15" s="43">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$Y$4)/GETPIVOTDATA("Epic Total Estimate",$Y$4)</f>
+        <v>0.75</v>
+      </c>
+      <c r="N15" s="43">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Diagram Editor")/GETPIVOTDATA("Epic Total Estimate",$Y$4,"ST:Components","Diagram Editor")</f>
+        <v>0.25</v>
+      </c>
+      <c r="O15" s="43">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Artifact List")/GETPIVOTDATA("Epic Total Estimate",$Y$4,"ST:Components","Artifact List")</f>
+        <v>0.25</v>
+      </c>
       <c r="P15" s="46">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="P15" si="7">2380*(100%-K15)</f>
         <v>307.75862068965512</v>
       </c>
-      <c r="Q15" s="47"/>
+      <c r="Q15" s="47">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$Y$4)</f>
+        <v>300</v>
+      </c>
       <c r="R15" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="R15" si="8">1400*(100%-K15)</f>
         <v>181.03448275862067</v>
       </c>
-      <c r="S15" s="47"/>
+      <c r="S15" s="47">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Diagram Editor")</f>
+        <v>150</v>
+      </c>
       <c r="T15" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="T15" si="9">700*(100%-L15)</f>
         <v>90.517241379310335</v>
       </c>
-      <c r="U15" s="47"/>
+      <c r="U15" s="47">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Artifact List")</f>
+        <v>150</v>
+      </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="G16" s="23" t="s">
@@ -60160,7 +60242,7 @@
       </c>
       <c r="B18" s="52">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$W$3:$W$12)/NETWORKDAYS($D$3,$E$3,$W$3:$W$12),0%)</f>
-        <v>0.75862068965517238</v>
+        <v>0.80172413793103448</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.45">
@@ -60169,7 +60251,7 @@
       </c>
       <c r="B19" s="32">
         <f ca="1">MAX(100%,B18)-B18</f>
-        <v>0.24137931034482762</v>
+        <v>0.19827586206896552</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.45">
@@ -60567,7 +60649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AH18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -61785,66 +61867,58 @@
         <v>43340</v>
       </c>
       <c r="D14" s="65">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AD$8, "Type", "Epic")</f>
-        <v>1200</v>
+        <v>2450.5</v>
       </c>
       <c r="E14" s="66">
         <v>2380</v>
       </c>
       <c r="F14" s="46">
-        <f>GETPIVOTDATA("Stories Estimate", $AD$8, "Type", "Epic")</f>
-        <v>0</v>
+        <v>2301.5</v>
       </c>
       <c r="G14" s="46">
-        <f>GETPIVOTDATA("Epic Decomposed", $AD$8, "Type", "Epic")</f>
-        <v>360</v>
+        <v>2237</v>
       </c>
       <c r="H14" s="46">
         <f t="shared" ref="H14" si="28">D14-I14</f>
-        <v>900</v>
+        <v>1873</v>
       </c>
       <c r="I14" s="46">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AD$8, "Type", "Epic")</f>
-        <v>300</v>
+        <v>577.5</v>
       </c>
       <c r="J14" s="36">
         <f t="shared" ref="J14" si="29" xml:space="preserve"> G14/D14</f>
-        <v>0.3</v>
+        <v>0.9128749234850031</v>
       </c>
       <c r="K14" s="36">
         <f t="shared" ref="K14" si="30" xml:space="preserve"> H14/D14</f>
-        <v>0.75</v>
+        <v>0.76433380942664764</v>
       </c>
       <c r="L14" s="67">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>200</v>
+        <v>1047.5</v>
       </c>
       <c r="M14" s="66">
         <v>1400</v>
       </c>
       <c r="N14" s="46">
-        <f>GETPIVOTDATA("Stories Estimate", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>0</v>
+        <v>1026.5</v>
       </c>
       <c r="O14" s="46">
-        <f>GETPIVOTDATA("Epic Decomposed", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="P14" s="46">
         <f t="shared" ref="P14" si="31">L14-Q14</f>
-        <v>50</v>
+        <v>867</v>
       </c>
       <c r="Q14" s="46">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>150</v>
+        <v>180.5</v>
       </c>
       <c r="R14" s="36">
         <f t="shared" ref="R14" si="32" xml:space="preserve"> O14/L14</f>
-        <v>0.9</v>
+        <v>0.95465393794749398</v>
       </c>
       <c r="S14" s="36">
         <f t="shared" ref="S14" si="33" xml:space="preserve"> P14/L14</f>
-        <v>0.25</v>
+        <v>0.82768496420047732</v>
       </c>
       <c r="T14" s="65">
         <f>GETPIVOTDATA("Epic Total Estimate", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
@@ -61901,14 +61975,94 @@
       <c r="C15" s="68">
         <v>43354</v>
       </c>
+      <c r="D15" s="65">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AD$8, "Type", "Epic")</f>
+        <v>1200</v>
+      </c>
       <c r="E15" s="66">
         <v>2380</v>
       </c>
+      <c r="F15" s="46">
+        <f>GETPIVOTDATA("Stories Estimate", $AD$8, "Type", "Epic")</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="46">
+        <f>GETPIVOTDATA("Epic Decomposed", $AD$8, "Type", "Epic")</f>
+        <v>360</v>
+      </c>
+      <c r="H15" s="46">
+        <f t="shared" ref="H15" si="37">D15-I15</f>
+        <v>900</v>
+      </c>
+      <c r="I15" s="46">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AD$8, "Type", "Epic")</f>
+        <v>300</v>
+      </c>
+      <c r="J15" s="36">
+        <f t="shared" ref="J15" si="38" xml:space="preserve"> G15/D15</f>
+        <v>0.3</v>
+      </c>
+      <c r="K15" s="36">
+        <f t="shared" ref="K15" si="39" xml:space="preserve"> H15/D15</f>
+        <v>0.75</v>
+      </c>
+      <c r="L15" s="67">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>200</v>
+      </c>
       <c r="M15" s="66">
         <v>1400</v>
       </c>
+      <c r="N15" s="46">
+        <f>GETPIVOTDATA("Stories Estimate", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="46">
+        <f>GETPIVOTDATA("Epic Decomposed", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>180</v>
+      </c>
+      <c r="P15" s="46">
+        <f t="shared" ref="P15" si="40">L15-Q15</f>
+        <v>50</v>
+      </c>
+      <c r="Q15" s="46">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>150</v>
+      </c>
+      <c r="R15" s="36">
+        <f t="shared" ref="R15" si="41" xml:space="preserve"> O15/L15</f>
+        <v>0.9</v>
+      </c>
+      <c r="S15" s="36">
+        <f t="shared" ref="S15" si="42" xml:space="preserve"> P15/L15</f>
+        <v>0.25</v>
+      </c>
+      <c r="T15" s="65">
+        <v>937</v>
+      </c>
       <c r="U15" s="66">
         <v>700</v>
+      </c>
+      <c r="V15" s="46">
+        <v>922</v>
+      </c>
+      <c r="W15" s="46">
+        <v>917</v>
+      </c>
+      <c r="X15" s="46">
+        <f t="shared" ref="X15" si="43">T15-Y15</f>
+        <v>748</v>
+      </c>
+      <c r="Y15" s="46">
+        <v>189</v>
+      </c>
+      <c r="Z15" s="36">
+        <f t="shared" ref="Z15" si="44" xml:space="preserve"> W15/T15</f>
+        <v>0.97865528281750269</v>
+      </c>
+      <c r="AA15" s="36">
+        <f t="shared" ref="AA15" si="45">X15/T15</f>
+        <v>0.79829242262540023</v>
       </c>
       <c r="AD15" s="17" t="s">
         <v>237</v>
@@ -62215,17 +62369,23 @@
         <v>158</v>
       </c>
       <c r="C26">
-        <f t="shared" ref="C26" si="0">GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
-        <v>840</v>
+        <v>770</v>
       </c>
       <c r="D26">
-        <f>GETPIVOTDATA("Story Points",$G$1)</f>
-        <v>15</v>
+        <v>239.5</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>159</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C26:C27" si="0">GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
+        <v>840</v>
+      </c>
+      <c r="D27">
+        <f>GETPIVOTDATA("Story Points",$G$1)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.45">
@@ -62266,7 +62426,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pivotSelection pane="bottomRight" click="1" r:id="rId2">
+      <pivotSelection pane="bottomRight" click="1" r:id="rId1">
         <pivotArea field="32" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
       </pivotSelection>
     </sheetView>

--- a/blueprint-jira-better-excel/_Current-Release-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/_Current-Release-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{2CE9D2A8-A721-4975-990B-1F44C20F1614}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{654CE6D7-E04B-4A8B-819D-5C6B28BBBDF7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8715" tabRatio="933" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="54" r:id="rId18"/>
+    <pivotCache cacheId="13" r:id="rId18"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -1776,10 +1776,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.80172413793103448</c:v>
+                  <c:v>0.86206896551724133</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19827586206896552</c:v>
+                  <c:v>0.13793103448275867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5288,10 +5288,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.80172413793103448</c:v>
+                  <c:v>0.86206896551724133</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19827586206896552</c:v>
+                  <c:v>0.13793103448275867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7883,10 +7883,10 @@
                   <c:v>944</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>937</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>937</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8013,10 +8013,10 @@
                   <c:v>874</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>922</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8145,10 +8145,10 @@
                   <c:v>822.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>917</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8275,10 +8275,10 @@
                   <c:v>693.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>748</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25609,10 +25609,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.80172413793103448</c:v>
+                  <c:v>0.86206896551724133</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19827586206896552</c:v>
+                  <c:v>0.13793103448275867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -43300,7 +43300,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>80%</a:t>
+            <a:t>86%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -43976,7 +43976,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>80%</a:t>
+            <a:t>86%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -44483,7 +44483,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>80%</a:t>
+            <a:t>86%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -44500,7 +44500,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43341.362470138891" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="90" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43353.352372569447" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="90" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -49040,8 +49040,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="54" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G35:G36" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="13" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D35:D36" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -49128,7 +49128,7 @@
   <pageFields count="3">
     <pageField fld="32" item="2" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="1" hier="-1"/>
+    <pageField fld="10" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
@@ -49146,7 +49146,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49238,7 +49238,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G4:H7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField showAll="0"/>
@@ -49360,7 +49360,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A5:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49577,7 +49577,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000003000000}" name="PivotTable5" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000003000000}" name="PivotTable5" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="J5:K11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -50091,7 +50091,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000002000000}" name="PivotTable4" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000002000000}" name="PivotTable4" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="G5:H11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -50605,7 +50605,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000001000000}" name="PivotTable3" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000001000000}" name="PivotTable3" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
   <location ref="D5:E11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -51062,7 +51062,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="B4:H20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -51365,7 +51365,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="D4:E11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -51633,7 +51633,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000001000000}" name="PivotTable2" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000001000000}" name="PivotTable2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="F8:L11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -51948,7 +51948,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -52352,8 +52352,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="Y4:AA8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="13" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G35:G36" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -52376,12 +52376,12 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="5">
         <item x="0"/>
-        <item x="1"/>
         <item x="2"/>
         <item x="3"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -52390,34 +52390,34 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="6">
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
+        <item x="0"/>
+        <item x="2"/>
         <item x="3"/>
-        <item h="1" x="1"/>
-        <item h="1" x="4"/>
+        <item x="1"/>
+        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52431,41 +52431,19 @@
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
+  <rowItems count="1">
+    <i/>
   </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
+  <colItems count="1">
+    <i/>
   </colItems>
-  <pageFields count="2">
-    <pageField fld="32" hier="-1"/>
+  <pageFields count="3">
+    <pageField fld="32" item="2" hier="-1"/>
     <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="1" hier="-1"/>
   </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -52480,7 +52458,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="B29:C44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -52735,7 +52713,232 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="54" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="Y4:AA8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="47">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="6">
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item h="1" x="1"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="13" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A34:A35" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="47">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" item="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="13" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A24:B29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52995,718 +53198,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="54" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
-  <location ref="D24:E29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="47">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="2" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="45" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="46" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="21">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A49:B54" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="47">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="35"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="1" item="2" hier="-1"/>
-    <pageField fld="32" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="2" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="54" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D35:D36" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="47">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="2" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="54" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A34:A35" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="47">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="32" item="2" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="54" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="13" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="G24:H29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -54083,8 +53576,515 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="13" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+  <location ref="D24:E29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="47">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="45" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="46" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="21">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A49:B54" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="47">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="35"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="1" item="2" hier="-1"/>
+    <pageField fld="32" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AD10:AH16" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -59147,10 +59147,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.9296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.9296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.1328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.19921875" bestFit="1" customWidth="1"/>
@@ -59216,7 +59216,7 @@
       </c>
       <c r="B2" s="52">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$W$3:$W$12)/NETWORKDAYS($D$3,$E$3,$W$3:$W$12),0%)</f>
-        <v>0.80172413793103448</v>
+        <v>0.86206896551724133</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>130</v>
@@ -59285,7 +59285,7 @@
       </c>
       <c r="B3" s="32">
         <f ca="1">MAX(100%,B2)-B2</f>
-        <v>0.19827586206896552</v>
+        <v>0.13793103448275867</v>
       </c>
       <c r="D3" s="28">
         <v>43201</v>
@@ -59491,7 +59491,7 @@
       </c>
       <c r="E6" s="27">
         <f ca="1">TODAY()</f>
-        <v>43341</v>
+        <v>43353</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>150</v>
@@ -60242,7 +60242,7 @@
       </c>
       <c r="B18" s="52">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$W$3:$W$12)/NETWORKDAYS($D$3,$E$3,$W$3:$W$12),0%)</f>
-        <v>0.80172413793103448</v>
+        <v>0.86206896551724133</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.45">
@@ -60251,7 +60251,7 @@
       </c>
       <c r="B19" s="32">
         <f ca="1">MAX(100%,B18)-B18</f>
-        <v>0.19827586206896552</v>
+        <v>0.13793103448275867</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.45">
@@ -61921,35 +61921,31 @@
         <v>0.82768496420047732</v>
       </c>
       <c r="T14" s="65">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
-        <v>200</v>
+        <v>937</v>
       </c>
       <c r="U14" s="66">
         <v>700</v>
       </c>
       <c r="V14" s="46">
-        <f>GETPIVOTDATA("Stories Estimate", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
-        <v>0</v>
+        <v>922</v>
       </c>
       <c r="W14" s="46">
-        <f>GETPIVOTDATA("Epic Decomposed", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
-        <v>180</v>
+        <v>917</v>
       </c>
       <c r="X14" s="46">
         <f t="shared" ref="X14" si="34">T14-Y14</f>
-        <v>50</v>
+        <v>748</v>
       </c>
       <c r="Y14" s="46">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="Z14" s="36">
         <f t="shared" ref="Z14" si="35" xml:space="preserve"> W14/T14</f>
-        <v>0.9</v>
+        <v>0.97865528281750269</v>
       </c>
       <c r="AA14" s="36">
         <f t="shared" ref="AA14" si="36">X14/T14</f>
-        <v>0.25</v>
+        <v>0.79829242262540023</v>
       </c>
       <c r="AD14" s="17" t="s">
         <v>225</v>
@@ -62038,31 +62034,35 @@
         <v>0.25</v>
       </c>
       <c r="T15" s="65">
-        <v>937</v>
+        <f>GETPIVOTDATA("Epic Total Estimate", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
+        <v>200</v>
       </c>
       <c r="U15" s="66">
         <v>700</v>
       </c>
       <c r="V15" s="46">
-        <v>922</v>
+        <f>GETPIVOTDATA("Stories Estimate", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
+        <v>0</v>
       </c>
       <c r="W15" s="46">
-        <v>917</v>
+        <f>GETPIVOTDATA("Epic Decomposed", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
+        <v>180</v>
       </c>
       <c r="X15" s="46">
         <f t="shared" ref="X15" si="43">T15-Y15</f>
-        <v>748</v>
+        <v>50</v>
       </c>
       <c r="Y15" s="46">
-        <v>189</v>
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
+        <v>150</v>
       </c>
       <c r="Z15" s="36">
         <f t="shared" ref="Z15" si="44" xml:space="preserve"> W15/T15</f>
-        <v>0.97865528281750269</v>
+        <v>0.9</v>
       </c>
       <c r="AA15" s="36">
         <f t="shared" ref="AA15" si="45">X15/T15</f>
-        <v>0.79829242262540023</v>
+        <v>0.25</v>
       </c>
       <c r="AD15" s="17" t="s">
         <v>237</v>
@@ -62380,7 +62380,7 @@
         <v>159</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C26:C27" si="0">GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
+        <f t="shared" ref="C27" si="0">GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
         <v>840</v>
       </c>
       <c r="D27">

--- a/blueprint-jira-better-excel/_Current-Release-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/_Current-Release-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{654CE6D7-E04B-4A8B-819D-5C6B28BBBDF7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{C4C0E6F4-2164-4098-8A67-5D29CD5D1718}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8715" tabRatio="933" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -675,9 +675,6 @@
     <t>Sprint Label</t>
   </si>
   <si>
-    <t>$[SUBSTITUTE(AE2, "uasar", "")]</t>
-  </si>
-  <si>
     <t>${bpHelper.getReadyEstimate(issue)}</t>
   </si>
   <si>
@@ -886,6 +883,9 @@
   </si>
   <si>
     <t>${bpHelper.isInBacklogHealth(issue)}&lt;/jt:forEach&gt;</t>
+  </si>
+  <si>
+    <t>$[SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE2, "ocket", ""), "uasar", ""), "egasus", "")]</t>
   </si>
 </sst>
 </file>
@@ -44500,7 +44500,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43353.352372569447" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="90" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43353.627419328703" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="90" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -44684,8 +44684,8 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Sprint Label" numFmtId="0">
-      <sharedItems containsBlank="1" count="17">
-        <s v="$[SUBSTITUTE(AE2, &quot;uasar&quot;, &quot;&quot;)]"/>
+      <sharedItems containsBlank="1" count="19">
+        <s v="$[SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE3, &quot;ocket&quot;, &quot;&quot;), &quot;uasar&quot;, &quot;&quot;), &quot;egasus&quot;, &quot;&quot;)]"/>
         <m/>
         <s v="Q1"/>
         <s v="Q2"/>
@@ -44701,6 +44701,8 @@
         <s v="Q12"/>
         <s v="Q13"/>
         <s v="Q14"/>
+        <s v="$[=SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE3, &quot;ocket&quot;, &quot;&quot;), &quot;uasar&quot;, &quot;&quot;), &quot;egasus&quot;, &quot;&quot;)]" u="1"/>
+        <s v="$[SUBSTITUTE(AE2, &quot;uasar&quot;, &quot;&quot;)]" u="1"/>
         <s v="$[= SUBSTITUTE('Last Sprint', &quot;uasar&quot;, &quot;&quot;)]" u="1"/>
       </sharedItems>
     </cacheField>
@@ -49040,39 +49042,31 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="13" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D35:D36" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A49:B54" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
+        <item x="0"/>
+        <item x="6"/>
         <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
+        <item x="4"/>
         <item x="3"/>
+        <item x="5"/>
         <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49106,33 +49100,118 @@
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowItems count="1">
-    <i/>
+  <rowFields count="1">
+    <field x="35"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="3">
+  <pageFields count="2">
+    <pageField fld="1" item="2" hier="-1"/>
     <pageField fld="32" item="2" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
   </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -49360,6 +49439,463 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000001000000}" name="PivotTable3" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
+  <location ref="D5:E11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="47">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item h="1" x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item h="1" x="8"/>
+        <item h="1" x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="37" item="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="27">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="37" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="21" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="66" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="67">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="68">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="69">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="70">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="71">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A5:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="47">
@@ -49576,7 +50112,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000003000000}" name="PivotTable5" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="J5:K11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="47">
@@ -50090,7 +50626,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000002000000}" name="PivotTable4" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="G5:H11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="47">
@@ -50604,463 +51140,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000001000000}" name="PivotTable3" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
-  <location ref="D5:E11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="47">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item h="1" x="8"/>
-        <item h="1" x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="10"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="2" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="37" item="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="27">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="37" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="11" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="21" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="66" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="67">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="68">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="69">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="70">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="71">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="B4:H20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
@@ -51158,9 +51237,9 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="18">
-        <item h="1" m="1" x="16"/>
-        <item h="1" x="0"/>
+      <items count="20">
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="17"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
@@ -51176,6 +51255,8 @@
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -52352,8 +52433,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="13" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G35:G36" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="13" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+  <location ref="D24:E29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -52389,7 +52470,7 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52422,17 +52503,34 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowItems count="1">
-    <i/>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
   </rowItems>
   <colItems count="1">
     <i/>
@@ -52440,11 +52538,212 @@
   <pageFields count="3">
     <pageField fld="32" item="2" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="1" hier="-1"/>
+    <pageField fld="10" item="2" hier="-1"/>
   </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  <dataFields count="5">
+    <dataField name="Done" fld="45" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="46" baseField="0" baseItem="32"/>
   </dataFields>
+  <chartFormats count="21">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -52554,8 +52853,8 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisRow">
-      <items count="18">
-        <item h="1" m="1" x="16"/>
+      <items count="20">
+        <item h="1" m="1" x="18"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
@@ -52571,6 +52870,8 @@
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="16"/>
         <item h="1" x="0"/>
         <item t="default"/>
       </items>
@@ -52713,8 +53014,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="Y4:AA8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="13" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A34:A35" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -52737,48 +53038,40 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="5">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
         <item x="0"/>
-        <item x="1"/>
         <item x="2"/>
         <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item x="3"/>
-        <item h="1" x="1"/>
-        <item h="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52792,41 +53085,18 @@
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
+  <rowItems count="1">
+    <i/>
   </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
+  <colItems count="1">
+    <i/>
   </colItems>
   <pageFields count="2">
-    <pageField fld="32" hier="-1"/>
+    <pageField fld="32" item="2" hier="-1"/>
     <pageField fld="1" hier="-1"/>
   </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -52841,8 +53111,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="13" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A34:A35" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="13" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D35:D36" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -52865,7 +53135,15 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52918,9 +53196,10 @@
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="2">
+  <pageFields count="3">
     <pageField fld="32" item="2" hier="-1"/>
     <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
@@ -53199,6 +53478,240 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="13" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G35:G36" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="47">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="Y4:AA8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="47">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="6">
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item h="1" x="1"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="13" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="G24:H29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="47">
@@ -53559,513 +54072,6 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="13" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
-  <location ref="D24:E29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="47">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="2" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="45" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="46" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="21">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A49:B54" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="47">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="35"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="1" item="2" hier="-1"/>
-    <pageField fld="32" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="2" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="5"/>
           </reference>
         </references>
       </pivotArea>
@@ -55657,7 +55663,7 @@
         <v>208</v>
       </c>
       <c r="K4" s="44" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.45">
@@ -55683,7 +55689,7 @@
         <v>50</v>
       </c>
       <c r="K5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L5" t="s">
         <v>58</v>
@@ -55704,7 +55710,7 @@
         <v>53</v>
       </c>
       <c r="R5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.45">
@@ -56188,7 +56194,7 @@
         <v>420</v>
       </c>
       <c r="K20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L20">
         <f>SUBTOTAL(109,Table1[Alpha])</f>
@@ -56315,7 +56321,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D8" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E8" s="20">
         <v>1</v>
@@ -56619,7 +56625,7 @@
         <v>141</v>
       </c>
       <c r="C24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.45">
@@ -56923,7 +56929,7 @@
         <v>190</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>44</v>
@@ -56935,13 +56941,13 @@
         <v>120</v>
       </c>
       <c r="AN1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>128</v>
@@ -56950,7 +56956,7 @@
         <v>48</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AT1" s="3" t="s">
         <v>163</v>
@@ -57051,7 +57057,7 @@
         <v>165</v>
       </c>
       <c r="AF2" s="15" t="s">
-        <v>210</v>
+        <v>280</v>
       </c>
       <c r="AG2" s="15" t="s">
         <v>142</v>
@@ -57063,7 +57069,7 @@
         <v>191</v>
       </c>
       <c r="AJ2" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AK2" s="14" t="s">
         <v>49</v>
@@ -57075,22 +57081,22 @@
         <v>121</v>
       </c>
       <c r="AN2" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO2" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="AO2" s="11" t="s">
+      <c r="AP2" s="11" t="s">
         <v>212</v>
-      </c>
-      <c r="AP2" s="11" t="s">
-        <v>213</v>
       </c>
       <c r="AQ2" s="15" t="s">
         <v>129</v>
       </c>
       <c r="AR2" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AS2" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AT2" s="5" t="s">
         <v>11</v>
@@ -57128,7 +57134,7 @@
         <v>192</v>
       </c>
       <c r="AJ4" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AL4" s="4" t="s">
         <v>56</v>
@@ -57170,10 +57176,10 @@
         <v>144</v>
       </c>
       <c r="AI5" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AJ5" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AL5" s="4" t="s">
         <v>54</v>
@@ -57186,7 +57192,7 @@
       <c r="AP5" s="4"/>
       <c r="AQ5" s="4"/>
       <c r="AS5" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.45">
@@ -57216,13 +57222,13 @@
         <v>170</v>
       </c>
       <c r="AG6" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AI6" s="5" t="s">
         <v>193</v>
       </c>
       <c r="AJ6" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL6" s="4" t="s">
         <v>57</v>
@@ -57235,7 +57241,7 @@
       <c r="AP6" s="4"/>
       <c r="AQ6" s="4"/>
       <c r="AS6" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.45">
@@ -57265,7 +57271,7 @@
         <v>194</v>
       </c>
       <c r="AJ7" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AL7" s="4" t="s">
         <v>52</v>
@@ -57278,7 +57284,7 @@
       <c r="AP7" s="4"/>
       <c r="AQ7" s="4"/>
       <c r="AS7" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.45">
@@ -57315,7 +57321,7 @@
       <c r="AP8" s="4"/>
       <c r="AQ8" s="4"/>
       <c r="AS8" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.45">
@@ -57350,7 +57356,7 @@
       <c r="AP9" s="4"/>
       <c r="AQ9" s="4"/>
       <c r="AS9" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.45">
@@ -57385,7 +57391,7 @@
       <c r="AP10" s="4"/>
       <c r="AQ10" s="4"/>
       <c r="AS10" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.45">
@@ -57510,7 +57516,7 @@
       <c r="AP14" s="4"/>
       <c r="AQ14" s="4"/>
       <c r="AS14" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:46" ht="26.25" x14ac:dyDescent="0.45">
@@ -57758,7 +57764,7 @@
         <v>Quasar12</v>
       </c>
       <c r="AI31" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:35" ht="39.4" x14ac:dyDescent="0.45">
@@ -58077,7 +58083,7 @@
         <v>68</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P50" s="5">
         <v>200</v>
@@ -58109,7 +58115,7 @@
         <v>68</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P51" s="5">
         <v>200</v>
@@ -58175,7 +58181,7 @@
         <v>144</v>
       </c>
       <c r="AI53" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AL53" s="4" t="s">
         <v>58</v>
@@ -58294,7 +58300,7 @@
         <v>144</v>
       </c>
       <c r="AI58" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AL58" s="4" t="s">
         <v>56</v>
@@ -58419,7 +58425,7 @@
         <v>144</v>
       </c>
       <c r="AI63" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AL63" s="4" t="s">
         <v>54</v>
@@ -58544,7 +58550,7 @@
         <v>144</v>
       </c>
       <c r="AI68" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AL68" s="4" t="s">
         <v>57</v>
@@ -58644,7 +58650,7 @@
         <v>144</v>
       </c>
       <c r="AJ73" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.45">
@@ -58661,7 +58667,7 @@
         <v>144</v>
       </c>
       <c r="AJ74" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="75" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.45">
@@ -58680,7 +58686,7 @@
         <v>144</v>
       </c>
       <c r="AJ75" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.45">
@@ -58697,7 +58703,7 @@
         <v>144</v>
       </c>
       <c r="AJ76" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="77" spans="1:38" x14ac:dyDescent="0.45">
@@ -59005,72 +59011,72 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="51" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -59147,10 +59153,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.9296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.1328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.19921875" bestFit="1" customWidth="1"/>
@@ -59171,36 +59177,36 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A1" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1" t="s">
         <v>200</v>
       </c>
       <c r="K1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M1" t="s">
         <v>141</v>
       </c>
       <c r="N1" t="s">
+        <v>228</v>
+      </c>
+      <c r="O1" t="s">
         <v>229</v>
-      </c>
-      <c r="O1" t="s">
-        <v>230</v>
       </c>
       <c r="P1" s="72" t="s">
         <v>141</v>
       </c>
       <c r="Q1" s="72"/>
       <c r="R1" s="72" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S1" s="72"/>
       <c r="T1" s="72" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U1" s="72"/>
       <c r="Y1" s="16" t="s">
@@ -59234,43 +59240,43 @@
         <v>131</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K2" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="M2" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="N2" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="M2" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>228</v>
-      </c>
       <c r="O2" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P2" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q2" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="Q2" s="22" t="s">
-        <v>247</v>
-      </c>
       <c r="R2" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="S2" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="S2" s="22" t="s">
-        <v>247</v>
-      </c>
       <c r="T2" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="U2" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="U2" s="22" t="s">
-        <v>247</v>
-      </c>
       <c r="W2" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Y2" s="16" t="s">
         <v>9</v>
@@ -59408,10 +59414,10 @@
         <v>141</v>
       </c>
       <c r="D5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G5" s="23" t="s">
         <v>149</v>
@@ -59470,7 +59476,7 @@
         <v>43294</v>
       </c>
       <c r="Y5" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Z5" s="20">
         <v>800</v>
@@ -59487,7 +59493,7 @@
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E6" s="27">
         <f ca="1">TODAY()</f>
@@ -59550,7 +59556,7 @@
         <v>43297</v>
       </c>
       <c r="Y6" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Z6" s="20">
         <v>200</v>
@@ -59626,7 +59632,7 @@
         <v>43298</v>
       </c>
       <c r="Y7" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Z7" s="20">
         <v>200</v>
@@ -59706,7 +59712,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="44" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -59958,7 +59964,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="44" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G13" s="23" t="s">
         <v>157</v>
@@ -60189,10 +60195,10 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A17" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="B17" s="44" t="s">
         <v>256</v>
-      </c>
-      <c r="B17" s="44" t="s">
-        <v>257</v>
       </c>
       <c r="G17" s="25" t="s">
         <v>161</v>
@@ -60300,41 +60306,41 @@
         <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G22" s="16" t="s">
         <v>20</v>
       </c>
       <c r="H22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A24" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A25" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B25" s="20">
         <v>900</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E25" s="20">
         <v>50</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H25" s="20">
         <v>50</v>
@@ -60342,19 +60348,19 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A26" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B26" s="20">
         <v>80</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E26" s="20">
         <v>40</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H26" s="20">
         <v>40</v>
@@ -60382,19 +60388,19 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A28" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B28" s="20">
         <v>60</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E28" s="20">
         <v>30</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H28" s="20">
         <v>30</v>
@@ -60402,19 +60408,19 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A29" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B29" s="20">
         <v>840</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E29" s="20">
         <v>20</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H29" s="20">
         <v>20</v>
@@ -60465,13 +60471,13 @@
         <v>20</v>
       </c>
       <c r="E33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G33" s="16" t="s">
         <v>20</v>
       </c>
       <c r="H33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
@@ -60568,7 +60574,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B50" s="20">
         <v>200</v>
@@ -60576,7 +60582,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B51" s="20">
         <v>200</v>
@@ -60584,7 +60590,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B52" s="20">
         <v>200</v>
@@ -60592,7 +60598,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B53" s="20">
         <v>200</v>
@@ -60710,7 +60716,7 @@
       <c r="J1" s="74"/>
       <c r="K1" s="74"/>
       <c r="L1" s="74" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M1" s="74"/>
       <c r="N1" s="74"/>
@@ -60720,7 +60726,7 @@
       <c r="R1" s="74"/>
       <c r="S1" s="74"/>
       <c r="T1" s="74" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U1" s="74"/>
       <c r="V1" s="74"/>
@@ -60732,7 +60738,7 @@
     </row>
     <row r="2" spans="1:34" s="63" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="56" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B2" s="56" t="s">
         <v>130</v>
@@ -60741,82 +60747,82 @@
         <v>131</v>
       </c>
       <c r="D2" s="57" t="s">
+        <v>258</v>
+      </c>
+      <c r="E2" s="58" t="s">
         <v>259</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>260</v>
       </c>
       <c r="F2" s="59" t="s">
         <v>123</v>
       </c>
       <c r="G2" s="59" t="s">
+        <v>260</v>
+      </c>
+      <c r="H2" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="I2" s="59" t="s">
         <v>262</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="J2" s="59" t="s">
         <v>263</v>
       </c>
-      <c r="J2" s="59" t="s">
+      <c r="K2" s="60" t="s">
         <v>264</v>
       </c>
-      <c r="K2" s="60" t="s">
-        <v>265</v>
-      </c>
       <c r="L2" s="57" t="s">
+        <v>258</v>
+      </c>
+      <c r="M2" s="58" t="s">
         <v>259</v>
-      </c>
-      <c r="M2" s="58" t="s">
-        <v>260</v>
       </c>
       <c r="N2" s="59" t="s">
         <v>123</v>
       </c>
       <c r="O2" s="59" t="s">
+        <v>260</v>
+      </c>
+      <c r="P2" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="P2" s="59" t="s">
+      <c r="Q2" s="59" t="s">
         <v>262</v>
       </c>
-      <c r="Q2" s="59" t="s">
+      <c r="R2" s="59" t="s">
         <v>263</v>
       </c>
-      <c r="R2" s="59" t="s">
+      <c r="S2" s="60" t="s">
         <v>264</v>
       </c>
-      <c r="S2" s="60" t="s">
-        <v>265</v>
-      </c>
       <c r="T2" s="61" t="s">
+        <v>258</v>
+      </c>
+      <c r="U2" s="58" t="s">
         <v>259</v>
-      </c>
-      <c r="U2" s="58" t="s">
-        <v>260</v>
       </c>
       <c r="V2" s="59" t="s">
         <v>123</v>
       </c>
       <c r="W2" s="59" t="s">
+        <v>260</v>
+      </c>
+      <c r="X2" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="X2" s="59" t="s">
+      <c r="Y2" s="59" t="s">
         <v>262</v>
       </c>
-      <c r="Y2" s="59" t="s">
+      <c r="Z2" s="59" t="s">
         <v>263</v>
       </c>
-      <c r="Z2" s="59" t="s">
+      <c r="AA2" s="60" t="s">
         <v>264</v>
-      </c>
-      <c r="AA2" s="60" t="s">
-        <v>265</v>
       </c>
       <c r="AB2" s="62"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="64"/>
@@ -61742,10 +61748,10 @@
         <v>118</v>
       </c>
       <c r="AF12" t="s">
+        <v>266</v>
+      </c>
+      <c r="AG12" t="s">
         <v>267</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>268</v>
       </c>
       <c r="AH12" t="s">
         <v>117</v>
@@ -61843,7 +61849,7 @@
         <v>0.73463983050847459</v>
       </c>
       <c r="AD13" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AE13" s="20">
         <v>200</v>
@@ -61948,7 +61954,7 @@
         <v>0.79829242262540023</v>
       </c>
       <c r="AD14" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AE14" s="20">
         <v>200</v>
@@ -62065,7 +62071,7 @@
         <v>0.25</v>
       </c>
       <c r="AD15" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AE15" s="20">
         <v>800</v>
@@ -62185,10 +62191,10 @@
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.45">
       <c r="G2" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.45">
@@ -62196,7 +62202,7 @@
         <v>162</v>
       </c>
       <c r="C3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.45">
@@ -62245,13 +62251,13 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C15" t="s">
+        <v>243</v>
+      </c>
+      <c r="D15" t="s">
         <v>244</v>
-      </c>
-      <c r="D15" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.45">
@@ -62426,7 +62432,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pivotSelection pane="bottomRight" click="1" r:id="rId1">
+      <pivotSelection pane="bottomRight" click="1" r:id="rId2">
         <pivotArea field="32" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
       </pivotSelection>
     </sheetView>
@@ -62632,25 +62638,25 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B9" s="20">
         <v>10</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E9" s="20">
         <v>20</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H9" s="20">
         <v>35</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K9" s="20">
         <v>40</v>

--- a/blueprint-jira-better-excel/_Current-Release-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/_Current-Release-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{C4C0E6F4-2164-4098-8A67-5D29CD5D1718}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{12B623AD-B1BF-4BEC-9AC3-49C52D02BCF5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8715" tabRatio="933" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId18"/>
+    <pivotCache cacheId="26" r:id="rId18"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -1776,10 +1776,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.86206896551724133</c:v>
+                  <c:v>0.9568965517241379</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13793103448275867</c:v>
+                  <c:v>4.31034482758621E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2186,6 +2186,9 @@
                   <c:v>0.82769999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>0.93130000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -3743,6 +3746,9 @@
                   <c:v>180.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -4145,6 +4151,9 @@
                   <c:v>1047.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>990.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -4275,6 +4284,9 @@
                   <c:v>1026.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>990.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4407,6 +4419,9 @@
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>981.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -4537,6 +4552,9 @@
                   <c:v>867</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>922.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -5288,10 +5306,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.86206896551724133</c:v>
+                  <c:v>0.9568965517241379</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13793103448275867</c:v>
+                  <c:v>4.31034482758621E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5906,6 +5924,9 @@
                   <c:v>0.79830000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>0.86060000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -7476,6 +7497,9 @@
                   <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>131.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -7886,6 +7910,9 @@
                   <c:v>937</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>943</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -8016,6 +8043,9 @@
                   <c:v>922</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>943</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -8148,6 +8178,9 @@
                   <c:v>917</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>943</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -8278,6 +8311,9 @@
                   <c:v>748</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>811.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -9356,6 +9392,9 @@
                   <c:v>770</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>592.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>840</c:v>
                 </c:pt>
               </c:numCache>
@@ -9539,6 +9578,9 @@
                   <c:v>239.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>239.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
@@ -17562,7 +17604,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Sprint 12 Progress</c:v>
+              <c:v>Sprint 13 Progress</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -21643,6 +21685,9 @@
                   <c:v>0.76429999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>0.88780000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
@@ -24064,6 +24109,9 @@
                   <c:v>577.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>252.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
@@ -24466,6 +24514,9 @@
                   <c:v>2450.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>2250.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>1200</c:v>
                 </c:pt>
               </c:numCache>
@@ -24596,6 +24647,9 @@
                   <c:v>2301.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>2247.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -24728,6 +24782,9 @@
                   <c:v>2237</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>2237.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>360</c:v>
                 </c:pt>
               </c:numCache>
@@ -24858,6 +24915,9 @@
                   <c:v>1873</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>900</c:v>
                 </c:pt>
               </c:numCache>
@@ -25609,10 +25669,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.86206896551724133</c:v>
+                  <c:v>0.9568965517241379</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13793103448275867</c:v>
+                  <c:v>4.31034482758621E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -43300,7 +43360,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>86%</a:t>
+            <a:t>96%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -43976,7 +44036,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>86%</a:t>
+            <a:t>96%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -44483,7 +44543,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>86%</a:t>
+            <a:t>96%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -44500,7 +44560,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43353.627419328703" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="90" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43368.649329398148" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="90" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -44684,8 +44744,8 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Sprint Label" numFmtId="0">
-      <sharedItems containsBlank="1" count="19">
-        <s v="$[SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE3, &quot;ocket&quot;, &quot;&quot;), &quot;uasar&quot;, &quot;&quot;), &quot;egasus&quot;, &quot;&quot;)]"/>
+      <sharedItems containsBlank="1" count="20">
+        <s v="$[SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE2, &quot;ocket&quot;, &quot;&quot;), &quot;uasar&quot;, &quot;&quot;), &quot;egasus&quot;, &quot;&quot;)]"/>
         <m/>
         <s v="Q1"/>
         <s v="Q2"/>
@@ -44701,6 +44761,7 @@
         <s v="Q12"/>
         <s v="Q13"/>
         <s v="Q14"/>
+        <s v="$[SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE3, &quot;ocket&quot;, &quot;&quot;), &quot;uasar&quot;, &quot;&quot;), &quot;egasus&quot;, &quot;&quot;)]" u="1"/>
         <s v="$[=SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE3, &quot;ocket&quot;, &quot;&quot;), &quot;uasar&quot;, &quot;&quot;), &quot;egasus&quot;, &quot;&quot;)]" u="1"/>
         <s v="$[SUBSTITUTE(AE2, &quot;uasar&quot;, &quot;&quot;)]" u="1"/>
         <s v="$[= SUBSTITUTE('Last Sprint', &quot;uasar&quot;, &quot;&quot;)]" u="1"/>
@@ -46155,7 +46216,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="21"/>
+    <x v="22"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -46202,7 +46263,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="21"/>
+    <x v="22"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -46249,7 +46310,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="21"/>
+    <x v="22"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -46296,7 +46357,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="21"/>
+    <x v="22"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -46343,7 +46404,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="21"/>
+    <x v="22"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -46390,7 +46451,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="21"/>
+    <x v="22"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -46437,7 +46498,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="21"/>
+    <x v="22"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -49042,18 +49103,35 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A49:B54" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="26" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+  <location ref="G24:H29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
+      <items count="5">
         <item x="0"/>
-        <item x="6"/>
         <item x="2"/>
-        <item x="4"/>
         <item x="3"/>
-        <item x="5"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -49063,15 +49141,6 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49100,61 +49169,80 @@
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="35"/>
+    <field x="-2"/>
   </rowFields>
   <rowItems count="5">
     <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
       <x v="2"/>
     </i>
-    <i>
+    <i i="3">
       <x v="3"/>
     </i>
-    <i>
+    <i i="4">
       <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
     </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="2">
-    <pageField fld="1" item="2" hier="-1"/>
+  <pageFields count="3">
     <pageField fld="32" item="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="1" hier="-1"/>
   </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+  <dataFields count="5">
+    <dataField name="Done" fld="45" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="46" baseField="0" baseItem="32"/>
   </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="2" format="10" series="1">
+  <chartFormats count="27">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -49163,50 +49251,218 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="11">
+    <chartFormat chart="0" format="10" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="35" count="1" selected="0">
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
             <x v="2"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="12">
+    <chartFormat chart="0" format="14">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
+        <references count="1">
           <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
+            <x v="4"/>
           </reference>
-          <reference field="35" count="1" selected="0">
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="13">
+    <chartFormat chart="4" format="22" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
+        <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="35" count="1" selected="0">
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
             <x v="4"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="14">
+    <chartFormat chart="7" format="7" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
+        <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="5"/>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -49225,99 +49481,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="47">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Not Decomposed Estimate" fld="46" baseField="1" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G4:H7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField showAll="0"/>
@@ -49438,8 +49602,100 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="47">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Not Decomposed Estimate" fld="46" baseField="1" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000001000000}" name="PivotTable3" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000001000000}" name="PivotTable3" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
   <location ref="D5:E11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49896,7 +50152,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A5:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -50113,7 +50369,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000003000000}" name="PivotTable5" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000003000000}" name="PivotTable5" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="J5:K11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -50627,7 +50883,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000002000000}" name="PivotTable4" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000002000000}" name="PivotTable4" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="G5:H11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -51141,7 +51397,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="B4:H20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -51237,9 +51493,9 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="20">
+      <items count="21">
+        <item h="1" m="1" x="19"/>
         <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="17"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
@@ -51255,6 +51511,7 @@
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
+        <item h="1" m="1" x="17"/>
         <item h="1" m="1" x="16"/>
         <item h="1" x="0"/>
         <item t="default"/>
@@ -51446,7 +51703,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="D4:E11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -51580,7 +51837,7 @@
   </colItems>
   <pageFields count="2">
     <pageField fld="1" hier="-1"/>
-    <pageField fld="30" item="12" hier="-1"/>
+    <pageField fld="30" item="13" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
@@ -51714,322 +51971,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000001000000}" name="PivotTable2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="F8:L11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="47">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="47">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item h="1" x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item h="1" x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" subtotalTop="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0" sortType="ascending">
-      <items count="12">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="10"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item h="1" x="8"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="37"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="33"/>
-  </colFields>
-  <colItems count="6">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="2" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="9">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="37" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="37" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -52432,8 +52374,1201 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="B29:C44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="47">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="47">
+        <item x="0"/>
+        <item x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow">
+      <items count="21">
+        <item h="1" m="1" x="19"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item h="1" x="1"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="12">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item h="1" x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="15">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="31" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="13" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A49:B54" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="47">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="35"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="1" item="2" hier="-1"/>
+    <pageField fld="32" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000001000000}" name="PivotTable2" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="F8:L11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="47">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="47">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item h="1" x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item h="1" x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" subtotalTop="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" sortType="ascending">
+      <items count="12">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item h="1" x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="37"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="33"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="2" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="9">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="37" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="37" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="26" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D35:D36" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="47">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="26" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A34:A35" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="47">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" item="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="Y4:AA8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="47">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="6">
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item h="1" x="1"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="26" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G35:G36" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="47">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="26" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
   <location ref="D24:E29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52756,468 +53891,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="B29:C44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="47">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="47">
-        <item x="0"/>
-        <item x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow">
-      <items count="20">
-        <item h="1" m="1" x="18"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item h="1" x="1"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="12">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="10"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item h="1" x="8"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="15">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="31" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="13" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A34:A35" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="47">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="32" item="2" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="13" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D35:D36" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="47">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="2" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="13" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="26" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A24:B29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -53477,620 +54152,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="13" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G35:G36" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="47">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="2" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="Y4:AA8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="47">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item x="3"/>
-        <item h="1" x="1"/>
-        <item h="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="32" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="13" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
-  <location ref="G24:H29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="47">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="2" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="45" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="46" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="27">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AD10:AH16" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -56122,9 +56185,21 @@
       <c r="K17" t="s">
         <v>159</v>
       </c>
+      <c r="L17">
+        <v>18</v>
+      </c>
+      <c r="M17">
+        <v>26</v>
+      </c>
+      <c r="N17">
+        <v>48.5</v>
+      </c>
+      <c r="O17">
+        <v>54</v>
+      </c>
       <c r="R17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>146.5</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.45">
@@ -56198,19 +56273,19 @@
       </c>
       <c r="L20">
         <f>SUBTOTAL(109,Table1[Alpha])</f>
-        <v>212.5</v>
+        <v>230.5</v>
       </c>
       <c r="M20">
         <f>SUBTOTAL(109,Table1[ngStars])</f>
-        <v>476</v>
+        <v>502</v>
       </c>
       <c r="N20">
         <f>SUBTOTAL(109,Table1[NW])</f>
-        <v>562.5</v>
+        <v>611</v>
       </c>
       <c r="O20">
         <f>SUBTOTAL(109,Table1[SoftTeco])</f>
-        <v>744</v>
+        <v>798</v>
       </c>
       <c r="P20">
         <f>SUBTOTAL(109,Table1[Titan])</f>
@@ -56222,7 +56297,7 @@
       </c>
       <c r="R20">
         <f>SUBTOTAL(109,Table1[Total])</f>
-        <v>2050</v>
+        <v>2196.5</v>
       </c>
     </row>
   </sheetData>
@@ -56270,7 +56345,7 @@
       </c>
       <c r="B1" t="str">
         <f>$E$2</f>
-        <v>Quasar12</v>
+        <v>Quasar13</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>9</v>
@@ -56284,7 +56359,7 @@
         <v>164</v>
       </c>
       <c r="E2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -56366,7 +56441,7 @@
       </c>
       <c r="E15" t="str">
         <f>"Sprint " &amp; SUBSTITUTE($B$1,"Quasar", "") &amp; " Progress"</f>
-        <v>Sprint 12 Progress</v>
+        <v>Sprint 13 Progress</v>
       </c>
     </row>
   </sheetData>
@@ -57740,7 +57815,7 @@
       </c>
       <c r="AE30" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Quasar12</v>
+        <v>Quasar13</v>
       </c>
       <c r="AI30" s="5" t="s">
         <v>192</v>
@@ -57761,7 +57836,7 @@
       </c>
       <c r="AE31" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Quasar12</v>
+        <v>Quasar13</v>
       </c>
       <c r="AI31" s="5" t="s">
         <v>221</v>
@@ -57782,7 +57857,7 @@
       </c>
       <c r="AE32" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Quasar12</v>
+        <v>Quasar13</v>
       </c>
       <c r="AI32" s="5" t="s">
         <v>193</v>
@@ -57803,7 +57878,7 @@
       </c>
       <c r="AE33" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Quasar12</v>
+        <v>Quasar13</v>
       </c>
       <c r="AI33" s="5" t="s">
         <v>194</v>
@@ -57824,7 +57899,7 @@
       </c>
       <c r="AE34" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Quasar12</v>
+        <v>Quasar13</v>
       </c>
       <c r="AI34" s="5" t="s">
         <v>196</v>
@@ -57845,7 +57920,7 @@
       </c>
       <c r="AE35" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Quasar12</v>
+        <v>Quasar13</v>
       </c>
       <c r="AI35" s="5" t="s">
         <v>195</v>
@@ -57863,7 +57938,7 @@
       </c>
       <c r="AE36" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Quasar12</v>
+        <v>Quasar13</v>
       </c>
       <c r="AI36" s="5" t="s">
         <v>197</v>
@@ -59149,16 +59224,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA56"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.9296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.9296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.19921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="9.86328125" customWidth="1"/>
@@ -59222,7 +59299,7 @@
       </c>
       <c r="B2" s="52">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$W$3:$W$12)/NETWORKDAYS($D$3,$E$3,$W$3:$W$12),0%)</f>
-        <v>0.86206896551724133</v>
+        <v>0.9568965517241379</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>130</v>
@@ -59291,7 +59368,7 @@
       </c>
       <c r="B3" s="32">
         <f ca="1">MAX(100%,B2)-B2</f>
-        <v>0.13793103448275867</v>
+        <v>4.31034482758621E-2</v>
       </c>
       <c r="D3" s="28">
         <v>43201</v>
@@ -59497,7 +59574,7 @@
       </c>
       <c r="E6" s="27">
         <f ca="1">TODAY()</f>
-        <v>43353</v>
+        <v>43368</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>150</v>
@@ -60114,40 +60191,34 @@
         <v>0.87068965517241381</v>
       </c>
       <c r="M15" s="43">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$Y$4)/GETPIVOTDATA("Epic Total Estimate",$Y$4)</f>
-        <v>0.75</v>
+        <v>0.88780000000000003</v>
       </c>
       <c r="N15" s="43">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Diagram Editor")/GETPIVOTDATA("Epic Total Estimate",$Y$4,"ST:Components","Diagram Editor")</f>
-        <v>0.25</v>
+        <v>0.93130000000000002</v>
       </c>
       <c r="O15" s="43">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Artifact List")/GETPIVOTDATA("Epic Total Estimate",$Y$4,"ST:Components","Artifact List")</f>
-        <v>0.25</v>
+        <v>0.86060000000000003</v>
       </c>
       <c r="P15" s="46">
         <f t="shared" ref="P15" si="7">2380*(100%-K15)</f>
         <v>307.75862068965512</v>
       </c>
       <c r="Q15" s="47">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$Y$4)</f>
-        <v>300</v>
+        <v>252.5</v>
       </c>
       <c r="R15" s="50">
         <f t="shared" ref="R15" si="8">1400*(100%-K15)</f>
         <v>181.03448275862067</v>
       </c>
       <c r="S15" s="47">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Diagram Editor")</f>
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="T15" s="46">
         <f t="shared" ref="T15" si="9">700*(100%-L15)</f>
         <v>90.517241379310335</v>
       </c>
       <c r="U15" s="47">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Artifact List")</f>
-        <v>150</v>
+        <v>131.5</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
@@ -60174,24 +60245,42 @@
         <f>SUM($J$4:J16)/SUM($J$4:$J$17)</f>
         <v>0.9568965517241379</v>
       </c>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
+      <c r="M16" s="43">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$Y$4)/GETPIVOTDATA("Epic Total Estimate",$Y$4)</f>
+        <v>0.75</v>
+      </c>
+      <c r="N16" s="43">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Diagram Editor")/GETPIVOTDATA("Epic Total Estimate",$Y$4,"ST:Components","Diagram Editor")</f>
+        <v>0.25</v>
+      </c>
+      <c r="O16" s="43">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Artifact List")/GETPIVOTDATA("Epic Total Estimate",$Y$4,"ST:Components","Artifact List")</f>
+        <v>0.25</v>
+      </c>
       <c r="P16" s="46">
         <f t="shared" si="0"/>
         <v>102.5862068965518</v>
       </c>
-      <c r="Q16" s="47"/>
+      <c r="Q16" s="47">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$Y$4)</f>
+        <v>300</v>
+      </c>
       <c r="R16" s="50">
         <f t="shared" si="3"/>
         <v>60.344827586206939</v>
       </c>
-      <c r="S16" s="47"/>
+      <c r="S16" s="47">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Diagram Editor")</f>
+        <v>150</v>
+      </c>
       <c r="T16" s="46">
         <f t="shared" si="1"/>
         <v>30.17241379310347</v>
       </c>
-      <c r="U16" s="47"/>
+      <c r="U16" s="47">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Artifact List")</f>
+        <v>150</v>
+      </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A17" s="44" t="s">
@@ -60248,7 +60337,7 @@
       </c>
       <c r="B18" s="52">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$W$3:$W$12)/NETWORKDAYS($D$3,$E$3,$W$3:$W$12),0%)</f>
-        <v>0.86206896551724133</v>
+        <v>0.9568965517241379</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.45">
@@ -60257,7 +60346,7 @@
       </c>
       <c r="B19" s="32">
         <f ca="1">MAX(100%,B18)-B18</f>
-        <v>0.13793103448275867</v>
+        <v>4.31034482758621E-2</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.45">
@@ -61978,97 +62067,85 @@
         <v>43354</v>
       </c>
       <c r="D15" s="65">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AD$8, "Type", "Epic")</f>
-        <v>1200</v>
+        <v>2250.5</v>
       </c>
       <c r="E15" s="66">
         <v>2380</v>
       </c>
       <c r="F15" s="46">
-        <f>GETPIVOTDATA("Stories Estimate", $AD$8, "Type", "Epic")</f>
-        <v>0</v>
+        <v>2247.5</v>
       </c>
       <c r="G15" s="46">
-        <f>GETPIVOTDATA("Epic Decomposed", $AD$8, "Type", "Epic")</f>
-        <v>360</v>
+        <v>2237.5</v>
       </c>
       <c r="H15" s="46">
         <f t="shared" ref="H15" si="37">D15-I15</f>
-        <v>900</v>
+        <v>1998</v>
       </c>
       <c r="I15" s="46">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AD$8, "Type", "Epic")</f>
-        <v>300</v>
+        <v>252.5</v>
       </c>
       <c r="J15" s="36">
         <f t="shared" ref="J15" si="38" xml:space="preserve"> G15/D15</f>
-        <v>0.3</v>
+        <v>0.99422350588758057</v>
       </c>
       <c r="K15" s="36">
         <f t="shared" ref="K15" si="39" xml:space="preserve"> H15/D15</f>
-        <v>0.75</v>
+        <v>0.88780271050877579</v>
       </c>
       <c r="L15" s="67">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>200</v>
+        <v>990.5</v>
       </c>
       <c r="M15" s="66">
         <v>1400</v>
       </c>
       <c r="N15" s="46">
-        <f>GETPIVOTDATA("Stories Estimate", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>0</v>
+        <v>990.5</v>
       </c>
       <c r="O15" s="46">
-        <f>GETPIVOTDATA("Epic Decomposed", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>180</v>
+        <v>981.5</v>
       </c>
       <c r="P15" s="46">
         <f t="shared" ref="P15" si="40">L15-Q15</f>
-        <v>50</v>
+        <v>922.5</v>
       </c>
       <c r="Q15" s="46">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="R15" s="36">
         <f t="shared" ref="R15" si="41" xml:space="preserve"> O15/L15</f>
-        <v>0.9</v>
+        <v>0.99091367995961632</v>
       </c>
       <c r="S15" s="36">
         <f t="shared" ref="S15" si="42" xml:space="preserve"> P15/L15</f>
-        <v>0.25</v>
+        <v>0.93134780413932361</v>
       </c>
       <c r="T15" s="65">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
-        <v>200</v>
+        <v>943</v>
       </c>
       <c r="U15" s="66">
         <v>700</v>
       </c>
       <c r="V15" s="46">
-        <f>GETPIVOTDATA("Stories Estimate", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
-        <v>0</v>
+        <v>943</v>
       </c>
       <c r="W15" s="46">
-        <f>GETPIVOTDATA("Epic Decomposed", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
-        <v>180</v>
+        <v>943</v>
       </c>
       <c r="X15" s="46">
         <f t="shared" ref="X15" si="43">T15-Y15</f>
-        <v>50</v>
+        <v>811.5</v>
       </c>
       <c r="Y15" s="46">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
-        <v>150</v>
+        <v>131.5</v>
       </c>
       <c r="Z15" s="36">
         <f t="shared" ref="Z15" si="44" xml:space="preserve"> W15/T15</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AA15" s="36">
         <f t="shared" ref="AA15" si="45">X15/T15</f>
-        <v>0.25</v>
+        <v>0.86055143160127257</v>
       </c>
       <c r="AD15" s="17" t="s">
         <v>236</v>
@@ -62090,14 +62167,98 @@
       <c r="C16" s="68">
         <v>43368</v>
       </c>
+      <c r="D16" s="65">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AD$8, "Type", "Epic")</f>
+        <v>1200</v>
+      </c>
       <c r="E16" s="66">
         <v>2380</v>
       </c>
+      <c r="F16" s="46">
+        <f>GETPIVOTDATA("Stories Estimate", $AD$8, "Type", "Epic")</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="46">
+        <f>GETPIVOTDATA("Epic Decomposed", $AD$8, "Type", "Epic")</f>
+        <v>360</v>
+      </c>
+      <c r="H16" s="46">
+        <f t="shared" ref="H16" si="46">D16-I16</f>
+        <v>900</v>
+      </c>
+      <c r="I16" s="46">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AD$8, "Type", "Epic")</f>
+        <v>300</v>
+      </c>
+      <c r="J16" s="36">
+        <f t="shared" ref="J16" si="47" xml:space="preserve"> G16/D16</f>
+        <v>0.3</v>
+      </c>
+      <c r="K16" s="36">
+        <f t="shared" ref="K16" si="48" xml:space="preserve"> H16/D16</f>
+        <v>0.75</v>
+      </c>
+      <c r="L16" s="67">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>200</v>
+      </c>
       <c r="M16" s="66">
         <v>1400</v>
       </c>
+      <c r="N16" s="46">
+        <f>GETPIVOTDATA("Stories Estimate", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="46">
+        <f>GETPIVOTDATA("Epic Decomposed", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>180</v>
+      </c>
+      <c r="P16" s="46">
+        <f t="shared" ref="P16" si="49">L16-Q16</f>
+        <v>50</v>
+      </c>
+      <c r="Q16" s="46">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>150</v>
+      </c>
+      <c r="R16" s="36">
+        <f t="shared" ref="R16" si="50" xml:space="preserve"> O16/L16</f>
+        <v>0.9</v>
+      </c>
+      <c r="S16" s="36">
+        <f t="shared" ref="S16" si="51" xml:space="preserve"> P16/L16</f>
+        <v>0.25</v>
+      </c>
+      <c r="T16" s="65">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
+        <v>200</v>
+      </c>
       <c r="U16" s="66">
         <v>700</v>
+      </c>
+      <c r="V16" s="46">
+        <f>GETPIVOTDATA("Stories Estimate", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
+        <v>0</v>
+      </c>
+      <c r="W16" s="46">
+        <f>GETPIVOTDATA("Epic Decomposed", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
+        <v>180</v>
+      </c>
+      <c r="X16" s="46">
+        <f t="shared" ref="X16" si="52">T16-Y16</f>
+        <v>50</v>
+      </c>
+      <c r="Y16" s="46">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
+        <v>150</v>
+      </c>
+      <c r="Z16" s="36">
+        <f t="shared" ref="Z16" si="53" xml:space="preserve"> W16/T16</f>
+        <v>0.9</v>
+      </c>
+      <c r="AA16" s="36">
+        <f t="shared" ref="AA16" si="54">X16/T16</f>
+        <v>0.25</v>
       </c>
       <c r="AD16" s="17" t="s">
         <v>50</v>
@@ -62386,17 +62547,23 @@
         <v>159</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C27" si="0">GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
-        <v>840</v>
+        <v>592.5</v>
       </c>
       <c r="D27">
-        <f>GETPIVOTDATA("Story Points",$G$1)</f>
-        <v>15</v>
+        <v>239.5</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>160</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28" si="0">GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
+        <v>840</v>
+      </c>
+      <c r="D28">
+        <f>GETPIVOTDATA("Story Points",$G$1)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.45">

--- a/blueprint-jira-better-excel/_Current-Release-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/_Current-Release-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{12B623AD-B1BF-4BEC-9AC3-49C52D02BCF5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{4F49D891-1B7F-4CAF-9257-D5207BD18EC1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8715" tabRatio="933" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="26" r:id="rId18"/>
+    <pivotCache cacheId="124" r:id="rId18"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -1274,7 +1274,7 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1403,6 +1403,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="2"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="11" xfId="5" applyAlignment="1">
@@ -1776,10 +1777,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.9568965517241379</c:v>
+                  <c:v>0.96551724137931039</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.31034482758621E-2</c:v>
+                  <c:v>3.4482758620689613E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2189,6 +2190,9 @@
                   <c:v>0.93130000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>0.99270000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -3749,6 +3753,9 @@
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -4154,6 +4161,9 @@
                   <c:v>990.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>964.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -4287,6 +4297,9 @@
                   <c:v>990.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>964.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4422,6 +4435,9 @@
                   <c:v>981.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>964.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -4555,6 +4571,9 @@
                   <c:v>922.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>957.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -5306,10 +5325,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.9568965517241379</c:v>
+                  <c:v>0.96551724137931039</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.31034482758621E-2</c:v>
+                  <c:v>3.4482758620689613E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5927,6 +5946,9 @@
                   <c:v>0.86060000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>0.90720000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -7500,6 +7522,9 @@
                   <c:v>131.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -7913,6 +7938,9 @@
                   <c:v>943</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>948.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -8046,6 +8074,9 @@
                   <c:v>943</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>948.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -8181,6 +8212,9 @@
                   <c:v>943</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>948.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -8314,6 +8348,9 @@
                   <c:v>811.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>817</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -9395,6 +9432,9 @@
                   <c:v>592.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>594.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>840</c:v>
                 </c:pt>
               </c:numCache>
@@ -9581,6 +9621,9 @@
                   <c:v>239.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>101.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
@@ -17604,7 +17647,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Sprint 13 Progress</c:v>
+              <c:v>Sprint 14 Progress</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -21688,6 +21731,9 @@
                   <c:v>0.88780000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>0.94430000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
@@ -24112,6 +24158,9 @@
                   <c:v>252.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
@@ -24517,6 +24566,9 @@
                   <c:v>2250.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>2227</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>1200</c:v>
                 </c:pt>
               </c:numCache>
@@ -24650,6 +24702,9 @@
                   <c:v>2247.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>2227</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -24785,6 +24840,9 @@
                   <c:v>2237.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>2227</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>360</c:v>
                 </c:pt>
               </c:numCache>
@@ -24918,6 +24976,9 @@
                   <c:v>1998</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>2103</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>900</c:v>
                 </c:pt>
               </c:numCache>
@@ -25669,10 +25730,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.9568965517241379</c:v>
+                  <c:v>0.96551724137931039</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.31034482758621E-2</c:v>
+                  <c:v>3.4482758620689613E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -43360,7 +43421,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>96%</a:t>
+            <a:t>97%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -44036,7 +44097,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>96%</a:t>
+            <a:t>97%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -44543,7 +44604,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>96%</a:t>
+            <a:t>97%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -44560,7 +44621,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43368.649329398148" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="90" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43369.341198379632" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="90" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -46216,7 +46277,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="22"/>
+    <x v="23"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -46263,7 +46324,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="22"/>
+    <x v="23"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -46310,7 +46371,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="22"/>
+    <x v="23"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -46357,7 +46418,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="22"/>
+    <x v="23"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -46404,7 +46465,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="22"/>
+    <x v="23"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -46451,7 +46512,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="22"/>
+    <x v="23"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -46498,7 +46559,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="22"/>
+    <x v="23"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -49103,35 +49164,18 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="26" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
-  <location ref="G24:H29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="124" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A49:B54" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
+        <item x="0"/>
+        <item x="6"/>
         <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
+        <item x="4"/>
         <item x="3"/>
+        <item x="5"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -49141,6 +49185,15 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49169,80 +49222,61 @@
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="-2"/>
+    <field x="35"/>
   </rowFields>
   <rowItems count="5">
     <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
       <x v="2"/>
     </i>
-    <i i="3">
+    <i>
       <x v="3"/>
     </i>
-    <i i="4">
+    <i>
       <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
     </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="3">
+  <pageFields count="2">
+    <pageField fld="1" item="2" hier="-1"/>
     <pageField fld="32" item="2" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="1" hier="-1"/>
   </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="45" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="46" baseField="0" baseItem="32"/>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
   </dataFields>
-  <chartFormats count="27">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
+  <chartFormats count="5">
+    <chartFormat chart="2" format="10" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -49251,218 +49285,50 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
+    <chartFormat chart="2" format="11">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
+          <reference field="35" count="1" selected="0">
             <x v="2"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="14">
+    <chartFormat chart="2" format="12">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
             <x v="4"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="15">
+    <chartFormat chart="2" format="14">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
+          <reference field="35" count="1" selected="0">
+            <x v="5"/>
           </reference>
         </references>
       </pivotArea>
@@ -49481,7 +49347,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="124" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G4:H7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField showAll="0"/>
@@ -49603,7 +49469,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="124" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49695,681 +49561,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000001000000}" name="PivotTable3" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
-  <location ref="D5:E11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="47">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item h="1" x="8"/>
-        <item h="1" x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="10"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="2" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="37" item="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="27">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="37" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="11" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="21" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="66" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="67">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="68">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="69">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="70">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="71">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="A5:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="47">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item h="1" x="8"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="10"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="2" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="37" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="6">
-    <chartFormat chart="10" format="49" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="50">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="51">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="52">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="53">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="54">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000003000000}" name="PivotTable5" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000003000000}" name="PivotTable5" cacheId="124" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="J5:K11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -50882,8 +50074,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000002000000}" name="PivotTable4" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000002000000}" name="PivotTable4" cacheId="124" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="G5:H11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -51396,8 +50588,682 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000001000000}" name="PivotTable3" cacheId="124" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
+  <location ref="D5:E11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="47">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item h="1" x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item h="1" x="8"/>
+        <item h="1" x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="37" item="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="27">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="37" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="21" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="66" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="67">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="68">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="69">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="70">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="71">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="124" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A5:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="47">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item h="1" x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item h="1" x="8"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="37" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="6">
+    <chartFormat chart="10" format="49" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="50">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="51">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="52">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="53">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="54">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="124" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="B4:H20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -51703,7 +51569,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="124" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="D4:E11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -51837,7 +51703,7 @@
   </colItems>
   <pageFields count="2">
     <pageField fld="1" hier="-1"/>
-    <pageField fld="30" item="13" hier="-1"/>
+    <pageField fld="30" item="14" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
@@ -51971,7 +51837,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="124" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -52375,7 +52241,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="124" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="B29:C44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -52633,19 +52499,19 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A49:B54" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="124" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="Y4:AA8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="8">
-        <item x="0"/>
-        <item x="6"/>
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
         <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -52657,152 +52523,97 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="5">
         <item x="0"/>
+        <item x="1"/>
         <item x="2"/>
         <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="7">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="6">
         <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
         <item h="1" x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
+        <item h="1" x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="35"/>
+    <field x="10"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="4">
+    <i>
+      <x v="1"/>
+    </i>
     <i>
       <x v="2"/>
     </i>
     <i>
       <x v="3"/>
     </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
   </colItems>
   <pageFields count="2">
-    <pageField fld="1" item="2" hier="-1"/>
-    <pageField fld="32" item="2" hier="-1"/>
+    <pageField fld="32" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
   </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
   </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="2" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -52816,7 +52627,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000001000000}" name="PivotTable2" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000001000000}" name="PivotTable2" cacheId="124" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="F8:L11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -53131,7 +52942,743 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="26" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="124" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A24:B29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="47">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" item="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="45" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="46" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="15">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="124" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+  <location ref="G24:H29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="47">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="45" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="46" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="27">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="124" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A34:A35" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="47">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" item="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="124" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="D35:D36" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -53236,339 +53783,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="26" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A34:A35" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="47">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="32" item="2" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="Y4:AA8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="47">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item x="3"/>
-        <item h="1" x="1"/>
-        <item h="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="32" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="26" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G35:G36" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="47">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="2" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="26" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="124" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
   <location ref="D24:E29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -53892,8 +54108,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="26" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A24:B29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="124" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G35:G36" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -53916,12 +54132,20 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -53954,192 +54178,29 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
+  <rowItems count="1">
+    <i/>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="2">
+  <pageFields count="3">
     <pageField fld="32" item="2" hier="-1"/>
     <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="1" hier="-1"/>
   </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="45" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="46" baseField="0" baseItem="32"/>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
   </dataFields>
-  <chartFormats count="15">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -54153,7 +54214,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="124" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AD10:AH16" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -56219,9 +56280,24 @@
       <c r="K18" t="s">
         <v>160</v>
       </c>
+      <c r="L18">
+        <v>5</v>
+      </c>
+      <c r="M18">
+        <v>22</v>
+      </c>
+      <c r="N18">
+        <v>32.5</v>
+      </c>
+      <c r="O18">
+        <v>58</v>
+      </c>
+      <c r="Q18">
+        <v>3</v>
+      </c>
       <c r="R18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>120.5</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.45">
@@ -56273,19 +56349,19 @@
       </c>
       <c r="L20">
         <f>SUBTOTAL(109,Table1[Alpha])</f>
-        <v>230.5</v>
+        <v>235.5</v>
       </c>
       <c r="M20">
         <f>SUBTOTAL(109,Table1[ngStars])</f>
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="N20">
         <f>SUBTOTAL(109,Table1[NW])</f>
-        <v>611</v>
+        <v>643.5</v>
       </c>
       <c r="O20">
         <f>SUBTOTAL(109,Table1[SoftTeco])</f>
-        <v>798</v>
+        <v>856</v>
       </c>
       <c r="P20">
         <f>SUBTOTAL(109,Table1[Titan])</f>
@@ -56293,11 +56369,11 @@
       </c>
       <c r="Q20">
         <f>SUBTOTAL(109,Table1[QA])</f>
-        <v>29.5</v>
+        <v>32.5</v>
       </c>
       <c r="R20">
         <f>SUBTOTAL(109,Table1[Total])</f>
-        <v>2196.5</v>
+        <v>2317</v>
       </c>
     </row>
   </sheetData>
@@ -56327,9 +56403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -56345,7 +56419,7 @@
       </c>
       <c r="B1" t="str">
         <f>$E$2</f>
-        <v>Quasar13</v>
+        <v>Quasar14</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>9</v>
@@ -56359,7 +56433,7 @@
         <v>164</v>
       </c>
       <c r="E2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -56441,7 +56515,7 @@
       </c>
       <c r="E15" t="str">
         <f>"Sprint " &amp; SUBSTITUTE($B$1,"Quasar", "") &amp; " Progress"</f>
-        <v>Sprint 13 Progress</v>
+        <v>Sprint 14 Progress</v>
       </c>
     </row>
   </sheetData>
@@ -57815,7 +57889,7 @@
       </c>
       <c r="AE30" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Quasar13</v>
+        <v>Quasar14</v>
       </c>
       <c r="AI30" s="5" t="s">
         <v>192</v>
@@ -57836,7 +57910,7 @@
       </c>
       <c r="AE31" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Quasar13</v>
+        <v>Quasar14</v>
       </c>
       <c r="AI31" s="5" t="s">
         <v>221</v>
@@ -57857,7 +57931,7 @@
       </c>
       <c r="AE32" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Quasar13</v>
+        <v>Quasar14</v>
       </c>
       <c r="AI32" s="5" t="s">
         <v>193</v>
@@ -57878,7 +57952,7 @@
       </c>
       <c r="AE33" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Quasar13</v>
+        <v>Quasar14</v>
       </c>
       <c r="AI33" s="5" t="s">
         <v>194</v>
@@ -57899,7 +57973,7 @@
       </c>
       <c r="AE34" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Quasar13</v>
+        <v>Quasar14</v>
       </c>
       <c r="AI34" s="5" t="s">
         <v>196</v>
@@ -57920,7 +57994,7 @@
       </c>
       <c r="AE35" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Quasar13</v>
+        <v>Quasar14</v>
       </c>
       <c r="AI35" s="5" t="s">
         <v>195</v>
@@ -57938,7 +58012,7 @@
       </c>
       <c r="AE36" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Quasar13</v>
+        <v>Quasar14</v>
       </c>
       <c r="AI36" s="5" t="s">
         <v>197</v>
@@ -59224,13 +59298,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA56"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.9296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
@@ -59274,18 +59346,18 @@
       <c r="O1" t="s">
         <v>229</v>
       </c>
-      <c r="P1" s="72" t="s">
+      <c r="P1" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72" t="s">
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73" t="s">
         <v>228</v>
       </c>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72" t="s">
+      <c r="S1" s="73"/>
+      <c r="T1" s="73" t="s">
         <v>229</v>
       </c>
-      <c r="U1" s="72"/>
+      <c r="U1" s="73"/>
       <c r="Y1" s="16" t="s">
         <v>141</v>
       </c>
@@ -59299,7 +59371,7 @@
       </c>
       <c r="B2" s="52">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$W$3:$W$12)/NETWORKDAYS($D$3,$E$3,$W$3:$W$12),0%)</f>
-        <v>0.9568965517241379</v>
+        <v>0.96551724137931039</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>130</v>
@@ -59368,7 +59440,7 @@
       </c>
       <c r="B3" s="32">
         <f ca="1">MAX(100%,B2)-B2</f>
-        <v>4.31034482758621E-2</v>
+        <v>3.4482758620689613E-2</v>
       </c>
       <c r="D3" s="28">
         <v>43201</v>
@@ -59574,7 +59646,7 @@
       </c>
       <c r="E6" s="27">
         <f ca="1">TODAY()</f>
-        <v>43368</v>
+        <v>43369</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>150</v>
@@ -60246,40 +60318,34 @@
         <v>0.9568965517241379</v>
       </c>
       <c r="M16" s="43">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$Y$4)/GETPIVOTDATA("Epic Total Estimate",$Y$4)</f>
-        <v>0.75</v>
+        <v>0.94430000000000003</v>
       </c>
       <c r="N16" s="43">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Diagram Editor")/GETPIVOTDATA("Epic Total Estimate",$Y$4,"ST:Components","Diagram Editor")</f>
-        <v>0.25</v>
+        <v>0.99270000000000003</v>
       </c>
       <c r="O16" s="43">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Artifact List")/GETPIVOTDATA("Epic Total Estimate",$Y$4,"ST:Components","Artifact List")</f>
-        <v>0.25</v>
+        <v>0.90720000000000001</v>
       </c>
       <c r="P16" s="46">
         <f t="shared" si="0"/>
         <v>102.5862068965518</v>
       </c>
       <c r="Q16" s="47">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$Y$4)</f>
-        <v>300</v>
+        <v>124</v>
       </c>
       <c r="R16" s="50">
         <f t="shared" si="3"/>
         <v>60.344827586206939</v>
       </c>
       <c r="S16" s="47">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Diagram Editor")</f>
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="T16" s="46">
         <f t="shared" si="1"/>
         <v>30.17241379310347</v>
       </c>
       <c r="U16" s="47">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Artifact List")</f>
-        <v>150</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.45">
@@ -60312,24 +60378,42 @@
         <f>SUM($J$4:J17)/SUM($J$4:$J$17)</f>
         <v>1</v>
       </c>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
+      <c r="M17" s="72">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$Y$4)/GETPIVOTDATA("Epic Total Estimate",$Y$4)</f>
+        <v>0.75</v>
+      </c>
+      <c r="N17" s="72">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Diagram Editor")/GETPIVOTDATA("Epic Total Estimate",$Y$4,"ST:Components","Diagram Editor")</f>
+        <v>0.25</v>
+      </c>
+      <c r="O17" s="72">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Artifact List")/GETPIVOTDATA("Epic Total Estimate",$Y$4,"ST:Components","Artifact List")</f>
+        <v>0.25</v>
+      </c>
       <c r="P17" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="48"/>
+      <c r="Q17" s="48">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$Y$4)</f>
+        <v>300</v>
+      </c>
       <c r="R17" s="49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S17" s="48"/>
+      <c r="S17" s="48">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Diagram Editor")</f>
+        <v>150</v>
+      </c>
       <c r="T17" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U17" s="48"/>
+      <c r="U17" s="48">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$Y$4,"ST:Components","Artifact List")</f>
+        <v>150</v>
+      </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
@@ -60337,7 +60421,7 @@
       </c>
       <c r="B18" s="52">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$W$3:$W$12)/NETWORKDAYS($D$3,$E$3,$W$3:$W$12),0%)</f>
-        <v>0.9568965517241379</v>
+        <v>0.96551724137931039</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.45">
@@ -60346,7 +60430,7 @@
       </c>
       <c r="B19" s="32">
         <f ca="1">MAX(100%,B18)-B18</f>
-        <v>4.31034482758621E-2</v>
+        <v>3.4482758620689613E-2</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.45">
@@ -60791,39 +60875,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A1" s="73"/>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="74" t="s">
+      <c r="A1" s="74"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="75" t="s">
         <v>141</v>
       </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74" t="s">
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75" t="s">
         <v>228</v>
       </c>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74" t="s">
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75" t="s">
         <v>229</v>
       </c>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74"/>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="74"/>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="74"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
     </row>
     <row r="2" spans="1:34" s="63" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="56" t="s">
@@ -62168,97 +62252,85 @@
         <v>43368</v>
       </c>
       <c r="D16" s="65">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AD$8, "Type", "Epic")</f>
-        <v>1200</v>
+        <v>2227</v>
       </c>
       <c r="E16" s="66">
         <v>2380</v>
       </c>
       <c r="F16" s="46">
-        <f>GETPIVOTDATA("Stories Estimate", $AD$8, "Type", "Epic")</f>
-        <v>0</v>
+        <v>2227</v>
       </c>
       <c r="G16" s="46">
-        <f>GETPIVOTDATA("Epic Decomposed", $AD$8, "Type", "Epic")</f>
-        <v>360</v>
+        <v>2227</v>
       </c>
       <c r="H16" s="46">
         <f t="shared" ref="H16" si="46">D16-I16</f>
-        <v>900</v>
+        <v>2103</v>
       </c>
       <c r="I16" s="46">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AD$8, "Type", "Epic")</f>
-        <v>300</v>
+        <v>124</v>
       </c>
       <c r="J16" s="36">
         <f t="shared" ref="J16" si="47" xml:space="preserve"> G16/D16</f>
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="K16" s="36">
         <f t="shared" ref="K16" si="48" xml:space="preserve"> H16/D16</f>
-        <v>0.75</v>
+        <v>0.94431971261787162</v>
       </c>
       <c r="L16" s="67">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>200</v>
+        <v>964.5</v>
       </c>
       <c r="M16" s="66">
         <v>1400</v>
       </c>
       <c r="N16" s="46">
-        <f>GETPIVOTDATA("Stories Estimate", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>0</v>
+        <v>964.5</v>
       </c>
       <c r="O16" s="46">
-        <f>GETPIVOTDATA("Epic Decomposed", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>180</v>
+        <v>964.5</v>
       </c>
       <c r="P16" s="46">
         <f t="shared" ref="P16" si="49">L16-Q16</f>
-        <v>50</v>
+        <v>957.5</v>
       </c>
       <c r="Q16" s="46">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="R16" s="36">
         <f t="shared" ref="R16" si="50" xml:space="preserve"> O16/L16</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="S16" s="36">
         <f t="shared" ref="S16" si="51" xml:space="preserve"> P16/L16</f>
-        <v>0.25</v>
+        <v>0.99274235355106277</v>
       </c>
       <c r="T16" s="65">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
-        <v>200</v>
+        <v>948.5</v>
       </c>
       <c r="U16" s="66">
         <v>700</v>
       </c>
       <c r="V16" s="46">
-        <f>GETPIVOTDATA("Stories Estimate", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
-        <v>0</v>
+        <v>948.5</v>
       </c>
       <c r="W16" s="46">
-        <f>GETPIVOTDATA("Epic Decomposed", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
-        <v>180</v>
+        <v>948.5</v>
       </c>
       <c r="X16" s="46">
         <f t="shared" ref="X16" si="52">T16-Y16</f>
-        <v>50</v>
+        <v>817</v>
       </c>
       <c r="Y16" s="46">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
-        <v>150</v>
+        <v>131.5</v>
       </c>
       <c r="Z16" s="36">
         <f t="shared" ref="Z16" si="53" xml:space="preserve"> W16/T16</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AA16" s="36">
         <f t="shared" ref="AA16" si="54">X16/T16</f>
-        <v>0.25</v>
+        <v>0.86136004217185025</v>
       </c>
       <c r="AD16" s="17" t="s">
         <v>50</v>
@@ -62274,7 +62346,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>161</v>
       </c>
@@ -62284,17 +62356,101 @@
       <c r="C17" s="70">
         <v>43382</v>
       </c>
+      <c r="D17" s="65">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AD$8, "Type", "Epic")</f>
+        <v>1200</v>
+      </c>
       <c r="E17" s="66">
         <v>2380</v>
       </c>
+      <c r="F17" s="46">
+        <f>GETPIVOTDATA("Stories Estimate", $AD$8, "Type", "Epic")</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="46">
+        <f>GETPIVOTDATA("Epic Decomposed", $AD$8, "Type", "Epic")</f>
+        <v>360</v>
+      </c>
+      <c r="H17" s="46">
+        <f t="shared" ref="H17" si="55">D17-I17</f>
+        <v>900</v>
+      </c>
+      <c r="I17" s="46">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AD$8, "Type", "Epic")</f>
+        <v>300</v>
+      </c>
+      <c r="J17" s="36">
+        <f t="shared" ref="J17" si="56" xml:space="preserve"> G17/D17</f>
+        <v>0.3</v>
+      </c>
+      <c r="K17" s="36">
+        <f t="shared" ref="K17" si="57" xml:space="preserve"> H17/D17</f>
+        <v>0.75</v>
+      </c>
+      <c r="L17" s="67">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>200</v>
+      </c>
       <c r="M17" s="66">
         <v>1400</v>
       </c>
+      <c r="N17" s="46">
+        <f>GETPIVOTDATA("Stories Estimate", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="46">
+        <f>GETPIVOTDATA("Epic Decomposed", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>180</v>
+      </c>
+      <c r="P17" s="46">
+        <f t="shared" ref="P17" si="58">L17-Q17</f>
+        <v>50</v>
+      </c>
+      <c r="Q17" s="46">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AD$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>150</v>
+      </c>
+      <c r="R17" s="36">
+        <f t="shared" ref="R17" si="59" xml:space="preserve"> O17/L17</f>
+        <v>0.9</v>
+      </c>
+      <c r="S17" s="36">
+        <f t="shared" ref="S17" si="60" xml:space="preserve"> P17/L17</f>
+        <v>0.25</v>
+      </c>
+      <c r="T17" s="65">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
+        <v>200</v>
+      </c>
       <c r="U17" s="66">
         <v>700</v>
       </c>
+      <c r="V17" s="46">
+        <f>GETPIVOTDATA("Stories Estimate", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
+        <v>0</v>
+      </c>
+      <c r="W17" s="46">
+        <f>GETPIVOTDATA("Epic Decomposed", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
+        <v>180</v>
+      </c>
+      <c r="X17" s="46">
+        <f t="shared" ref="X17" si="61">T17-Y17</f>
+        <v>50</v>
+      </c>
+      <c r="Y17" s="46">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AD$8, "Type", "Epic", "ST:Components", "Artifact List")</f>
+        <v>150</v>
+      </c>
+      <c r="Z17" s="36">
+        <f t="shared" ref="Z17" si="62" xml:space="preserve"> W17/T17</f>
+        <v>0.9</v>
+      </c>
+      <c r="AA17" s="36">
+        <f t="shared" ref="AA17" si="63">X17/T17</f>
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B18" s="71"/>
     </row>
   </sheetData>
@@ -62327,7 +62483,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -62558,17 +62716,23 @@
         <v>160</v>
       </c>
       <c r="C28">
-        <f t="shared" ref="C28" si="0">GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
-        <v>840</v>
+        <v>594.5</v>
       </c>
       <c r="D28">
-        <f>GETPIVOTDATA("Story Points",$G$1)</f>
-        <v>15</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>161</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29" si="0">GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
+        <v>840</v>
+      </c>
+      <c r="D29">
+        <f>GETPIVOTDATA("Story Points",$G$1)</f>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -62599,7 +62763,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pivotSelection pane="bottomRight" click="1" r:id="rId2">
+      <pivotSelection pane="bottomRight" click="1" r:id="rId4">
         <pivotArea field="32" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
       </pivotSelection>
     </sheetView>
